--- a/src/test/resources/jacobi/test/data/RLayerTest.xlsx
+++ b/src/test/resources/jacobi/test/data/RLayerTest.xlsx
@@ -9,14 +9,15 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12564" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12564" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="test 2-D sort by X" sheetId="1" r:id="rId1"/>
     <sheet name="test 3-D sort by Y desc" sheetId="3" r:id="rId2"/>
     <sheet name="test 4-D sort by T" sheetId="4" r:id="rId3"/>
     <sheet name="test rand 3-D AABBs" sheetId="5" r:id="rId4"/>
-    <sheet name="rand" sheetId="2" r:id="rId5"/>
+    <sheet name="test rand 5-D vectors" sheetId="6" r:id="rId5"/>
+    <sheet name="rand" sheetId="2" r:id="rId6"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="40">
   <si>
     <t>x</t>
   </si>
@@ -133,6 +134,21 @@
   </si>
   <si>
     <t>#11</t>
+  </si>
+  <si>
+    <t>Groups</t>
+  </si>
+  <si>
+    <t>Min</t>
+  </si>
+  <si>
+    <t>Max</t>
+  </si>
+  <si>
+    <t>Start Row</t>
+  </si>
+  <si>
+    <t>End Row</t>
   </si>
 </sst>
 </file>
@@ -3227,7 +3243,7 @@
         <v>24.438756879101355</v>
       </c>
       <c r="F5">
-        <f>IF(J5&lt;$G$1, F4, F4+1)</f>
+        <f t="shared" ref="F5:F33" si="0">IF(J5&lt;$G$1, F4, F4+1)</f>
         <v>0</v>
       </c>
       <c r="G5" s="2">
@@ -3241,7 +3257,7 @@
         <v>0.1253584592959115</v>
       </c>
       <c r="J5">
-        <f>IF(J4&gt;$G$1,0,J4)+I5</f>
+        <f t="shared" ref="J5:J33" si="1">IF(J4&gt;$G$1,0,J4)+I5</f>
         <v>0.53725188744200347</v>
       </c>
       <c r="L5">
@@ -3291,11 +3307,11 @@
         <v>54.223427902664071</v>
       </c>
       <c r="F6">
-        <f>IF(J6&lt;$G$1, F5, F5+1)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G6" s="2">
-        <f t="shared" ref="G6:G33" si="0">IF(F6=F5,G5,ROW(B$4)+H6)</f>
+        <f t="shared" ref="G6:G33" si="2">IF(F6=F5,G5,ROW(B$4)+H6)</f>
         <v>4</v>
       </c>
       <c r="H6">
@@ -3305,7 +3321,7 @@
         <v>0.58573731556733233</v>
       </c>
       <c r="J6">
-        <f>IF(J5&gt;$G$1,0,J5)+I6</f>
+        <f t="shared" si="1"/>
         <v>1.1229892030093358</v>
       </c>
       <c r="L6">
@@ -3355,11 +3371,11 @@
         <v>36.557287935105251</v>
       </c>
       <c r="F7">
-        <f>IF(J7&lt;$G$1, F6, F6+1)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G7" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="H7">
@@ -3369,7 +3385,7 @@
         <v>0.53716633866000929</v>
       </c>
       <c r="J7">
-        <f>IF(J6&gt;$G$1,0,J6)+I7</f>
+        <f t="shared" si="1"/>
         <v>1.660155541669345</v>
       </c>
       <c r="L7">
@@ -3419,11 +3435,11 @@
         <v>30.439431223450754</v>
       </c>
       <c r="F8">
-        <f>IF(J8&lt;$G$1, F7, F7+1)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G8" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="H8">
@@ -3433,7 +3449,7 @@
         <v>0.14585444503081657</v>
       </c>
       <c r="J8">
-        <f>IF(J7&gt;$G$1,0,J7)+I8</f>
+        <f t="shared" si="1"/>
         <v>1.8060099867001616</v>
       </c>
       <c r="L8" s="3">
@@ -3483,11 +3499,11 @@
         <v>50.133822256302331</v>
       </c>
       <c r="F9">
-        <f>IF(J9&lt;$G$1, F8, F8+1)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="G9" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
       <c r="H9">
@@ -3497,7 +3513,7 @@
         <v>0.52802836668867559</v>
       </c>
       <c r="J9">
-        <f>IF(J8&gt;$G$1,0,J8)+I9</f>
+        <f t="shared" si="1"/>
         <v>2.3340383533888369</v>
       </c>
       <c r="L9">
@@ -3547,11 +3563,11 @@
         <v>7.7807403344483106</v>
       </c>
       <c r="F10">
-        <f>IF(J10&lt;$G$1, F9, F9+1)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="G10" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
       <c r="H10">
@@ -3561,7 +3577,7 @@
         <v>0.5261971558468661</v>
       </c>
       <c r="J10">
-        <f>IF(J9&gt;$G$1,0,J9)+I10</f>
+        <f t="shared" si="1"/>
         <v>0.5261971558468661</v>
       </c>
       <c r="L10">
@@ -3611,11 +3627,11 @@
         <v>3.9197860861618139</v>
       </c>
       <c r="F11">
-        <f>IF(J11&lt;$G$1, F10, F10+1)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="G11" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
       <c r="H11">
@@ -3625,7 +3641,7 @@
         <v>0.5574230778982574</v>
       </c>
       <c r="J11">
-        <f>IF(J10&gt;$G$1,0,J10)+I11</f>
+        <f t="shared" si="1"/>
         <v>1.0836202337451235</v>
       </c>
       <c r="L11">
@@ -3675,11 +3691,11 @@
         <v>41.479847015734371</v>
       </c>
       <c r="F12">
-        <f>IF(J12&lt;$G$1, F11, F11+1)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="G12" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
       <c r="H12">
@@ -3689,7 +3705,7 @@
         <v>0.29992273637171141</v>
       </c>
       <c r="J12">
-        <f>IF(J11&gt;$G$1,0,J11)+I12</f>
+        <f t="shared" si="1"/>
         <v>1.3835429701168349</v>
       </c>
       <c r="L12">
@@ -3739,11 +3755,11 @@
         <v>96.676858379083896</v>
       </c>
       <c r="F13">
-        <f>IF(J13&lt;$G$1, F12, F12+1)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="G13" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
       <c r="H13">
@@ -3753,7 +3769,7 @@
         <v>0.54645423045995922</v>
       </c>
       <c r="J13">
-        <f>IF(J12&gt;$G$1,0,J12)+I13</f>
+        <f t="shared" si="1"/>
         <v>1.929997200576794</v>
       </c>
       <c r="L13">
@@ -3803,11 +3819,11 @@
         <v>5.0477278173151729</v>
       </c>
       <c r="F14">
-        <f>IF(J14&lt;$G$1, F13, F13+1)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="G14" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
       <c r="H14">
@@ -3817,7 +3833,7 @@
         <v>5.2355180295556858E-3</v>
       </c>
       <c r="J14">
-        <f>IF(J13&gt;$G$1,0,J13)+I14</f>
+        <f t="shared" si="1"/>
         <v>1.9352327186063496</v>
       </c>
       <c r="L14" s="3">
@@ -3867,11 +3883,11 @@
         <v>96.165993009180966</v>
       </c>
       <c r="F15">
-        <f>IF(J15&lt;$G$1, F14, F14+1)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="G15" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>15</v>
       </c>
       <c r="H15">
@@ -3881,7 +3897,7 @@
         <v>0.43018230545800329</v>
       </c>
       <c r="J15">
-        <f>IF(J14&gt;$G$1,0,J14)+I15</f>
+        <f t="shared" si="1"/>
         <v>2.3654150240643528</v>
       </c>
       <c r="L15">
@@ -3931,11 +3947,11 @@
         <v>85.686399604063993</v>
       </c>
       <c r="F16">
-        <f>IF(J16&lt;$G$1, F15, F15+1)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="G16" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>15</v>
       </c>
       <c r="H16">
@@ -3945,7 +3961,7 @@
         <v>0.58644131462340565</v>
       </c>
       <c r="J16">
-        <f>IF(J15&gt;$G$1,0,J15)+I16</f>
+        <f t="shared" si="1"/>
         <v>0.58644131462340565</v>
       </c>
       <c r="L16">
@@ -3995,11 +4011,11 @@
         <v>12.400446803181531</v>
       </c>
       <c r="F17">
-        <f>IF(J17&lt;$G$1, F16, F16+1)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="G17" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>15</v>
       </c>
       <c r="H17">
@@ -4009,7 +4025,7 @@
         <v>0.75021038790952166</v>
       </c>
       <c r="J17">
-        <f>IF(J16&gt;$G$1,0,J16)+I17</f>
+        <f t="shared" si="1"/>
         <v>1.3366517025329272</v>
       </c>
       <c r="L17">
@@ -4059,11 +4075,11 @@
         <v>93.366760465227571</v>
       </c>
       <c r="F18">
-        <f>IF(J18&lt;$G$1, F17, F17+1)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="G18" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>15</v>
       </c>
       <c r="H18">
@@ -4073,7 +4089,7 @@
         <v>0.52960210701326771</v>
       </c>
       <c r="J18">
-        <f>IF(J17&gt;$G$1,0,J17)+I18</f>
+        <f t="shared" si="1"/>
         <v>1.8662538095461949</v>
       </c>
       <c r="L18" s="3">
@@ -4123,11 +4139,11 @@
         <v>60.080988502443788</v>
       </c>
       <c r="F19">
-        <f>IF(J19&lt;$G$1, F18, F18+1)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="G19" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>19</v>
       </c>
       <c r="H19">
@@ -4137,7 +4153,7 @@
         <v>0.63956074283148756</v>
       </c>
       <c r="J19">
-        <f>IF(J18&gt;$G$1,0,J18)+I19</f>
+        <f t="shared" si="1"/>
         <v>2.5058145523776822</v>
       </c>
       <c r="L19">
@@ -4187,11 +4203,11 @@
         <v>77.509821076604197</v>
       </c>
       <c r="F20">
-        <f>IF(J20&lt;$G$1, F19, F19+1)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="G20" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>19</v>
       </c>
       <c r="H20">
@@ -4201,7 +4217,7 @@
         <v>0.83210420721689893</v>
       </c>
       <c r="J20">
-        <f>IF(J19&gt;$G$1,0,J19)+I20</f>
+        <f t="shared" si="1"/>
         <v>0.83210420721689893</v>
       </c>
       <c r="L20">
@@ -4251,11 +4267,11 @@
         <v>29.088881781649832</v>
       </c>
       <c r="F21">
-        <f>IF(J21&lt;$G$1, F20, F20+1)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="G21" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>19</v>
       </c>
       <c r="H21">
@@ -4265,7 +4281,7 @@
         <v>0.6629265497894129</v>
       </c>
       <c r="J21">
-        <f>IF(J20&gt;$G$1,0,J20)+I21</f>
+        <f t="shared" si="1"/>
         <v>1.4950307570063117</v>
       </c>
       <c r="L21">
@@ -4315,11 +4331,11 @@
         <v>50.503380649297036</v>
       </c>
       <c r="F22">
-        <f>IF(J22&lt;$G$1, F21, F21+1)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="G22" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>19</v>
       </c>
       <c r="H22">
@@ -4329,7 +4345,7 @@
         <v>0.34464518547820433</v>
       </c>
       <c r="J22">
-        <f>IF(J21&gt;$G$1,0,J21)+I22</f>
+        <f t="shared" si="1"/>
         <v>1.8396759424845159</v>
       </c>
       <c r="L22">
@@ -4379,11 +4395,11 @@
         <v>86.267331771780476</v>
       </c>
       <c r="F23">
-        <f>IF(J23&lt;$G$1, F22, F22+1)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="G23" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>19</v>
       </c>
       <c r="H23">
@@ -4393,7 +4409,7 @@
         <v>0.22792457938079169</v>
       </c>
       <c r="J23">
-        <f>IF(J22&gt;$G$1,0,J22)+I23</f>
+        <f t="shared" si="1"/>
         <v>2.0676005218653075</v>
       </c>
       <c r="L23" s="3">
@@ -4443,11 +4459,11 @@
         <v>40.253334426149401</v>
       </c>
       <c r="F24">
-        <f>IF(J24&lt;$G$1, F23, F23+1)</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="G24" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>24</v>
       </c>
       <c r="H24">
@@ -4457,7 +4473,7 @@
         <v>0.58082938157556296</v>
       </c>
       <c r="J24">
-        <f>IF(J23&gt;$G$1,0,J23)+I24</f>
+        <f t="shared" si="1"/>
         <v>2.6484299034408707</v>
       </c>
       <c r="L24">
@@ -4507,11 +4523,11 @@
         <v>89.370987201937922</v>
       </c>
       <c r="F25">
-        <f>IF(J25&lt;$G$1, F24, F24+1)</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="G25" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>24</v>
       </c>
       <c r="H25">
@@ -4521,7 +4537,7 @@
         <v>0.79728408686907959</v>
       </c>
       <c r="J25">
-        <f>IF(J24&gt;$G$1,0,J24)+I25</f>
+        <f t="shared" si="1"/>
         <v>0.79728408686907959</v>
       </c>
       <c r="L25">
@@ -4571,11 +4587,11 @@
         <v>52.728167873330776</v>
       </c>
       <c r="F26">
-        <f>IF(J26&lt;$G$1, F25, F25+1)</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="G26" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>24</v>
       </c>
       <c r="H26">
@@ -4585,7 +4601,7 @@
         <v>0.71783735598862453</v>
       </c>
       <c r="J26">
-        <f>IF(J25&gt;$G$1,0,J25)+I26</f>
+        <f t="shared" si="1"/>
         <v>1.515121442857704</v>
       </c>
       <c r="L26" s="3">
@@ -4635,11 +4651,11 @@
         <v>17.231238531037796</v>
       </c>
       <c r="F27">
-        <f>IF(J27&lt;$G$1, F26, F26+1)</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="G27" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>27</v>
       </c>
       <c r="H27">
@@ -4649,7 +4665,7 @@
         <v>0.80025641351225985</v>
       </c>
       <c r="J27">
-        <f>IF(J26&gt;$G$1,0,J26)+I27</f>
+        <f t="shared" si="1"/>
         <v>2.3153778563699641</v>
       </c>
       <c r="L27">
@@ -4699,11 +4715,11 @@
         <v>56.885036541605537</v>
       </c>
       <c r="F28">
-        <f>IF(J28&lt;$G$1, F27, F27+1)</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="G28" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>27</v>
       </c>
       <c r="H28">
@@ -4713,7 +4729,7 @@
         <v>0.81760628397536805</v>
       </c>
       <c r="J28">
-        <f>IF(J27&gt;$G$1,0,J27)+I28</f>
+        <f t="shared" si="1"/>
         <v>0.81760628397536805</v>
       </c>
       <c r="L28">
@@ -4763,11 +4779,11 @@
         <v>50.188075344117053</v>
       </c>
       <c r="F29">
-        <f>IF(J29&lt;$G$1, F28, F28+1)</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="G29" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>27</v>
       </c>
       <c r="H29">
@@ -4777,7 +4793,7 @@
         <v>0.67625191442329902</v>
       </c>
       <c r="J29">
-        <f>IF(J28&gt;$G$1,0,J28)+I29</f>
+        <f t="shared" si="1"/>
         <v>1.4938581983986672</v>
       </c>
       <c r="L29">
@@ -4827,11 +4843,11 @@
         <v>41.66172011412467</v>
       </c>
       <c r="F30">
-        <f>IF(J30&lt;$G$1, F29, F29+1)</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="G30" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>27</v>
       </c>
       <c r="H30">
@@ -4841,7 +4857,7 @@
         <v>0.13818553802731948</v>
       </c>
       <c r="J30">
-        <f>IF(J29&gt;$G$1,0,J29)+I30</f>
+        <f t="shared" si="1"/>
         <v>1.6320437364259868</v>
       </c>
       <c r="L30">
@@ -4891,11 +4907,11 @@
         <v>32.6657500831517</v>
       </c>
       <c r="F31">
-        <f>IF(J31&lt;$G$1, F30, F30+1)</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="G31" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>27</v>
       </c>
       <c r="H31">
@@ -4905,7 +4921,7 @@
         <v>0.55894955337625085</v>
       </c>
       <c r="J31">
-        <f>IF(J30&gt;$G$1,0,J30)+I31</f>
+        <f t="shared" si="1"/>
         <v>2.1909932898022375</v>
       </c>
       <c r="L31" s="3">
@@ -4955,11 +4971,11 @@
         <v>13.61398036585194</v>
       </c>
       <c r="F32">
-        <f>IF(J32&lt;$G$1, F31, F31+1)</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="G32" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>32</v>
       </c>
       <c r="H32">
@@ -4969,7 +4985,7 @@
         <v>0.80952957896815003</v>
       </c>
       <c r="J32">
-        <f>IF(J31&gt;$G$1,0,J31)+I32</f>
+        <f t="shared" si="1"/>
         <v>3.0005228687703873</v>
       </c>
       <c r="L32">
@@ -5019,11 +5035,11 @@
         <v>31.2134186988709</v>
       </c>
       <c r="F33">
-        <f>IF(J33&lt;$G$1, F32, F32+1)</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="G33" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>32</v>
       </c>
       <c r="H33">
@@ -5033,7 +5049,7 @@
         <v>0.61761657667763592</v>
       </c>
       <c r="J33">
-        <f>IF(J32&gt;$G$1,0,J32)+I33</f>
+        <f t="shared" si="1"/>
         <v>0.61761657667763592</v>
       </c>
       <c r="L33" s="3">
@@ -5085,47 +5101,47 @@
     </row>
     <row r="37" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A37">
-        <f>COUNTIF($F4:$F33,A38)</f>
+        <f t="shared" ref="A37:K37" si="3">COUNTIF($F4:$F33,A38)</f>
         <v>5</v>
       </c>
       <c r="B37">
-        <f>COUNTIF($F4:$F33,B38)</f>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
       <c r="C37">
-        <f>COUNTIF($F4:$F33,C38)</f>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="D37">
-        <f>COUNTIF($F4:$F33,D38)</f>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="E37">
-        <f>COUNTIF($F4:$F33,E38)</f>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="F37">
-        <f>COUNTIF($F4:$F33,F38)</f>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="G37">
-        <f>COUNTIF($F4:$F33,G38)</f>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="H37">
-        <f>COUNTIF($F4:$F33,H38)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I37">
-        <f>COUNTIF($F4:$F33,I38)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J37">
-        <f>COUNTIF($F4:$F33,J38)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K37">
-        <f>COUNTIF($F4:$F33,K38)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -5138,35 +5154,35 @@
         <v>1</v>
       </c>
       <c r="C38" s="1">
-        <f t="shared" ref="C38:J38" si="1">B38+1</f>
+        <f t="shared" ref="C38:J38" si="4">B38+1</f>
         <v>2</v>
       </c>
       <c r="D38" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="E38" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="F38" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="G38" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
       <c r="H38" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>7</v>
       </c>
       <c r="I38" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>8</v>
       </c>
       <c r="J38" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>9</v>
       </c>
       <c r="K38" s="1">
@@ -5205,35 +5221,35 @@
     </row>
     <row r="42" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A42">
-        <f ca="1">INDIRECT(ADDRESS(ROW(INDIRECT($I42)), COLUMN(L3)))</f>
+        <f t="shared" ref="A42:H42" ca="1" si="5">INDIRECT(ADDRESS(ROW(INDIRECT($I42)), COLUMN(L3)))</f>
         <v>1.2237872370974179E-2</v>
       </c>
       <c r="B42">
-        <f ca="1">INDIRECT(ADDRESS(ROW(INDIRECT($I42)), COLUMN(M3)))</f>
+        <f t="shared" ca="1" si="5"/>
         <v>0.18072043457342313</v>
       </c>
       <c r="C42">
-        <f ca="1">INDIRECT(ADDRESS(ROW(INDIRECT($I42)), COLUMN(N3)))</f>
+        <f t="shared" ca="1" si="5"/>
         <v>11.468912522004882</v>
       </c>
       <c r="D42">
-        <f ca="1">INDIRECT(ADDRESS(ROW(INDIRECT($I42)), COLUMN(O3)))</f>
+        <f t="shared" ca="1" si="5"/>
         <v>72.415262141634159</v>
       </c>
       <c r="E42">
-        <f ca="1">INDIRECT(ADDRESS(ROW(INDIRECT($I42)), COLUMN(P3)))</f>
+        <f t="shared" ca="1" si="5"/>
         <v>1.7983025241843142</v>
       </c>
       <c r="F42">
-        <f ca="1">INDIRECT(ADDRESS(ROW(INDIRECT($I42)), COLUMN(Q3)))</f>
+        <f t="shared" ca="1" si="5"/>
         <v>67.035215885485982</v>
       </c>
       <c r="G42" s="2">
-        <f ca="1">INDIRECT(ADDRESS(ROW(INDIRECT($I42)), COLUMN(R3)))</f>
+        <f t="shared" ca="1" si="5"/>
         <v>24.438756879101355</v>
       </c>
       <c r="H42">
-        <f ca="1">INDIRECT(ADDRESS(ROW(INDIRECT($I42)), COLUMN(S3)))</f>
+        <f t="shared" ca="1" si="5"/>
         <v>80.568417045539647</v>
       </c>
       <c r="I42" s="4" t="str">
@@ -5255,35 +5271,35 @@
     </row>
     <row r="43" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A43">
-        <f t="shared" ref="A43:B43" ca="1" si="2">INDIRECT(ADDRESS(ROW(INDIRECT($I43)), COLUMN(L4)))</f>
+        <f t="shared" ref="A43:B43" ca="1" si="6">INDIRECT(ADDRESS(ROW(INDIRECT($I43)), COLUMN(L4)))</f>
         <v>0.19288612733052779</v>
       </c>
       <c r="B43">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="6"/>
         <v>0.32620034820661725</v>
       </c>
       <c r="C43">
-        <f ca="1">INDIRECT(ADDRESS(ROW(INDIRECT($I43)), COLUMN(N4)))</f>
+        <f t="shared" ref="C43:H48" ca="1" si="7">INDIRECT(ADDRESS(ROW(INDIRECT($I43)), COLUMN(N4)))</f>
         <v>7.552904808705807</v>
       </c>
       <c r="D43">
-        <f ca="1">INDIRECT(ADDRESS(ROW(INDIRECT($I43)), COLUMN(O4)))</f>
+        <f t="shared" ca="1" si="7"/>
         <v>66.443439170719188</v>
       </c>
       <c r="E43">
-        <f ca="1">INDIRECT(ADDRESS(ROW(INDIRECT($I43)), COLUMN(P4)))</f>
+        <f t="shared" ca="1" si="7"/>
         <v>13.739433744886542</v>
       </c>
       <c r="F43">
-        <f ca="1">INDIRECT(ADDRESS(ROW(INDIRECT($I43)), COLUMN(Q4)))</f>
+        <f t="shared" ca="1" si="7"/>
         <v>92.321120310628146</v>
       </c>
       <c r="G43" s="2">
-        <f ca="1">INDIRECT(ADDRESS(ROW(INDIRECT($I43)), COLUMN(R4)))</f>
+        <f t="shared" ca="1" si="7"/>
         <v>3.9197860861618139</v>
       </c>
       <c r="H43">
-        <f ca="1">INDIRECT(ADDRESS(ROW(INDIRECT($I43)), COLUMN(S4)))</f>
+        <f t="shared" ca="1" si="7"/>
         <v>96.676858379083896</v>
       </c>
       <c r="I43" s="4" t="str">
@@ -5305,35 +5321,35 @@
     </row>
     <row r="44" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A44">
-        <f t="shared" ref="A44:B44" ca="1" si="3">INDIRECT(ADDRESS(ROW(INDIRECT($I44)), COLUMN(L5)))</f>
+        <f t="shared" ref="A44:B44" ca="1" si="8">INDIRECT(ADDRESS(ROW(INDIRECT($I44)), COLUMN(L5)))</f>
         <v>0.37524624193898237</v>
       </c>
       <c r="B44">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="8"/>
         <v>0.44015890638452737</v>
       </c>
       <c r="C44">
-        <f ca="1">INDIRECT(ADDRESS(ROW(INDIRECT($I44)), COLUMN(N5)))</f>
+        <f t="shared" ca="1" si="7"/>
         <v>6.7640444669710202</v>
       </c>
       <c r="D44">
-        <f ca="1">INDIRECT(ADDRESS(ROW(INDIRECT($I44)), COLUMN(O5)))</f>
+        <f t="shared" ca="1" si="7"/>
         <v>50.144747527275221</v>
       </c>
       <c r="E44">
-        <f ca="1">INDIRECT(ADDRESS(ROW(INDIRECT($I44)), COLUMN(P5)))</f>
+        <f t="shared" ca="1" si="7"/>
         <v>8.3911599496839901</v>
       </c>
       <c r="F44">
-        <f ca="1">INDIRECT(ADDRESS(ROW(INDIRECT($I44)), COLUMN(Q5)))</f>
+        <f t="shared" ca="1" si="7"/>
         <v>65.982245199253484</v>
       </c>
       <c r="G44" s="2">
-        <f ca="1">INDIRECT(ADDRESS(ROW(INDIRECT($I44)), COLUMN(R5)))</f>
+        <f t="shared" ca="1" si="7"/>
         <v>12.400446803181531</v>
       </c>
       <c r="H44">
-        <f ca="1">INDIRECT(ADDRESS(ROW(INDIRECT($I44)), COLUMN(S5)))</f>
+        <f t="shared" ca="1" si="7"/>
         <v>96.165993009180966</v>
       </c>
       <c r="I44" s="4" t="str">
@@ -5355,35 +5371,35 @@
     </row>
     <row r="45" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A45">
-        <f t="shared" ref="A45:B45" ca="1" si="4">INDIRECT(ADDRESS(ROW(INDIRECT($I45)), COLUMN(L6)))</f>
+        <f t="shared" ref="A45:B45" ca="1" si="9">INDIRECT(ADDRESS(ROW(INDIRECT($I45)), COLUMN(L6)))</f>
         <v>0.49009058762793711</v>
       </c>
       <c r="B45">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="9"/>
         <v>0.56982316176352932</v>
       </c>
       <c r="C45">
-        <f ca="1">INDIRECT(ADDRESS(ROW(INDIRECT($I45)), COLUMN(N6)))</f>
+        <f t="shared" ca="1" si="7"/>
         <v>3.1098670199960377</v>
       </c>
       <c r="D45">
-        <f ca="1">INDIRECT(ADDRESS(ROW(INDIRECT($I45)), COLUMN(O6)))</f>
+        <f t="shared" ca="1" si="7"/>
         <v>91.10291260423358</v>
       </c>
       <c r="E45">
-        <f ca="1">INDIRECT(ADDRESS(ROW(INDIRECT($I45)), COLUMN(P6)))</f>
+        <f t="shared" ca="1" si="7"/>
         <v>23.211328142464804</v>
       </c>
       <c r="F45">
-        <f ca="1">INDIRECT(ADDRESS(ROW(INDIRECT($I45)), COLUMN(Q6)))</f>
+        <f t="shared" ca="1" si="7"/>
         <v>71.033676732103075</v>
       </c>
       <c r="G45" s="2">
-        <f ca="1">INDIRECT(ADDRESS(ROW(INDIRECT($I45)), COLUMN(R6)))</f>
+        <f t="shared" ca="1" si="7"/>
         <v>29.088881781649832</v>
       </c>
       <c r="H45">
-        <f ca="1">INDIRECT(ADDRESS(ROW(INDIRECT($I45)), COLUMN(S6)))</f>
+        <f t="shared" ca="1" si="7"/>
         <v>86.267331771780476</v>
       </c>
       <c r="I45" s="4" t="str">
@@ -5405,35 +5421,35 @@
     </row>
     <row r="46" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A46">
-        <f t="shared" ref="A46:B46" ca="1" si="5">INDIRECT(ADDRESS(ROW(INDIRECT($I46)), COLUMN(L7)))</f>
+        <f t="shared" ref="A46:B46" ca="1" si="10">INDIRECT(ADDRESS(ROW(INDIRECT($I46)), COLUMN(L7)))</f>
         <v>0.65710933057317633</v>
       </c>
       <c r="B46">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="10"/>
         <v>0.72306138662019459</v>
       </c>
       <c r="C46">
-        <f ca="1">INDIRECT(ADDRESS(ROW(INDIRECT($I46)), COLUMN(N7)))</f>
+        <f t="shared" ca="1" si="7"/>
         <v>20.793871718332667</v>
       </c>
       <c r="D46">
-        <f ca="1">INDIRECT(ADDRESS(ROW(INDIRECT($I46)), COLUMN(O7)))</f>
+        <f t="shared" ca="1" si="7"/>
         <v>47.357676230411514</v>
       </c>
       <c r="E46">
-        <f ca="1">INDIRECT(ADDRESS(ROW(INDIRECT($I46)), COLUMN(P7)))</f>
+        <f t="shared" ca="1" si="7"/>
         <v>2.8945142622861408</v>
       </c>
       <c r="F46">
-        <f ca="1">INDIRECT(ADDRESS(ROW(INDIRECT($I46)), COLUMN(Q7)))</f>
+        <f t="shared" ca="1" si="7"/>
         <v>68.350648186716654</v>
       </c>
       <c r="G46" s="2">
-        <f ca="1">INDIRECT(ADDRESS(ROW(INDIRECT($I46)), COLUMN(R7)))</f>
+        <f t="shared" ca="1" si="7"/>
         <v>40.253334426149401</v>
       </c>
       <c r="H46">
-        <f ca="1">INDIRECT(ADDRESS(ROW(INDIRECT($I46)), COLUMN(S7)))</f>
+        <f t="shared" ca="1" si="7"/>
         <v>89.370987201937922</v>
       </c>
       <c r="I46" s="4" t="str">
@@ -5455,35 +5471,35 @@
     </row>
     <row r="47" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A47">
-        <f t="shared" ref="A47:B47" ca="1" si="6">INDIRECT(ADDRESS(ROW(INDIRECT($I47)), COLUMN(L8)))</f>
+        <f t="shared" ref="A47:B47" ca="1" si="11">INDIRECT(ADDRESS(ROW(INDIRECT($I47)), COLUMN(L8)))</f>
         <v>0.83004071485557873</v>
       </c>
       <c r="B47">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="11"/>
         <v>0.92853138670651336</v>
       </c>
       <c r="C47">
-        <f ca="1">INDIRECT(ADDRESS(ROW(INDIRECT($I47)), COLUMN(N8)))</f>
+        <f t="shared" ca="1" si="7"/>
         <v>20.920138381951659</v>
       </c>
       <c r="D47">
-        <f ca="1">INDIRECT(ADDRESS(ROW(INDIRECT($I47)), COLUMN(O8)))</f>
+        <f t="shared" ca="1" si="7"/>
         <v>97.236002222040057</v>
       </c>
       <c r="E47">
-        <f ca="1">INDIRECT(ADDRESS(ROW(INDIRECT($I47)), COLUMN(P8)))</f>
+        <f t="shared" ca="1" si="7"/>
         <v>15.719826932743942</v>
       </c>
       <c r="F47">
-        <f ca="1">INDIRECT(ADDRESS(ROW(INDIRECT($I47)), COLUMN(Q8)))</f>
+        <f t="shared" ca="1" si="7"/>
         <v>69.959925781221344</v>
       </c>
       <c r="G47" s="2">
-        <f ca="1">INDIRECT(ADDRESS(ROW(INDIRECT($I47)), COLUMN(R8)))</f>
+        <f t="shared" ca="1" si="7"/>
         <v>17.231238531037796</v>
       </c>
       <c r="H47">
-        <f ca="1">INDIRECT(ADDRESS(ROW(INDIRECT($I47)), COLUMN(S8)))</f>
+        <f t="shared" ca="1" si="7"/>
         <v>56.885036541605537</v>
       </c>
       <c r="I47" s="4" t="str">
@@ -5491,11 +5507,11 @@
         <v>$F$31</v>
       </c>
       <c r="J47" t="b">
-        <f t="shared" ref="J47:J48" ca="1" si="7">INDIRECT(I47)&lt;&gt;INDIRECT(ADDRESS(ROW(I47)+1,COLUMN(I47)))</f>
+        <f t="shared" ref="J47:J48" ca="1" si="12">INDIRECT(I47)&lt;&gt;INDIRECT(ADDRESS(ROW(I47)+1,COLUMN(I47)))</f>
         <v>1</v>
       </c>
       <c r="K47">
-        <f t="shared" ref="K47:K48" ca="1" si="8">ROW(INDIRECT(I47))-ROW(INDIRECT(I46))</f>
+        <f t="shared" ref="K47:K48" ca="1" si="13">ROW(INDIRECT(I47))-ROW(INDIRECT(I46))</f>
         <v>5</v>
       </c>
       <c r="L47" t="b">
@@ -5505,35 +5521,35 @@
     </row>
     <row r="48" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A48">
-        <f t="shared" ref="A48:B48" ca="1" si="9">INDIRECT(ADDRESS(ROW(INDIRECT($I48)), COLUMN(L9)))</f>
+        <f t="shared" ref="A48:B48" ca="1" si="14">INDIRECT(ADDRESS(ROW(INDIRECT($I48)), COLUMN(L9)))</f>
         <v>0.94018355801881226</v>
       </c>
       <c r="B48">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="14"/>
         <v>0.95322938783117761</v>
       </c>
       <c r="C48">
-        <f ca="1">INDIRECT(ADDRESS(ROW(INDIRECT($I48)), COLUMN(N9)))</f>
+        <f t="shared" ca="1" si="7"/>
         <v>35.423673338583384</v>
       </c>
       <c r="D48">
-        <f ca="1">INDIRECT(ADDRESS(ROW(INDIRECT($I48)), COLUMN(O9)))</f>
+        <f t="shared" ca="1" si="7"/>
         <v>51.326460341032529</v>
       </c>
       <c r="E48">
-        <f ca="1">INDIRECT(ADDRESS(ROW(INDIRECT($I48)), COLUMN(P9)))</f>
+        <f t="shared" ca="1" si="7"/>
         <v>27.104281713513323</v>
       </c>
       <c r="F48">
-        <f ca="1">INDIRECT(ADDRESS(ROW(INDIRECT($I48)), COLUMN(Q9)))</f>
+        <f t="shared" ca="1" si="7"/>
         <v>44.958523665675735</v>
       </c>
       <c r="G48" s="2">
-        <f ca="1">INDIRECT(ADDRESS(ROW(INDIRECT($I48)), COLUMN(R9)))</f>
+        <f t="shared" ca="1" si="7"/>
         <v>13.61398036585194</v>
       </c>
       <c r="H48">
-        <f ca="1">INDIRECT(ADDRESS(ROW(INDIRECT($I48)), COLUMN(S9)))</f>
+        <f t="shared" ca="1" si="7"/>
         <v>31.2134186988709</v>
       </c>
       <c r="I48" s="4" t="str">
@@ -5541,11 +5557,11 @@
         <v>$F$33</v>
       </c>
       <c r="J48" t="b">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="12"/>
         <v>1</v>
       </c>
       <c r="K48">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="13"/>
         <v>2</v>
       </c>
       <c r="L48" t="b">
@@ -5565,8 +5581,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="J60" sqref="J60"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L3" sqref="L3:L33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -7498,47 +7514,47 @@
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A36">
-        <f>COUNTIF($H4:$H33,A37)</f>
+        <f t="shared" ref="A36:K36" si="9">COUNTIF($H4:$H33,A37)</f>
         <v>5</v>
       </c>
       <c r="B36">
-        <f>COUNTIF($H4:$H33,B37)</f>
+        <f t="shared" si="9"/>
         <v>7</v>
       </c>
       <c r="C36">
-        <f>COUNTIF($H4:$H33,C37)</f>
+        <f t="shared" si="9"/>
         <v>4</v>
       </c>
       <c r="D36">
-        <f>COUNTIF($H4:$H33,D37)</f>
+        <f t="shared" si="9"/>
         <v>8</v>
       </c>
       <c r="E36">
-        <f>COUNTIF($H4:$H33,E37)</f>
+        <f t="shared" si="9"/>
         <v>6</v>
       </c>
       <c r="F36">
-        <f>COUNTIF($H4:$H33,F37)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="G36">
-        <f>COUNTIF($H4:$H33,G37)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H36">
-        <f>COUNTIF($H4:$H33,H37)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="I36">
-        <f>COUNTIF($H4:$H33,I37)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="J36">
-        <f>COUNTIF($H4:$H33,J37)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="K36">
-        <f>COUNTIF($H4:$H33,K37)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -7551,35 +7567,35 @@
         <v>1</v>
       </c>
       <c r="C37" s="1">
-        <f t="shared" ref="C37:J37" si="9">B37+1</f>
+        <f t="shared" ref="C37:J37" si="10">B37+1</f>
         <v>2</v>
       </c>
       <c r="D37" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>3</v>
       </c>
       <c r="E37" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>4</v>
       </c>
       <c r="F37" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>5</v>
       </c>
       <c r="G37" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>6</v>
       </c>
       <c r="H37" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>7</v>
       </c>
       <c r="I37" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>8</v>
       </c>
       <c r="J37" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>9</v>
       </c>
       <c r="K37" s="1">
@@ -7607,19 +7623,19 @@
         <v>5</v>
       </c>
       <c r="B41">
-        <f t="shared" ref="B41:E41" si="10">B36</f>
+        <f t="shared" ref="B41:E41" si="11">B36</f>
         <v>7</v>
       </c>
       <c r="C41">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>4</v>
       </c>
       <c r="D41">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>8</v>
       </c>
       <c r="E41">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>6</v>
       </c>
       <c r="G41">
@@ -7990,10 +8006,1414 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O51"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="C10" workbookViewId="0">
+      <selection activeCell="K33" sqref="K33:O38"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="10" max="11" width="11.8984375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="H1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1">
+        <f>SQRT(2)</f>
+        <v>1.4142135623730951</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>20</v>
+      </c>
+      <c r="B3">
+        <v>5</v>
+      </c>
+      <c r="H3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I3" t="s">
+        <v>21</v>
+      </c>
+      <c r="J3" t="s">
+        <v>12</v>
+      </c>
+      <c r="K3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>-42.109116923693435</v>
+      </c>
+      <c r="B4">
+        <v>-47.90048226765947</v>
+      </c>
+      <c r="C4">
+        <v>-5.2231537336294451</v>
+      </c>
+      <c r="D4">
+        <v>3.2640820689742398</v>
+      </c>
+      <c r="E4">
+        <v>-31.42972913917853</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0.78868641142104967</v>
+      </c>
+      <c r="K4">
+        <f>J4</f>
+        <v>0.78868641142104967</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>-45.599005774638542</v>
+      </c>
+      <c r="B5">
+        <v>-0.56409278531049978</v>
+      </c>
+      <c r="C5">
+        <v>-24.663462558784211</v>
+      </c>
+      <c r="D5">
+        <v>1.9148363537899513</v>
+      </c>
+      <c r="E5">
+        <v>24.592212607675634</v>
+      </c>
+      <c r="H5">
+        <f>IF(K5&lt;$I$1, H4, H4+1)</f>
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+      <c r="J5">
+        <v>0.45565995875503029</v>
+      </c>
+      <c r="K5">
+        <f>IF(K4&gt;$I$1,0,K4)+J5</f>
+        <v>1.24434637017608</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>-19.485197163929602</v>
+      </c>
+      <c r="B6">
+        <v>-25.916573334671067</v>
+      </c>
+      <c r="C6">
+        <v>-20.774838729578359</v>
+      </c>
+      <c r="D6">
+        <v>-24.81933065707479</v>
+      </c>
+      <c r="E6">
+        <v>47.639401555478329</v>
+      </c>
+      <c r="H6">
+        <f>IF(K6&lt;$I$1, H5, H5+1)</f>
+        <v>1</v>
+      </c>
+      <c r="I6">
+        <v>2</v>
+      </c>
+      <c r="J6">
+        <v>0.86622898691654271</v>
+      </c>
+      <c r="K6">
+        <f t="shared" ref="K6:K23" si="0">IF(K5&gt;$I$1,0,K5)+J6</f>
+        <v>2.1105753570926229</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>-23.429305739286143</v>
+      </c>
+      <c r="B7">
+        <v>43.397978181580072</v>
+      </c>
+      <c r="C7">
+        <v>-4.389890816375221</v>
+      </c>
+      <c r="D7">
+        <v>-27.369585467129752</v>
+      </c>
+      <c r="E7">
+        <v>-13.657003426494931</v>
+      </c>
+      <c r="H7">
+        <f>IF(K7&lt;$I$1, H6, H6+1)</f>
+        <v>1</v>
+      </c>
+      <c r="I7">
+        <v>3</v>
+      </c>
+      <c r="J7">
+        <v>0.8643156612451679</v>
+      </c>
+      <c r="K7">
+        <f t="shared" si="0"/>
+        <v>0.8643156612451679</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>-21.548219409009196</v>
+      </c>
+      <c r="B8">
+        <v>2.9469248746782668</v>
+      </c>
+      <c r="C8">
+        <v>43.311955542449212</v>
+      </c>
+      <c r="D8">
+        <v>-4.4495587668836976</v>
+      </c>
+      <c r="E8">
+        <v>11.911828951843049</v>
+      </c>
+      <c r="H8">
+        <f>IF(K8&lt;$I$1, H7, H7+1)</f>
+        <v>1</v>
+      </c>
+      <c r="I8">
+        <v>4</v>
+      </c>
+      <c r="J8">
+        <v>2.0858768548820183E-2</v>
+      </c>
+      <c r="K8">
+        <f t="shared" si="0"/>
+        <v>0.88517442979398808</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>31.243661252324188</v>
+      </c>
+      <c r="B9">
+        <v>38.512292415530396</v>
+      </c>
+      <c r="C9">
+        <v>-0.72287182367206526</v>
+      </c>
+      <c r="D9">
+        <v>13.013855632518393</v>
+      </c>
+      <c r="E9">
+        <v>7.9145193404836931</v>
+      </c>
+      <c r="H9">
+        <f>IF(K9&lt;$I$1, H8, H8+1)</f>
+        <v>2</v>
+      </c>
+      <c r="I9">
+        <v>5</v>
+      </c>
+      <c r="J9">
+        <v>0.82377812678609574</v>
+      </c>
+      <c r="K9">
+        <f t="shared" si="0"/>
+        <v>1.7089525565800838</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>-29.129023168718117</v>
+      </c>
+      <c r="B10">
+        <v>1.8552242238228729</v>
+      </c>
+      <c r="C10">
+        <v>7.77131782661138</v>
+      </c>
+      <c r="D10">
+        <v>2.6694377853350346</v>
+      </c>
+      <c r="E10">
+        <v>-20.281533239828388</v>
+      </c>
+      <c r="H10">
+        <f>IF(K10&lt;$I$1, H9, H9+1)</f>
+        <v>2</v>
+      </c>
+      <c r="I10">
+        <v>6</v>
+      </c>
+      <c r="J10">
+        <v>0.11927340007654863</v>
+      </c>
+      <c r="K10">
+        <f t="shared" si="0"/>
+        <v>0.11927340007654863</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>-49.748202733267824</v>
+      </c>
+      <c r="B11">
+        <v>44.397141024031001</v>
+      </c>
+      <c r="C11">
+        <v>-26.746204502936965</v>
+      </c>
+      <c r="D11">
+        <v>34.186888503313114</v>
+      </c>
+      <c r="E11">
+        <v>-24.920588715088922</v>
+      </c>
+      <c r="H11">
+        <f>IF(K11&lt;$I$1, H10, H10+1)</f>
+        <v>2</v>
+      </c>
+      <c r="I11">
+        <v>7</v>
+      </c>
+      <c r="J11">
+        <v>7.1492059289615328E-2</v>
+      </c>
+      <c r="K11">
+        <f t="shared" si="0"/>
+        <v>0.19076545936616396</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>28.777661123723902</v>
+      </c>
+      <c r="B12">
+        <v>-9.143286700446005</v>
+      </c>
+      <c r="C12">
+        <v>15.230999959624981</v>
+      </c>
+      <c r="D12">
+        <v>-34.619459509213137</v>
+      </c>
+      <c r="E12">
+        <v>-3.2802313145997815</v>
+      </c>
+      <c r="H12">
+        <f>IF(K12&lt;$I$1, H11, H11+1)</f>
+        <v>2</v>
+      </c>
+      <c r="I12">
+        <v>8</v>
+      </c>
+      <c r="J12">
+        <v>0.17635222003482609</v>
+      </c>
+      <c r="K12">
+        <f t="shared" si="0"/>
+        <v>0.36711767940099005</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>-13.859434963385809</v>
+      </c>
+      <c r="B13">
+        <v>34.830042848690965</v>
+      </c>
+      <c r="C13">
+        <v>-25.863580338867465</v>
+      </c>
+      <c r="D13">
+        <v>35.619333477838666</v>
+      </c>
+      <c r="E13">
+        <v>12.864474859567899</v>
+      </c>
+      <c r="H13">
+        <f>IF(K13&lt;$I$1, H12, H12+1)</f>
+        <v>2</v>
+      </c>
+      <c r="I13">
+        <v>9</v>
+      </c>
+      <c r="J13">
+        <v>0.2547952891914893</v>
+      </c>
+      <c r="K13">
+        <f t="shared" si="0"/>
+        <v>0.62191296859247935</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>-8.8404742109470718</v>
+      </c>
+      <c r="B14">
+        <v>-32.373025791904411</v>
+      </c>
+      <c r="C14">
+        <v>-13.237442178335591</v>
+      </c>
+      <c r="D14">
+        <v>-36.229122613448453</v>
+      </c>
+      <c r="E14">
+        <v>-23.847336380625105</v>
+      </c>
+      <c r="H14">
+        <f>IF(K14&lt;$I$1, H13, H13+1)</f>
+        <v>2</v>
+      </c>
+      <c r="I14">
+        <v>10</v>
+      </c>
+      <c r="J14">
+        <v>0.64358512074834751</v>
+      </c>
+      <c r="K14">
+        <f t="shared" si="0"/>
+        <v>1.2654980893408267</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>-14.994910709849343</v>
+      </c>
+      <c r="B15">
+        <v>-6.1838962489505604</v>
+      </c>
+      <c r="C15">
+        <v>14.603229242797454</v>
+      </c>
+      <c r="D15">
+        <v>-37.602091536422499</v>
+      </c>
+      <c r="E15">
+        <v>19.01095766958305</v>
+      </c>
+      <c r="H15">
+        <f>IF(K15&lt;$I$1, H14, H14+1)</f>
+        <v>3</v>
+      </c>
+      <c r="I15">
+        <v>11</v>
+      </c>
+      <c r="J15">
+        <v>0.2644513415947759</v>
+      </c>
+      <c r="K15">
+        <f t="shared" si="0"/>
+        <v>1.5299494309356025</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>-11.031069361397471</v>
+      </c>
+      <c r="B16">
+        <v>-9.2893118849517791</v>
+      </c>
+      <c r="C16">
+        <v>24.418911382299896</v>
+      </c>
+      <c r="D16">
+        <v>-12.717116632834582</v>
+      </c>
+      <c r="E16">
+        <v>3.6432465799866165</v>
+      </c>
+      <c r="H16">
+        <f>IF(K16&lt;$I$1, H15, H15+1)</f>
+        <v>3</v>
+      </c>
+      <c r="I16">
+        <v>12</v>
+      </c>
+      <c r="J16">
+        <v>0.23965541335257867</v>
+      </c>
+      <c r="K16">
+        <f t="shared" si="0"/>
+        <v>0.23965541335257867</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>-41.83229371221163</v>
+      </c>
+      <c r="B17">
+        <v>-39.676002950293878</v>
+      </c>
+      <c r="C17">
+        <v>-38.366001491320723</v>
+      </c>
+      <c r="D17">
+        <v>-12.164146444777181</v>
+      </c>
+      <c r="E17">
+        <v>-30.52159341545304</v>
+      </c>
+      <c r="H17">
+        <f>IF(K17&lt;$I$1, H16, H16+1)</f>
+        <v>3</v>
+      </c>
+      <c r="I17">
+        <v>13</v>
+      </c>
+      <c r="J17">
+        <v>0.19331226210160724</v>
+      </c>
+      <c r="K17">
+        <f t="shared" si="0"/>
+        <v>0.43296767545418591</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>-43.911806661016897</v>
+      </c>
+      <c r="B18">
+        <v>47.654998542651342</v>
+      </c>
+      <c r="C18">
+        <v>-31.366422771673452</v>
+      </c>
+      <c r="D18">
+        <v>9.2615895110385011</v>
+      </c>
+      <c r="E18">
+        <v>29.868503912410745</v>
+      </c>
+      <c r="H18">
+        <f>IF(K18&lt;$I$1, H17, H17+1)</f>
+        <v>3</v>
+      </c>
+      <c r="I18">
+        <v>14</v>
+      </c>
+      <c r="J18">
+        <v>0.90644124342010024</v>
+      </c>
+      <c r="K18">
+        <f t="shared" si="0"/>
+        <v>1.3394089188742861</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>32.090046657648017</v>
+      </c>
+      <c r="B19">
+        <v>-7.137128647260873</v>
+      </c>
+      <c r="C19">
+        <v>1.6798474442192486</v>
+      </c>
+      <c r="D19">
+        <v>-26.631715100456276</v>
+      </c>
+      <c r="E19">
+        <v>-38.408999807179697</v>
+      </c>
+      <c r="H19">
+        <f>IF(K19&lt;$I$1, H18, H18+1)</f>
+        <v>3</v>
+      </c>
+      <c r="I19">
+        <v>15</v>
+      </c>
+      <c r="J19">
+        <v>3.8365041069269856E-2</v>
+      </c>
+      <c r="K19">
+        <f t="shared" si="0"/>
+        <v>1.3777739599435561</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>37.592204732227557</v>
+      </c>
+      <c r="B20">
+        <v>-32.475159455904233</v>
+      </c>
+      <c r="C20">
+        <v>11.687886872395303</v>
+      </c>
+      <c r="D20">
+        <v>39.481359772430508</v>
+      </c>
+      <c r="E20">
+        <v>49.697432263214381</v>
+      </c>
+      <c r="H20">
+        <f>IF(K20&lt;$I$1, H19, H19+1)</f>
+        <v>4</v>
+      </c>
+      <c r="I20">
+        <v>16</v>
+      </c>
+      <c r="J20">
+        <v>0.83803583658351632</v>
+      </c>
+      <c r="K20">
+        <f t="shared" si="0"/>
+        <v>2.2158097965270724</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>-44.157231430581099</v>
+      </c>
+      <c r="B21">
+        <v>47.044963258179692</v>
+      </c>
+      <c r="C21">
+        <v>43.898661849587569</v>
+      </c>
+      <c r="D21">
+        <v>42.391292193264036</v>
+      </c>
+      <c r="E21">
+        <v>0.81172260461277546</v>
+      </c>
+      <c r="H21">
+        <f>IF(K21&lt;$I$1, H20, H20+1)</f>
+        <v>4</v>
+      </c>
+      <c r="I21">
+        <v>17</v>
+      </c>
+      <c r="J21">
+        <v>0.16434153641504079</v>
+      </c>
+      <c r="K21">
+        <f t="shared" si="0"/>
+        <v>0.16434153641504079</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>-48.457526463785825</v>
+      </c>
+      <c r="B22">
+        <v>-18.317099384063575</v>
+      </c>
+      <c r="C22">
+        <v>-8.6500432271144021</v>
+      </c>
+      <c r="D22">
+        <v>-0.74044567898822322</v>
+      </c>
+      <c r="E22">
+        <v>-47.596405163043265</v>
+      </c>
+      <c r="H22">
+        <f>IF(K22&lt;$I$1, H21, H21+1)</f>
+        <v>4</v>
+      </c>
+      <c r="I22">
+        <v>18</v>
+      </c>
+      <c r="J22">
+        <v>0.34723195043095501</v>
+      </c>
+      <c r="K22">
+        <f t="shared" si="0"/>
+        <v>0.5115734868459958</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>34.587698459276737</v>
+      </c>
+      <c r="B23">
+        <v>-39.661003019963488</v>
+      </c>
+      <c r="C23">
+        <v>26.603995313755178</v>
+      </c>
+      <c r="D23">
+        <v>47.391801294922303</v>
+      </c>
+      <c r="E23">
+        <v>-34.304338561127864</v>
+      </c>
+      <c r="H23">
+        <f>IF(K23&lt;$I$1, H22, H22+1)</f>
+        <v>5</v>
+      </c>
+      <c r="I23">
+        <v>19</v>
+      </c>
+      <c r="J23">
+        <v>0.9204286411388658</v>
+      </c>
+      <c r="K23">
+        <f t="shared" si="0"/>
+        <v>1.4320021279848616</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>1</v>
+      </c>
+      <c r="B26">
+        <f>MAX(H4:H23)+1</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <f>COUNTIF($H4:$H23,A28)</f>
+        <v>2</v>
+      </c>
+      <c r="B27">
+        <f t="shared" ref="B27:F27" si="1">COUNTIF($H4:$H23,B28)</f>
+        <v>3</v>
+      </c>
+      <c r="C27">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="D27">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="E27">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="F27">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A28" s="1">
+        <v>0</v>
+      </c>
+      <c r="B28" s="1">
+        <v>1</v>
+      </c>
+      <c r="C28" s="1">
+        <v>2</v>
+      </c>
+      <c r="D28" s="1">
+        <v>3</v>
+      </c>
+      <c r="E28" s="1">
+        <v>4</v>
+      </c>
+      <c r="F28" s="1">
+        <v>5</v>
+      </c>
+      <c r="G28" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>26</v>
+      </c>
+      <c r="B32" t="s">
+        <v>38</v>
+      </c>
+      <c r="C32" t="s">
+        <v>39</v>
+      </c>
+      <c r="E32" t="s">
+        <v>36</v>
+      </c>
+      <c r="K32" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <f>A27</f>
+        <v>2</v>
+      </c>
+      <c r="B33">
+        <f>ROW(A4)</f>
+        <v>4</v>
+      </c>
+      <c r="C33">
+        <f>B33+A33-1</f>
+        <v>5</v>
+      </c>
+      <c r="E33">
+        <f ca="1">MIN(INDIRECT(ADDRESS($B33,COLUMN(A4))): INDIRECT(ADDRESS($C33, COLUMN(A4))))</f>
+        <v>-45.599005774638542</v>
+      </c>
+      <c r="F33">
+        <f ca="1">MIN(INDIRECT(ADDRESS($B33,COLUMN(B4))): INDIRECT(ADDRESS($C33, COLUMN(B4))))</f>
+        <v>-47.90048226765947</v>
+      </c>
+      <c r="G33">
+        <f ca="1">MIN(INDIRECT(ADDRESS($B33,COLUMN(C4))): INDIRECT(ADDRESS($C33, COLUMN(C4))))</f>
+        <v>-24.663462558784211</v>
+      </c>
+      <c r="H33">
+        <f ca="1">MIN(INDIRECT(ADDRESS($B33,COLUMN(D4))): INDIRECT(ADDRESS($C33, COLUMN(D4))))</f>
+        <v>1.9148363537899513</v>
+      </c>
+      <c r="I33">
+        <f ca="1">MIN(INDIRECT(ADDRESS($B33,COLUMN(E4))): INDIRECT(ADDRESS($C33, COLUMN(E4))))</f>
+        <v>-31.42972913917853</v>
+      </c>
+      <c r="K33">
+        <f ca="1">MAX(INDIRECT(ADDRESS($B33,COLUMN(A4))):INDIRECT(ADDRESS($C33, COLUMN(A4))))</f>
+        <v>-42.109116923693435</v>
+      </c>
+      <c r="L33">
+        <f ca="1">MAX(INDIRECT(ADDRESS($B33,COLUMN(B4))):INDIRECT(ADDRESS($C33, COLUMN(B4))))</f>
+        <v>-0.56409278531049978</v>
+      </c>
+      <c r="M33">
+        <f ca="1">MAX(INDIRECT(ADDRESS($B33,COLUMN(C4))):INDIRECT(ADDRESS($C33, COLUMN(C4))))</f>
+        <v>-5.2231537336294451</v>
+      </c>
+      <c r="N33">
+        <f ca="1">MAX(INDIRECT(ADDRESS($B33,COLUMN(D4))):INDIRECT(ADDRESS($C33, COLUMN(D4))))</f>
+        <v>3.2640820689742398</v>
+      </c>
+      <c r="O33">
+        <f ca="1">MAX(INDIRECT(ADDRESS($B33,COLUMN(E4))):INDIRECT(ADDRESS($C33, COLUMN(E4))))</f>
+        <v>24.592212607675634</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <f>B27</f>
+        <v>3</v>
+      </c>
+      <c r="B34">
+        <f>C33+1</f>
+        <v>6</v>
+      </c>
+      <c r="C34">
+        <f>B34+A34-1</f>
+        <v>8</v>
+      </c>
+      <c r="E34">
+        <f ca="1">MIN(INDIRECT(ADDRESS($B34,COLUMN(A5))): INDIRECT(ADDRESS($C34, COLUMN(A5))))</f>
+        <v>-23.429305739286143</v>
+      </c>
+      <c r="F34">
+        <f ca="1">MIN(INDIRECT(ADDRESS($B34,COLUMN(B5))): INDIRECT(ADDRESS($C34, COLUMN(B5))))</f>
+        <v>-25.916573334671067</v>
+      </c>
+      <c r="G34">
+        <f ca="1">MIN(INDIRECT(ADDRESS($B34,COLUMN(C5))): INDIRECT(ADDRESS($C34, COLUMN(C5))))</f>
+        <v>-20.774838729578359</v>
+      </c>
+      <c r="H34">
+        <f ca="1">MIN(INDIRECT(ADDRESS($B34,COLUMN(D5))): INDIRECT(ADDRESS($C34, COLUMN(D5))))</f>
+        <v>-27.369585467129752</v>
+      </c>
+      <c r="I34">
+        <f ca="1">MIN(INDIRECT(ADDRESS($B34,COLUMN(E5))): INDIRECT(ADDRESS($C34, COLUMN(E5))))</f>
+        <v>-13.657003426494931</v>
+      </c>
+      <c r="K34">
+        <f ca="1">MAX(INDIRECT(ADDRESS($B34,COLUMN(A5))):INDIRECT(ADDRESS($C34, COLUMN(A5))))</f>
+        <v>-19.485197163929602</v>
+      </c>
+      <c r="L34">
+        <f ca="1">MAX(INDIRECT(ADDRESS($B34,COLUMN(B5))):INDIRECT(ADDRESS($C34, COLUMN(B5))))</f>
+        <v>43.397978181580072</v>
+      </c>
+      <c r="M34">
+        <f ca="1">MAX(INDIRECT(ADDRESS($B34,COLUMN(C5))):INDIRECT(ADDRESS($C34, COLUMN(C5))))</f>
+        <v>43.311955542449212</v>
+      </c>
+      <c r="N34">
+        <f ca="1">MAX(INDIRECT(ADDRESS($B34,COLUMN(D5))):INDIRECT(ADDRESS($C34, COLUMN(D5))))</f>
+        <v>-4.4495587668836976</v>
+      </c>
+      <c r="O34">
+        <f ca="1">MAX(INDIRECT(ADDRESS($B34,COLUMN(E5))):INDIRECT(ADDRESS($C34, COLUMN(E5))))</f>
+        <v>47.639401555478329</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <f>C27</f>
+        <v>6</v>
+      </c>
+      <c r="B35">
+        <f t="shared" ref="B35:B38" si="2">C34+1</f>
+        <v>9</v>
+      </c>
+      <c r="C35">
+        <f>B35+A35-1</f>
+        <v>14</v>
+      </c>
+      <c r="E35">
+        <f ca="1">MIN(INDIRECT(ADDRESS($B35,COLUMN(A6))): INDIRECT(ADDRESS($C35, COLUMN(A6))))</f>
+        <v>-49.748202733267824</v>
+      </c>
+      <c r="F35">
+        <f ca="1">MIN(INDIRECT(ADDRESS($B35,COLUMN(B6))): INDIRECT(ADDRESS($C35, COLUMN(B6))))</f>
+        <v>-32.373025791904411</v>
+      </c>
+      <c r="G35">
+        <f ca="1">MIN(INDIRECT(ADDRESS($B35,COLUMN(C6))): INDIRECT(ADDRESS($C35, COLUMN(C6))))</f>
+        <v>-26.746204502936965</v>
+      </c>
+      <c r="H35">
+        <f ca="1">MIN(INDIRECT(ADDRESS($B35,COLUMN(D6))): INDIRECT(ADDRESS($C35, COLUMN(D6))))</f>
+        <v>-36.229122613448453</v>
+      </c>
+      <c r="I35">
+        <f ca="1">MIN(INDIRECT(ADDRESS($B35,COLUMN(E6))): INDIRECT(ADDRESS($C35, COLUMN(E6))))</f>
+        <v>-24.920588715088922</v>
+      </c>
+      <c r="K35">
+        <f ca="1">MAX(INDIRECT(ADDRESS($B35,COLUMN(A6))):INDIRECT(ADDRESS($C35, COLUMN(A6))))</f>
+        <v>31.243661252324188</v>
+      </c>
+      <c r="L35">
+        <f ca="1">MAX(INDIRECT(ADDRESS($B35,COLUMN(B6))):INDIRECT(ADDRESS($C35, COLUMN(B6))))</f>
+        <v>44.397141024031001</v>
+      </c>
+      <c r="M35">
+        <f ca="1">MAX(INDIRECT(ADDRESS($B35,COLUMN(C6))):INDIRECT(ADDRESS($C35, COLUMN(C6))))</f>
+        <v>15.230999959624981</v>
+      </c>
+      <c r="N35">
+        <f ca="1">MAX(INDIRECT(ADDRESS($B35,COLUMN(D6))):INDIRECT(ADDRESS($C35, COLUMN(D6))))</f>
+        <v>35.619333477838666</v>
+      </c>
+      <c r="O35">
+        <f ca="1">MAX(INDIRECT(ADDRESS($B35,COLUMN(E6))):INDIRECT(ADDRESS($C35, COLUMN(E6))))</f>
+        <v>12.864474859567899</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <f>D27</f>
+        <v>5</v>
+      </c>
+      <c r="B36">
+        <f>C35+1</f>
+        <v>15</v>
+      </c>
+      <c r="C36">
+        <f t="shared" ref="C35:C38" si="3">B36+A36-1</f>
+        <v>19</v>
+      </c>
+      <c r="E36">
+        <f ca="1">MIN(INDIRECT(ADDRESS($B36,COLUMN(A7))): INDIRECT(ADDRESS($C36, COLUMN(A7))))</f>
+        <v>-43.911806661016897</v>
+      </c>
+      <c r="F36">
+        <f ca="1">MIN(INDIRECT(ADDRESS($B36,COLUMN(B7))): INDIRECT(ADDRESS($C36, COLUMN(B7))))</f>
+        <v>-39.676002950293878</v>
+      </c>
+      <c r="G36">
+        <f ca="1">MIN(INDIRECT(ADDRESS($B36,COLUMN(C7))): INDIRECT(ADDRESS($C36, COLUMN(C7))))</f>
+        <v>-38.366001491320723</v>
+      </c>
+      <c r="H36">
+        <f ca="1">MIN(INDIRECT(ADDRESS($B36,COLUMN(D7))): INDIRECT(ADDRESS($C36, COLUMN(D7))))</f>
+        <v>-37.602091536422499</v>
+      </c>
+      <c r="I36">
+        <f ca="1">MIN(INDIRECT(ADDRESS($B36,COLUMN(E7))): INDIRECT(ADDRESS($C36, COLUMN(E7))))</f>
+        <v>-38.408999807179697</v>
+      </c>
+      <c r="K36">
+        <f ca="1">MAX(INDIRECT(ADDRESS($B36,COLUMN(A7))):INDIRECT(ADDRESS($C36, COLUMN(A7))))</f>
+        <v>32.090046657648017</v>
+      </c>
+      <c r="L36">
+        <f ca="1">MAX(INDIRECT(ADDRESS($B36,COLUMN(B7))):INDIRECT(ADDRESS($C36, COLUMN(B7))))</f>
+        <v>47.654998542651342</v>
+      </c>
+      <c r="M36">
+        <f ca="1">MAX(INDIRECT(ADDRESS($B36,COLUMN(C7))):INDIRECT(ADDRESS($C36, COLUMN(C7))))</f>
+        <v>24.418911382299896</v>
+      </c>
+      <c r="N36">
+        <f ca="1">MAX(INDIRECT(ADDRESS($B36,COLUMN(D7))):INDIRECT(ADDRESS($C36, COLUMN(D7))))</f>
+        <v>9.2615895110385011</v>
+      </c>
+      <c r="O36">
+        <f ca="1">MAX(INDIRECT(ADDRESS($B36,COLUMN(E7))):INDIRECT(ADDRESS($C36, COLUMN(E7))))</f>
+        <v>29.868503912410745</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <f>E27</f>
+        <v>3</v>
+      </c>
+      <c r="B37">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="C37">
+        <f t="shared" si="3"/>
+        <v>22</v>
+      </c>
+      <c r="E37">
+        <f ca="1">MIN(INDIRECT(ADDRESS($B37,COLUMN(A8))): INDIRECT(ADDRESS($C37, COLUMN(A8))))</f>
+        <v>-48.457526463785825</v>
+      </c>
+      <c r="F37">
+        <f ca="1">MIN(INDIRECT(ADDRESS($B37,COLUMN(B8))): INDIRECT(ADDRESS($C37, COLUMN(B8))))</f>
+        <v>-32.475159455904233</v>
+      </c>
+      <c r="G37">
+        <f ca="1">MIN(INDIRECT(ADDRESS($B37,COLUMN(C8))): INDIRECT(ADDRESS($C37, COLUMN(C8))))</f>
+        <v>-8.6500432271144021</v>
+      </c>
+      <c r="H37">
+        <f ca="1">MIN(INDIRECT(ADDRESS($B37,COLUMN(D8))): INDIRECT(ADDRESS($C37, COLUMN(D8))))</f>
+        <v>-0.74044567898822322</v>
+      </c>
+      <c r="I37">
+        <f ca="1">MIN(INDIRECT(ADDRESS($B37,COLUMN(E8))): INDIRECT(ADDRESS($C37, COLUMN(E8))))</f>
+        <v>-47.596405163043265</v>
+      </c>
+      <c r="K37">
+        <f ca="1">MAX(INDIRECT(ADDRESS($B37,COLUMN(A8))):INDIRECT(ADDRESS($C37, COLUMN(A8))))</f>
+        <v>37.592204732227557</v>
+      </c>
+      <c r="L37">
+        <f ca="1">MAX(INDIRECT(ADDRESS($B37,COLUMN(B8))):INDIRECT(ADDRESS($C37, COLUMN(B8))))</f>
+        <v>47.044963258179692</v>
+      </c>
+      <c r="M37">
+        <f ca="1">MAX(INDIRECT(ADDRESS($B37,COLUMN(C8))):INDIRECT(ADDRESS($C37, COLUMN(C8))))</f>
+        <v>43.898661849587569</v>
+      </c>
+      <c r="N37">
+        <f ca="1">MAX(INDIRECT(ADDRESS($B37,COLUMN(D8))):INDIRECT(ADDRESS($C37, COLUMN(D8))))</f>
+        <v>42.391292193264036</v>
+      </c>
+      <c r="O37">
+        <f ca="1">MAX(INDIRECT(ADDRESS($B37,COLUMN(E8))):INDIRECT(ADDRESS($C37, COLUMN(E8))))</f>
+        <v>49.697432263214381</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <f>F27</f>
+        <v>1</v>
+      </c>
+      <c r="B38">
+        <f t="shared" si="2"/>
+        <v>23</v>
+      </c>
+      <c r="C38">
+        <f t="shared" si="3"/>
+        <v>23</v>
+      </c>
+      <c r="E38">
+        <f ca="1">MIN(INDIRECT(ADDRESS($B38,COLUMN(A9))): INDIRECT(ADDRESS($C38, COLUMN(A9))))</f>
+        <v>34.587698459276737</v>
+      </c>
+      <c r="F38">
+        <f ca="1">MIN(INDIRECT(ADDRESS($B38,COLUMN(B9))): INDIRECT(ADDRESS($C38, COLUMN(B9))))</f>
+        <v>-39.661003019963488</v>
+      </c>
+      <c r="G38">
+        <f ca="1">MIN(INDIRECT(ADDRESS($B38,COLUMN(C9))): INDIRECT(ADDRESS($C38, COLUMN(C9))))</f>
+        <v>26.603995313755178</v>
+      </c>
+      <c r="H38">
+        <f ca="1">MIN(INDIRECT(ADDRESS($B38,COLUMN(D9))): INDIRECT(ADDRESS($C38, COLUMN(D9))))</f>
+        <v>47.391801294922303</v>
+      </c>
+      <c r="I38">
+        <f ca="1">MIN(INDIRECT(ADDRESS($B38,COLUMN(E9))): INDIRECT(ADDRESS($C38, COLUMN(E9))))</f>
+        <v>-34.304338561127864</v>
+      </c>
+      <c r="K38">
+        <f ca="1">MAX(INDIRECT(ADDRESS($B38,COLUMN(A9))):INDIRECT(ADDRESS($C38, COLUMN(A9))))</f>
+        <v>34.587698459276737</v>
+      </c>
+      <c r="L38">
+        <f ca="1">MAX(INDIRECT(ADDRESS($B38,COLUMN(B9))):INDIRECT(ADDRESS($C38, COLUMN(B9))))</f>
+        <v>-39.661003019963488</v>
+      </c>
+      <c r="M38">
+        <f ca="1">MAX(INDIRECT(ADDRESS($B38,COLUMN(C9))):INDIRECT(ADDRESS($C38, COLUMN(C9))))</f>
+        <v>26.603995313755178</v>
+      </c>
+      <c r="N38">
+        <f ca="1">MAX(INDIRECT(ADDRESS($B38,COLUMN(D9))):INDIRECT(ADDRESS($C38, COLUMN(D9))))</f>
+        <v>47.391801294922303</v>
+      </c>
+      <c r="O38">
+        <f ca="1">MAX(INDIRECT(ADDRESS($B38,COLUMN(E9))):INDIRECT(ADDRESS($C38, COLUMN(E9))))</f>
+        <v>-34.304338561127864</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <f>B26</f>
+        <v>6</v>
+      </c>
+      <c r="B41">
+        <f>2*B3</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <f ca="1">E33</f>
+        <v>-45.599005774638542</v>
+      </c>
+      <c r="B42">
+        <f ca="1">K33</f>
+        <v>-42.109116923693435</v>
+      </c>
+      <c r="C42">
+        <f ca="1">F33</f>
+        <v>-47.90048226765947</v>
+      </c>
+      <c r="D42">
+        <f ca="1">L33</f>
+        <v>-0.56409278531049978</v>
+      </c>
+      <c r="E42">
+        <f ca="1">G33</f>
+        <v>-24.663462558784211</v>
+      </c>
+      <c r="F42">
+        <f ca="1">M33</f>
+        <v>-5.2231537336294451</v>
+      </c>
+      <c r="G42">
+        <f ca="1">H33</f>
+        <v>1.9148363537899513</v>
+      </c>
+      <c r="H42">
+        <f ca="1">N33</f>
+        <v>3.2640820689742398</v>
+      </c>
+      <c r="I42">
+        <f ca="1">I33</f>
+        <v>-31.42972913917853</v>
+      </c>
+      <c r="J42">
+        <f ca="1">O33</f>
+        <v>24.592212607675634</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <f t="shared" ref="A43:A47" ca="1" si="4">E34</f>
+        <v>-23.429305739286143</v>
+      </c>
+      <c r="B43">
+        <f t="shared" ref="B43:B47" ca="1" si="5">K34</f>
+        <v>-19.485197163929602</v>
+      </c>
+      <c r="C43">
+        <f t="shared" ref="C43:C47" ca="1" si="6">F34</f>
+        <v>-25.916573334671067</v>
+      </c>
+      <c r="D43">
+        <f t="shared" ref="D43:D47" ca="1" si="7">L34</f>
+        <v>43.397978181580072</v>
+      </c>
+      <c r="E43">
+        <f t="shared" ref="E43:E47" ca="1" si="8">G34</f>
+        <v>-20.774838729578359</v>
+      </c>
+      <c r="F43">
+        <f t="shared" ref="F43:F47" ca="1" si="9">M34</f>
+        <v>43.311955542449212</v>
+      </c>
+      <c r="G43">
+        <f t="shared" ref="G43:G47" ca="1" si="10">H34</f>
+        <v>-27.369585467129752</v>
+      </c>
+      <c r="H43">
+        <f t="shared" ref="H43:H47" ca="1" si="11">N34</f>
+        <v>-4.4495587668836976</v>
+      </c>
+      <c r="I43">
+        <f t="shared" ref="I43:I47" ca="1" si="12">I34</f>
+        <v>-13.657003426494931</v>
+      </c>
+      <c r="J43">
+        <f t="shared" ref="J43:J47" ca="1" si="13">O34</f>
+        <v>47.639401555478329</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <f t="shared" ca="1" si="4"/>
+        <v>-49.748202733267824</v>
+      </c>
+      <c r="B44">
+        <f t="shared" ca="1" si="5"/>
+        <v>31.243661252324188</v>
+      </c>
+      <c r="C44">
+        <f t="shared" ca="1" si="6"/>
+        <v>-32.373025791904411</v>
+      </c>
+      <c r="D44">
+        <f t="shared" ca="1" si="7"/>
+        <v>44.397141024031001</v>
+      </c>
+      <c r="E44">
+        <f t="shared" ca="1" si="8"/>
+        <v>-26.746204502936965</v>
+      </c>
+      <c r="F44">
+        <f t="shared" ca="1" si="9"/>
+        <v>15.230999959624981</v>
+      </c>
+      <c r="G44">
+        <f t="shared" ca="1" si="10"/>
+        <v>-36.229122613448453</v>
+      </c>
+      <c r="H44">
+        <f t="shared" ca="1" si="11"/>
+        <v>35.619333477838666</v>
+      </c>
+      <c r="I44">
+        <f t="shared" ca="1" si="12"/>
+        <v>-24.920588715088922</v>
+      </c>
+      <c r="J44">
+        <f t="shared" ca="1" si="13"/>
+        <v>12.864474859567899</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <f t="shared" ca="1" si="4"/>
+        <v>-43.911806661016897</v>
+      </c>
+      <c r="B45">
+        <f t="shared" ca="1" si="5"/>
+        <v>32.090046657648017</v>
+      </c>
+      <c r="C45">
+        <f t="shared" ca="1" si="6"/>
+        <v>-39.676002950293878</v>
+      </c>
+      <c r="D45">
+        <f t="shared" ca="1" si="7"/>
+        <v>47.654998542651342</v>
+      </c>
+      <c r="E45">
+        <f t="shared" ca="1" si="8"/>
+        <v>-38.366001491320723</v>
+      </c>
+      <c r="F45">
+        <f t="shared" ca="1" si="9"/>
+        <v>24.418911382299896</v>
+      </c>
+      <c r="G45">
+        <f t="shared" ca="1" si="10"/>
+        <v>-37.602091536422499</v>
+      </c>
+      <c r="H45">
+        <f t="shared" ca="1" si="11"/>
+        <v>9.2615895110385011</v>
+      </c>
+      <c r="I45">
+        <f t="shared" ca="1" si="12"/>
+        <v>-38.408999807179697</v>
+      </c>
+      <c r="J45">
+        <f t="shared" ca="1" si="13"/>
+        <v>29.868503912410745</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <f t="shared" ca="1" si="4"/>
+        <v>-48.457526463785825</v>
+      </c>
+      <c r="B46">
+        <f t="shared" ca="1" si="5"/>
+        <v>37.592204732227557</v>
+      </c>
+      <c r="C46">
+        <f t="shared" ca="1" si="6"/>
+        <v>-32.475159455904233</v>
+      </c>
+      <c r="D46">
+        <f t="shared" ca="1" si="7"/>
+        <v>47.044963258179692</v>
+      </c>
+      <c r="E46">
+        <f t="shared" ca="1" si="8"/>
+        <v>-8.6500432271144021</v>
+      </c>
+      <c r="F46">
+        <f t="shared" ca="1" si="9"/>
+        <v>43.898661849587569</v>
+      </c>
+      <c r="G46">
+        <f t="shared" ca="1" si="10"/>
+        <v>-0.74044567898822322</v>
+      </c>
+      <c r="H46">
+        <f t="shared" ca="1" si="11"/>
+        <v>42.391292193264036</v>
+      </c>
+      <c r="I46">
+        <f t="shared" ca="1" si="12"/>
+        <v>-47.596405163043265</v>
+      </c>
+      <c r="J46">
+        <f t="shared" ca="1" si="13"/>
+        <v>49.697432263214381</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <f t="shared" ca="1" si="4"/>
+        <v>34.587698459276737</v>
+      </c>
+      <c r="B47">
+        <f t="shared" ca="1" si="5"/>
+        <v>34.587698459276737</v>
+      </c>
+      <c r="C47">
+        <f t="shared" ca="1" si="6"/>
+        <v>-39.661003019963488</v>
+      </c>
+      <c r="D47">
+        <f t="shared" ca="1" si="7"/>
+        <v>-39.661003019963488</v>
+      </c>
+      <c r="E47">
+        <f t="shared" ca="1" si="8"/>
+        <v>26.603995313755178</v>
+      </c>
+      <c r="F47">
+        <f t="shared" ca="1" si="9"/>
+        <v>26.603995313755178</v>
+      </c>
+      <c r="G47">
+        <f t="shared" ca="1" si="10"/>
+        <v>47.391801294922303</v>
+      </c>
+      <c r="H47">
+        <f t="shared" ca="1" si="11"/>
+        <v>47.391801294922303</v>
+      </c>
+      <c r="I47">
+        <f t="shared" ca="1" si="12"/>
+        <v>-34.304338561127864</v>
+      </c>
+      <c r="J47">
+        <f t="shared" ca="1" si="13"/>
+        <v>-34.304338561127864</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>1</v>
+      </c>
+      <c r="B50">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <v>0</v>
+      </c>
+      <c r="B51">
+        <f>A33</f>
+        <v>2</v>
+      </c>
+      <c r="C51">
+        <f>A51+B51</f>
+        <v>2</v>
+      </c>
+      <c r="D51">
+        <f>A34</f>
+        <v>3</v>
+      </c>
+      <c r="E51">
+        <f>C51+D51</f>
+        <v>5</v>
+      </c>
+      <c r="F51">
+        <f>A35</f>
+        <v>6</v>
+      </c>
+      <c r="G51">
+        <f>E51+F51</f>
+        <v>11</v>
+      </c>
+      <c r="H51">
+        <f>A36</f>
+        <v>5</v>
+      </c>
+      <c r="I51">
+        <f>G51+H51</f>
+        <v>16</v>
+      </c>
+      <c r="J51">
+        <f>A37</f>
+        <v>3</v>
+      </c>
+      <c r="K51">
+        <f>I51+J51</f>
+        <v>19</v>
+      </c>
+      <c r="L51">
+        <f>A38</f>
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+      <selection activeCell="B2" sqref="B2:F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -8001,1261 +9421,1261 @@
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1">
         <f ca="1">RAND()*100-50</f>
-        <v>4.4372001000524293</v>
+        <v>-24.264942750010043</v>
       </c>
       <c r="B1">
         <f t="shared" ref="B1:J16" ca="1" si="0">RAND()*100-50</f>
-        <v>31.707940809788397</v>
+        <v>16.91884716061503</v>
       </c>
       <c r="C1">
         <f t="shared" ca="1" si="0"/>
-        <v>39.566472182700153</v>
+        <v>38.273279994824293</v>
       </c>
       <c r="D1">
         <f t="shared" ca="1" si="0"/>
-        <v>-40.623145210010094</v>
+        <v>23.936674504464747</v>
       </c>
       <c r="E1">
         <f t="shared" ca="1" si="0"/>
-        <v>-31.301630135223334</v>
+        <v>-0.2805195225206063</v>
       </c>
       <c r="F1">
         <f t="shared" ca="1" si="0"/>
-        <v>31.231500728970744</v>
+        <v>41.920156274526505</v>
       </c>
       <c r="G1">
         <f t="shared" ca="1" si="0"/>
-        <v>34.478775764684627</v>
+        <v>-25.629671567555668</v>
       </c>
       <c r="H1">
         <f t="shared" ca="1" si="0"/>
-        <v>-28.474718387050068</v>
+        <v>7.1834123486637083</v>
       </c>
       <c r="I1">
         <f t="shared" ca="1" si="0"/>
-        <v>35.6891929306137</v>
+        <v>22.794112276298549</v>
       </c>
       <c r="J1">
         <f t="shared" ca="1" si="0"/>
-        <v>18.879722417427587</v>
+        <v>38.044570040847134</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2">
         <f t="shared" ref="A2:J30" ca="1" si="1">RAND()*100-50</f>
-        <v>21.998692624467239</v>
+        <v>-11.498180043521778</v>
       </c>
       <c r="B2">
         <f t="shared" ca="1" si="0"/>
-        <v>28.956024407919003</v>
+        <v>-16.847593755579659</v>
       </c>
       <c r="C2">
         <f t="shared" ca="1" si="0"/>
-        <v>-47.404096289349916</v>
+        <v>-31.400217240730953</v>
       </c>
       <c r="D2">
         <f t="shared" ca="1" si="0"/>
-        <v>-5.4693827083733026</v>
+        <v>-13.542468746188007</v>
       </c>
       <c r="E2">
         <f t="shared" ca="1" si="0"/>
-        <v>13.682125049007198</v>
+        <v>23.4773048858886</v>
       </c>
       <c r="F2">
         <f t="shared" ca="1" si="0"/>
-        <v>45.589135738087833</v>
+        <v>45.074181528994401</v>
       </c>
       <c r="G2">
         <f t="shared" ca="1" si="0"/>
-        <v>-37.897821252560604</v>
+        <v>-30.556380866468626</v>
       </c>
       <c r="H2">
         <f t="shared" ca="1" si="0"/>
-        <v>-20.00365534779257</v>
+        <v>42.650068950431617</v>
       </c>
       <c r="I2">
         <f t="shared" ca="1" si="0"/>
-        <v>-7.3286902662363289</v>
+        <v>47.491435152844033</v>
       </c>
       <c r="J2">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.348199686833226</v>
+        <v>39.71895932267941</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3">
         <f t="shared" ca="1" si="1"/>
-        <v>-30.20720875875028</v>
+        <v>-4.9383493325045009</v>
       </c>
       <c r="B3">
         <f t="shared" ca="1" si="0"/>
-        <v>7.3807100808436417</v>
+        <v>19.784627667631867</v>
       </c>
       <c r="C3">
         <f t="shared" ca="1" si="0"/>
-        <v>-9.190541705506881</v>
+        <v>-37.240186657207239</v>
       </c>
       <c r="D3">
         <f t="shared" ca="1" si="0"/>
-        <v>-10.820983840413369</v>
+        <v>-23.144403152128767</v>
       </c>
       <c r="E3">
         <f t="shared" ca="1" si="0"/>
-        <v>12.827325135110165</v>
+        <v>2.7555608512061198</v>
       </c>
       <c r="F3">
         <f t="shared" ca="1" si="0"/>
-        <v>20.221287410861095</v>
+        <v>4.1618579414109718</v>
       </c>
       <c r="G3">
         <f t="shared" ca="1" si="0"/>
-        <v>-16.364797140036593</v>
+        <v>-43.55430442337871</v>
       </c>
       <c r="H3">
         <f t="shared" ca="1" si="0"/>
-        <v>-12.504249846020784</v>
+        <v>9.58124787620185</v>
       </c>
       <c r="I3">
         <f t="shared" ca="1" si="0"/>
-        <v>33.218392725119017</v>
+        <v>-28.708886353788841</v>
       </c>
       <c r="J3">
         <f t="shared" ca="1" si="0"/>
-        <v>26.85323112027902</v>
+        <v>-14.250389323861235</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4">
         <f t="shared" ca="1" si="1"/>
-        <v>-22.264508080557732</v>
+        <v>46.721278544404825</v>
       </c>
       <c r="B4">
         <f t="shared" ca="1" si="0"/>
-        <v>12.36672708490407</v>
+        <v>-38.043073582688805</v>
       </c>
       <c r="C4">
         <f t="shared" ca="1" si="0"/>
-        <v>29.213063831081641</v>
+        <v>-48.829776733333318</v>
       </c>
       <c r="D4">
         <f t="shared" ca="1" si="0"/>
-        <v>-32.106912493587274</v>
+        <v>-44.895911251755024</v>
       </c>
       <c r="E4">
         <f t="shared" ca="1" si="0"/>
-        <v>-17.004723439539617</v>
+        <v>18.386566665533294</v>
       </c>
       <c r="F4">
         <f t="shared" ca="1" si="0"/>
-        <v>-13.127824834732628</v>
+        <v>42.1241078920403</v>
       </c>
       <c r="G4">
         <f t="shared" ca="1" si="0"/>
-        <v>-1.3178866607901796</v>
+        <v>25.721955020126273</v>
       </c>
       <c r="H4">
         <f t="shared" ca="1" si="0"/>
-        <v>-37.415783590016282</v>
+        <v>-24.703199650061837</v>
       </c>
       <c r="I4">
         <f t="shared" ca="1" si="0"/>
-        <v>-46.500528839634129</v>
+        <v>-4.7987205622655154</v>
       </c>
       <c r="J4">
         <f t="shared" ca="1" si="0"/>
-        <v>4.3685411189861796</v>
+        <v>17.219976410114754</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5">
         <f t="shared" ca="1" si="1"/>
-        <v>11.381145036690931</v>
+        <v>-24.732977700790435</v>
       </c>
       <c r="B5">
         <f t="shared" ca="1" si="0"/>
-        <v>-5.8461205324854433</v>
+        <v>26.663744347776358</v>
       </c>
       <c r="C5">
         <f t="shared" ca="1" si="0"/>
-        <v>-42.094869221985462</v>
+        <v>19.143820827586055</v>
       </c>
       <c r="D5">
         <f t="shared" ca="1" si="0"/>
-        <v>48.464369673422539</v>
+        <v>-15.498739322480517</v>
       </c>
       <c r="E5">
         <f t="shared" ca="1" si="0"/>
-        <v>11.741106338258611</v>
+        <v>-37.664242789088519</v>
       </c>
       <c r="F5">
         <f t="shared" ca="1" si="0"/>
-        <v>22.072542052976829</v>
+        <v>-42.423042150578496</v>
       </c>
       <c r="G5">
         <f t="shared" ca="1" si="0"/>
-        <v>33.024672543522996</v>
+        <v>39.30593934966285</v>
       </c>
       <c r="H5">
         <f t="shared" ca="1" si="0"/>
-        <v>35.943825877615311</v>
+        <v>-3.8834258381426423</v>
       </c>
       <c r="I5">
         <f t="shared" ca="1" si="0"/>
-        <v>-41.286374738085229</v>
+        <v>-7.1245845010969973</v>
       </c>
       <c r="J5">
         <f t="shared" ca="1" si="0"/>
-        <v>-19.856390300592587</v>
+        <v>41.13199552467546</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6">
         <f t="shared" ca="1" si="1"/>
-        <v>-8.6487703355723227</v>
+        <v>38.015997996094882</v>
       </c>
       <c r="B6">
         <f t="shared" ca="1" si="0"/>
-        <v>0.46556345235926244</v>
+        <v>42.301493032235911</v>
       </c>
       <c r="C6">
         <f t="shared" ca="1" si="0"/>
-        <v>-20.501480142190822</v>
+        <v>36.519627733857902</v>
       </c>
       <c r="D6">
         <f t="shared" ca="1" si="0"/>
-        <v>0.88905460733993635</v>
+        <v>16.881232019052121</v>
       </c>
       <c r="E6">
         <f t="shared" ca="1" si="0"/>
-        <v>16.775132546135865</v>
+        <v>6.0129550851039184</v>
       </c>
       <c r="F6">
         <f t="shared" ca="1" si="0"/>
-        <v>11.159155722817523</v>
+        <v>42.10853906934517</v>
       </c>
       <c r="G6">
         <f t="shared" ca="1" si="0"/>
-        <v>-20.774572938091794</v>
+        <v>-31.674055318683582</v>
       </c>
       <c r="H6">
         <f t="shared" ca="1" si="0"/>
-        <v>29.727556972709337</v>
+        <v>-34.952567552440861</v>
       </c>
       <c r="I6">
         <f t="shared" ca="1" si="0"/>
-        <v>-5.8632739277458015</v>
+        <v>-1.6367864794925708</v>
       </c>
       <c r="J6">
         <f t="shared" ca="1" si="0"/>
-        <v>5.7300455429986954</v>
+        <v>3.608625916084172</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7">
         <f t="shared" ca="1" si="1"/>
-        <v>17.469029573840317</v>
+        <v>-0.86132886433605194</v>
       </c>
       <c r="B7">
         <f t="shared" ca="1" si="0"/>
-        <v>-29.243952623609314</v>
+        <v>48.535389103545938</v>
       </c>
       <c r="C7">
         <f t="shared" ca="1" si="0"/>
-        <v>10.274818368319103</v>
+        <v>26.842015212405741</v>
       </c>
       <c r="D7">
         <f t="shared" ca="1" si="0"/>
-        <v>-40.468427702439435</v>
+        <v>2.6124275248433548</v>
       </c>
       <c r="E7">
         <f t="shared" ca="1" si="0"/>
-        <v>18.08855138735035</v>
+        <v>-33.985780983967118</v>
       </c>
       <c r="F7">
         <f t="shared" ca="1" si="0"/>
-        <v>-17.541834518242773</v>
+        <v>33.696350089575816</v>
       </c>
       <c r="G7">
         <f t="shared" ca="1" si="0"/>
-        <v>-25.661924327619467</v>
+        <v>-40.177864668934049</v>
       </c>
       <c r="H7">
         <f t="shared" ca="1" si="0"/>
-        <v>-35.209057563013133</v>
+        <v>29.319085660598077</v>
       </c>
       <c r="I7">
         <f t="shared" ca="1" si="0"/>
-        <v>-24.705038814560552</v>
+        <v>-48.03614893718666</v>
       </c>
       <c r="J7">
         <f t="shared" ca="1" si="0"/>
-        <v>17.308467491519536</v>
+        <v>-48.982258823907252</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8">
         <f t="shared" ca="1" si="1"/>
-        <v>-27.514233828086777</v>
+        <v>-12.221847122431527</v>
       </c>
       <c r="B8">
         <f t="shared" ca="1" si="0"/>
-        <v>-18.310450694938407</v>
+        <v>-37.246645850573287</v>
       </c>
       <c r="C8">
         <f t="shared" ca="1" si="0"/>
-        <v>45.123918669543116</v>
+        <v>-48.851204815604</v>
       </c>
       <c r="D8">
         <f t="shared" ca="1" si="0"/>
-        <v>-39.341515237376214</v>
+        <v>2.1437201362101135</v>
       </c>
       <c r="E8">
         <f t="shared" ca="1" si="0"/>
-        <v>35.154191339642324</v>
+        <v>12.344994975222271</v>
       </c>
       <c r="F8">
         <f t="shared" ca="1" si="0"/>
-        <v>23.632029982836471</v>
+        <v>6.0943262400437987</v>
       </c>
       <c r="G8">
         <f t="shared" ca="1" si="0"/>
-        <v>-41.866629436684221</v>
+        <v>37.630634610389464</v>
       </c>
       <c r="H8">
         <f t="shared" ca="1" si="0"/>
-        <v>-11.62441739912726</v>
+        <v>39.542589507381194</v>
       </c>
       <c r="I8">
         <f t="shared" ca="1" si="0"/>
-        <v>-4.5316594444284704</v>
+        <v>40.408913104590198</v>
       </c>
       <c r="J8">
         <f t="shared" ca="1" si="0"/>
-        <v>39.508061484280034</v>
+        <v>34.220192070303995</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9">
         <f t="shared" ca="1" si="1"/>
-        <v>45.294161068644513</v>
+        <v>30.958614856535917</v>
       </c>
       <c r="B9">
         <f t="shared" ca="1" si="0"/>
-        <v>19.213503413098351</v>
+        <v>-7.1198579209167505</v>
       </c>
       <c r="C9">
         <f t="shared" ca="1" si="0"/>
-        <v>-7.2508031374076793</v>
+        <v>40.908824458795863</v>
       </c>
       <c r="D9">
         <f t="shared" ca="1" si="0"/>
-        <v>-4.9245197109572985</v>
+        <v>-11.388980328749497</v>
       </c>
       <c r="E9">
         <f t="shared" ca="1" si="0"/>
-        <v>-42.736654309482837</v>
+        <v>28.601119537529726</v>
       </c>
       <c r="F9">
         <f t="shared" ca="1" si="0"/>
-        <v>9.4853883110467692</v>
+        <v>24.68608214606482</v>
       </c>
       <c r="G9">
         <f t="shared" ca="1" si="0"/>
-        <v>-10.220093038313479</v>
+        <v>-49.824698306578817</v>
       </c>
       <c r="H9">
         <f t="shared" ca="1" si="0"/>
-        <v>11.893750413167304</v>
+        <v>48.698805212240018</v>
       </c>
       <c r="I9">
         <f t="shared" ca="1" si="0"/>
-        <v>-48.28774609017664</v>
+        <v>37.365147716774018</v>
       </c>
       <c r="J9">
         <f t="shared" ca="1" si="0"/>
-        <v>-23.879348786237177</v>
+        <v>-32.954397448948079</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10">
         <f t="shared" ca="1" si="1"/>
-        <v>4.6458267718483626</v>
+        <v>18.408510006247695</v>
       </c>
       <c r="B10">
         <f t="shared" ca="1" si="0"/>
-        <v>19.099659156392775</v>
+        <v>32.438500499313946</v>
       </c>
       <c r="C10">
         <f t="shared" ca="1" si="0"/>
-        <v>2.9358031329072674</v>
+        <v>-20.078323006718858</v>
       </c>
       <c r="D10">
         <f t="shared" ca="1" si="0"/>
-        <v>9.8845681651291812</v>
+        <v>-22.357106844482665</v>
       </c>
       <c r="E10">
         <f t="shared" ca="1" si="0"/>
-        <v>39.656450500541325</v>
+        <v>-39.51668636761584</v>
       </c>
       <c r="F10">
         <f t="shared" ca="1" si="0"/>
-        <v>26.883880651053772</v>
+        <v>23.005562882072681</v>
       </c>
       <c r="G10">
         <f t="shared" ca="1" si="0"/>
-        <v>41.349568450041929</v>
+        <v>-15.395687674342042</v>
       </c>
       <c r="H10">
         <f t="shared" ca="1" si="0"/>
-        <v>14.433352630664743</v>
+        <v>-31.780690188199422</v>
       </c>
       <c r="I10">
         <f t="shared" ca="1" si="0"/>
-        <v>47.834673327558448</v>
+        <v>36.851912373870221</v>
       </c>
       <c r="J10">
         <f t="shared" ca="1" si="0"/>
-        <v>-29.475539724438427</v>
+        <v>32.95391459574742</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11">
         <f t="shared" ca="1" si="1"/>
-        <v>3.017686610156268</v>
+        <v>36.856352410757637</v>
       </c>
       <c r="B11">
         <f t="shared" ca="1" si="0"/>
-        <v>-5.4368317393958421E-2</v>
+        <v>-49.73411089168043</v>
       </c>
       <c r="C11">
         <f t="shared" ca="1" si="0"/>
-        <v>9.5409378857010694</v>
+        <v>42.965649806669717</v>
       </c>
       <c r="D11">
         <f t="shared" ca="1" si="0"/>
-        <v>-7.3433921014289041</v>
+        <v>16.531022720502264</v>
       </c>
       <c r="E11">
         <f t="shared" ca="1" si="0"/>
-        <v>1.4566573419357738</v>
+        <v>-5.8831789931535283</v>
       </c>
       <c r="F11">
         <f t="shared" ca="1" si="0"/>
-        <v>-15.415731458646761</v>
+        <v>44.372022973945505</v>
       </c>
       <c r="G11">
         <f t="shared" ca="1" si="0"/>
-        <v>-11.992191775075199</v>
+        <v>4.3602252823833538</v>
       </c>
       <c r="H11">
         <f t="shared" ca="1" si="0"/>
-        <v>20.240023443138867</v>
+        <v>7.232255997224037</v>
       </c>
       <c r="I11">
         <f t="shared" ca="1" si="0"/>
-        <v>-15.315659417163261</v>
+        <v>24.00425301421653</v>
       </c>
       <c r="J11">
         <f t="shared" ca="1" si="0"/>
-        <v>15.688655535498839</v>
+        <v>42.624820216549637</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12">
         <f t="shared" ca="1" si="1"/>
-        <v>24.359593953230245</v>
+        <v>25.200821614914744</v>
       </c>
       <c r="B12">
         <f t="shared" ca="1" si="0"/>
-        <v>5.9007314486000126</v>
+        <v>-20.085541372117831</v>
       </c>
       <c r="C12">
         <f t="shared" ca="1" si="0"/>
-        <v>30.981746741055588</v>
+        <v>-4.9822933023503708</v>
       </c>
       <c r="D12">
         <f t="shared" ca="1" si="0"/>
-        <v>24.859774880899892</v>
+        <v>-28.777622945007732</v>
       </c>
       <c r="E12">
         <f t="shared" ca="1" si="0"/>
-        <v>-8.950312886316155</v>
+        <v>-13.975716676760896</v>
       </c>
       <c r="F12">
         <f t="shared" ca="1" si="0"/>
-        <v>17.968652067394615</v>
+        <v>-27.346563808611858</v>
       </c>
       <c r="G12">
         <f t="shared" ca="1" si="0"/>
-        <v>-15.865246671687252</v>
+        <v>35.32506890736569</v>
       </c>
       <c r="H12">
         <f t="shared" ca="1" si="0"/>
-        <v>-40.434645906536439</v>
+        <v>-33.852292471025194</v>
       </c>
       <c r="I12">
         <f t="shared" ca="1" si="0"/>
-        <v>3.1395674309328996</v>
+        <v>26.310768758159199</v>
       </c>
       <c r="J12">
         <f t="shared" ca="1" si="0"/>
-        <v>-33.220332884434285</v>
+        <v>1.0577859896441666</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13">
         <f t="shared" ca="1" si="1"/>
-        <v>-27.36562803112388</v>
+        <v>46.901033244625268</v>
       </c>
       <c r="B13">
         <f t="shared" ca="1" si="0"/>
-        <v>-8.9090626199712304</v>
+        <v>-10.86228695566227</v>
       </c>
       <c r="C13">
         <f t="shared" ca="1" si="0"/>
-        <v>8.042036952962448</v>
+        <v>-47.920598241171398</v>
       </c>
       <c r="D13">
         <f t="shared" ca="1" si="0"/>
-        <v>12.73759363377588</v>
+        <v>19.355659464389788</v>
       </c>
       <c r="E13">
         <f t="shared" ca="1" si="0"/>
-        <v>-4.1029912753086748</v>
+        <v>46.065278159194776</v>
       </c>
       <c r="F13">
         <f t="shared" ca="1" si="0"/>
-        <v>-20.663076521880274</v>
+        <v>43.149424380371329</v>
       </c>
       <c r="G13">
         <f t="shared" ca="1" si="0"/>
-        <v>46.622161491113147</v>
+        <v>-16.547013029860359</v>
       </c>
       <c r="H13">
         <f t="shared" ca="1" si="0"/>
-        <v>17.615900477761869</v>
+        <v>34.503565821819222</v>
       </c>
       <c r="I13">
         <f t="shared" ca="1" si="0"/>
-        <v>-40.82478708642634</v>
+        <v>8.3521074252188896</v>
       </c>
       <c r="J13">
         <f t="shared" ca="1" si="0"/>
-        <v>19.246503362626328</v>
+        <v>-48.965371340156572</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14">
         <f t="shared" ca="1" si="1"/>
-        <v>-30.208595496684509</v>
+        <v>-25.934224233851065</v>
       </c>
       <c r="B14">
         <f t="shared" ca="1" si="0"/>
-        <v>37.527385043686053</v>
+        <v>16.232089816285509</v>
       </c>
       <c r="C14">
         <f t="shared" ca="1" si="0"/>
-        <v>-28.456455273488157</v>
+        <v>17.361377403462924</v>
       </c>
       <c r="D14">
         <f t="shared" ca="1" si="0"/>
-        <v>-18.071652216686985</v>
+        <v>-31.634399460445948</v>
       </c>
       <c r="E14">
         <f t="shared" ca="1" si="0"/>
-        <v>-5.9472617685505043</v>
+        <v>-31.489437757162552</v>
       </c>
       <c r="F14">
         <f t="shared" ca="1" si="0"/>
-        <v>-6.3618830612404054</v>
+        <v>-49.751200403572739</v>
       </c>
       <c r="G14">
         <f t="shared" ca="1" si="0"/>
-        <v>-23.17769102075453</v>
+        <v>-44.828609515781551</v>
       </c>
       <c r="H14">
         <f t="shared" ca="1" si="0"/>
-        <v>-13.896130665184437</v>
+        <v>-32.618444524387925</v>
       </c>
       <c r="I14">
         <f t="shared" ca="1" si="0"/>
-        <v>49.716211540761421</v>
+        <v>-46.889113381741367</v>
       </c>
       <c r="J14">
         <f t="shared" ca="1" si="0"/>
-        <v>19.766157076997487</v>
+        <v>-31.998574898709865</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15">
         <f t="shared" ca="1" si="1"/>
-        <v>-2.066116385797379</v>
+        <v>8.763680204325766</v>
       </c>
       <c r="B15">
         <f t="shared" ca="1" si="0"/>
-        <v>-10.469595396019805</v>
+        <v>-37.558277374206064</v>
       </c>
       <c r="C15">
         <f t="shared" ca="1" si="0"/>
-        <v>33.036574829236457</v>
+        <v>-15.119828471158179</v>
       </c>
       <c r="D15">
         <f t="shared" ca="1" si="0"/>
-        <v>-10.779758394276428</v>
+        <v>-41.996578718924894</v>
       </c>
       <c r="E15">
         <f t="shared" ca="1" si="0"/>
-        <v>-43.721949385722482</v>
+        <v>13.434182635855905</v>
       </c>
       <c r="F15">
         <f t="shared" ca="1" si="0"/>
-        <v>-3.9321931458997526</v>
+        <v>-15.441086519718617</v>
       </c>
       <c r="G15">
         <f t="shared" ca="1" si="0"/>
-        <v>-11.673441201455645</v>
+        <v>9.5647317511602381</v>
       </c>
       <c r="H15">
         <f t="shared" ca="1" si="0"/>
-        <v>-23.564202136835689</v>
+        <v>-27.085910665317325</v>
       </c>
       <c r="I15">
         <f t="shared" ca="1" si="0"/>
-        <v>-14.671213613405953</v>
+        <v>7.075939417770293</v>
       </c>
       <c r="J15">
         <f t="shared" ca="1" si="0"/>
-        <v>17.090948025147952</v>
+        <v>35.413678756192141</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16">
         <f t="shared" ca="1" si="1"/>
-        <v>-6.0187271213148819</v>
+        <v>-21.620636296512018</v>
       </c>
       <c r="B16">
         <f t="shared" ca="1" si="0"/>
-        <v>-11.345631156469302</v>
+        <v>-3.6146135584818495</v>
       </c>
       <c r="C16">
         <f t="shared" ca="1" si="0"/>
-        <v>-5.2197071736633589</v>
+        <v>-19.831514707472799</v>
       </c>
       <c r="D16">
         <f t="shared" ca="1" si="0"/>
-        <v>21.905457851060163</v>
+        <v>25.419869351348595</v>
       </c>
       <c r="E16">
         <f t="shared" ca="1" si="0"/>
-        <v>19.923471161903578</v>
+        <v>-42.064703860661602</v>
       </c>
       <c r="F16">
         <f t="shared" ca="1" si="0"/>
-        <v>-23.905111067447336</v>
+        <v>48.599547878702964</v>
       </c>
       <c r="G16">
         <f t="shared" ca="1" si="0"/>
-        <v>-49.511883784600009</v>
+        <v>-23.524923199967496</v>
       </c>
       <c r="H16">
         <f t="shared" ca="1" si="0"/>
-        <v>10.849544551499449</v>
+        <v>-24.976684996344055</v>
       </c>
       <c r="I16">
         <f t="shared" ca="1" si="0"/>
-        <v>-39.134155937400593</v>
+        <v>-12.415331408328235</v>
       </c>
       <c r="J16">
         <f t="shared" ca="1" si="0"/>
-        <v>30.186250051701137</v>
+        <v>27.465543380343391</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17">
         <f t="shared" ca="1" si="1"/>
-        <v>-8.2021538638781664</v>
+        <v>-38.384361526630443</v>
       </c>
       <c r="B17">
         <f t="shared" ca="1" si="1"/>
-        <v>11.953346971971222</v>
+        <v>41.772899832825942</v>
       </c>
       <c r="C17">
         <f t="shared" ca="1" si="1"/>
-        <v>-10.705537710498461</v>
+        <v>36.622643828047941</v>
       </c>
       <c r="D17">
         <f t="shared" ca="1" si="1"/>
-        <v>1.7898923583079736</v>
+        <v>-23.328146195542999</v>
       </c>
       <c r="E17">
         <f t="shared" ca="1" si="1"/>
-        <v>-36.889639712912967</v>
+        <v>26.265828806426114</v>
       </c>
       <c r="F17">
         <f t="shared" ca="1" si="1"/>
-        <v>17.310882997599236</v>
+        <v>2.6621358215968129</v>
       </c>
       <c r="G17">
         <f t="shared" ca="1" si="1"/>
-        <v>30.603179432604506</v>
+        <v>8.5172097148254338</v>
       </c>
       <c r="H17">
         <f t="shared" ca="1" si="1"/>
-        <v>14.679935384128825</v>
+        <v>12.352620997912901</v>
       </c>
       <c r="I17">
         <f t="shared" ca="1" si="1"/>
-        <v>6.1483529682865168</v>
+        <v>-34.013864272185828</v>
       </c>
       <c r="J17">
         <f t="shared" ca="1" si="1"/>
-        <v>8.3623458017024888</v>
+        <v>-13.30104028525021</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18">
         <f t="shared" ca="1" si="1"/>
-        <v>35.58547146867798</v>
+        <v>6.5521998467227931</v>
       </c>
       <c r="B18">
         <f t="shared" ca="1" si="1"/>
-        <v>-42.662796340306166</v>
+        <v>-1.4847540430601995</v>
       </c>
       <c r="C18">
         <f t="shared" ca="1" si="1"/>
-        <v>-22.483186336402174</v>
+        <v>-5.9749241269430939</v>
       </c>
       <c r="D18">
         <f t="shared" ca="1" si="1"/>
-        <v>-11.778134886330186</v>
+        <v>9.4187421206862965</v>
       </c>
       <c r="E18">
         <f t="shared" ca="1" si="1"/>
-        <v>-38.011230353983471</v>
+        <v>-44.645405796130099</v>
       </c>
       <c r="F18">
         <f t="shared" ca="1" si="1"/>
-        <v>39.039440505943475</v>
+        <v>-11.866259257164124</v>
       </c>
       <c r="G18">
         <f t="shared" ca="1" si="1"/>
-        <v>-14.696699525220971</v>
+        <v>49.939288800380112</v>
       </c>
       <c r="H18">
         <f t="shared" ca="1" si="1"/>
-        <v>-29.068389669673735</v>
+        <v>-49.030957914015275</v>
       </c>
       <c r="I18">
         <f t="shared" ca="1" si="1"/>
-        <v>-22.301132965087277</v>
+        <v>16.352368618724896</v>
       </c>
       <c r="J18">
         <f t="shared" ca="1" si="1"/>
-        <v>45.365339381936536</v>
+        <v>-34.348612357617746</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19">
         <f t="shared" ca="1" si="1"/>
-        <v>-18.721900845135419</v>
+        <v>-49.153837544128777</v>
       </c>
       <c r="B19">
         <f t="shared" ca="1" si="1"/>
-        <v>42.031764544967828</v>
+        <v>-38.659984064716824</v>
       </c>
       <c r="C19">
         <f t="shared" ca="1" si="1"/>
-        <v>-32.239786574706173</v>
+        <v>-35.630618027948699</v>
       </c>
       <c r="D19">
         <f t="shared" ca="1" si="1"/>
-        <v>-42.916046618816083</v>
+        <v>-2.3286348297677648</v>
       </c>
       <c r="E19">
         <f t="shared" ca="1" si="1"/>
-        <v>3.8316876137503542</v>
+        <v>10.925437119533619</v>
       </c>
       <c r="F19">
         <f t="shared" ca="1" si="1"/>
-        <v>-13.681379332828044</v>
+        <v>-40.695133822745298</v>
       </c>
       <c r="G19">
         <f t="shared" ca="1" si="1"/>
-        <v>-33.286906413226781</v>
+        <v>19.636460130658818</v>
       </c>
       <c r="H19">
         <f t="shared" ca="1" si="1"/>
-        <v>-25.196407625050831</v>
+        <v>-28.999209618717959</v>
       </c>
       <c r="I19">
         <f t="shared" ca="1" si="1"/>
-        <v>-17.479390971078566</v>
+        <v>-12.510591530110048</v>
       </c>
       <c r="J19">
         <f t="shared" ca="1" si="1"/>
-        <v>31.777408216702071</v>
+        <v>-18.394897154687484</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20">
         <f t="shared" ca="1" si="1"/>
-        <v>-23.783627501200556</v>
+        <v>1.4978639414586752</v>
       </c>
       <c r="B20">
         <f t="shared" ca="1" si="1"/>
-        <v>-35.909774410287234</v>
+        <v>41.260721316121632</v>
       </c>
       <c r="C20">
         <f t="shared" ca="1" si="1"/>
-        <v>17.910422193287218</v>
+        <v>-29.31281476572336</v>
       </c>
       <c r="D20">
         <f t="shared" ca="1" si="1"/>
-        <v>12.792242028274046</v>
+        <v>-31.256975020509415</v>
       </c>
       <c r="E20">
         <f t="shared" ca="1" si="1"/>
-        <v>26.845837504360006</v>
+        <v>-25.064231291297055</v>
       </c>
       <c r="F20">
         <f t="shared" ca="1" si="1"/>
-        <v>-6.9755870012882895</v>
+        <v>-41.59045029964107</v>
       </c>
       <c r="G20">
         <f t="shared" ca="1" si="1"/>
-        <v>25.430687944306186</v>
+        <v>-31.485159879415825</v>
       </c>
       <c r="H20">
         <f t="shared" ca="1" si="1"/>
-        <v>41.707750831485612</v>
+        <v>10.278519829256005</v>
       </c>
       <c r="I20">
         <f t="shared" ca="1" si="1"/>
-        <v>-37.179507348782266</v>
+        <v>-18.406907075796752</v>
       </c>
       <c r="J20">
         <f t="shared" ca="1" si="1"/>
-        <v>32.305205466576211</v>
+        <v>-6.0765422965135869</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21">
         <f t="shared" ca="1" si="1"/>
-        <v>-37.449250752333384</v>
+        <v>26.159821494058349</v>
       </c>
       <c r="B21">
         <f t="shared" ca="1" si="1"/>
-        <v>-34.080957137942846</v>
+        <v>-0.63840153565539737</v>
       </c>
       <c r="C21">
         <f t="shared" ca="1" si="1"/>
-        <v>-46.263776520134194</v>
+        <v>13.78753998050297</v>
       </c>
       <c r="D21">
         <f t="shared" ca="1" si="1"/>
-        <v>43.5121534358844</v>
+        <v>-0.79517153500236049</v>
       </c>
       <c r="E21">
         <f t="shared" ca="1" si="1"/>
-        <v>-14.829593606627789</v>
+        <v>28.31177585619065</v>
       </c>
       <c r="F21">
         <f t="shared" ca="1" si="1"/>
-        <v>-2.3726509639714237</v>
+        <v>-23.001278886220845</v>
       </c>
       <c r="G21">
         <f t="shared" ca="1" si="1"/>
-        <v>48.453693738585486</v>
+        <v>0.26240481773452018</v>
       </c>
       <c r="H21">
         <f t="shared" ca="1" si="1"/>
-        <v>47.56944272499922</v>
+        <v>12.232069426811663</v>
       </c>
       <c r="I21">
         <f t="shared" ca="1" si="1"/>
-        <v>-10.968391435051849</v>
+        <v>-20.581534859045327</v>
       </c>
       <c r="J21">
         <f t="shared" ca="1" si="1"/>
-        <v>20.285989541467075</v>
+        <v>22.98677777326607</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22">
         <f t="shared" ca="1" si="1"/>
-        <v>-30.927009797488569</v>
+        <v>18.140945042568262</v>
       </c>
       <c r="B22">
         <f t="shared" ca="1" si="1"/>
-        <v>-49.799018853673374</v>
+        <v>-42.938659927045634</v>
       </c>
       <c r="C22">
         <f t="shared" ca="1" si="1"/>
-        <v>15.08085001649161</v>
+        <v>0.66138197904096785</v>
       </c>
       <c r="D22">
         <f t="shared" ca="1" si="1"/>
-        <v>-25.893448163826548</v>
+        <v>1.0422013495952385</v>
       </c>
       <c r="E22">
         <f t="shared" ca="1" si="1"/>
-        <v>39.620812527747276</v>
+        <v>-13.172948708742396</v>
       </c>
       <c r="F22">
         <f t="shared" ca="1" si="1"/>
-        <v>-12.630232646279602</v>
+        <v>-19.695100521384646</v>
       </c>
       <c r="G22">
         <f t="shared" ca="1" si="1"/>
-        <v>-16.880631591180737</v>
+        <v>-24.264947714508533</v>
       </c>
       <c r="H22">
         <f t="shared" ca="1" si="1"/>
-        <v>33.588323558076397</v>
+        <v>6.2517310569955882</v>
       </c>
       <c r="I22">
         <f t="shared" ca="1" si="1"/>
-        <v>17.234747830455063</v>
+        <v>18.670464338862431</v>
       </c>
       <c r="J22">
         <f t="shared" ca="1" si="1"/>
-        <v>42.217976585896722</v>
+        <v>13.384915789228934</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23">
         <f t="shared" ca="1" si="1"/>
-        <v>22.527575837219842</v>
+        <v>-27.449294501135533</v>
       </c>
       <c r="B23">
         <f t="shared" ca="1" si="1"/>
-        <v>-28.569482093501243</v>
+        <v>9.1590702553034689</v>
       </c>
       <c r="C23">
         <f t="shared" ca="1" si="1"/>
-        <v>1.2256143714793311</v>
+        <v>-37.744885306899477</v>
       </c>
       <c r="D23">
         <f t="shared" ca="1" si="1"/>
-        <v>26.592175068570185</v>
+        <v>-10.982357715368373</v>
       </c>
       <c r="E23">
         <f t="shared" ca="1" si="1"/>
-        <v>11.469150291878961</v>
+        <v>17.522451812286562</v>
       </c>
       <c r="F23">
         <f t="shared" ca="1" si="1"/>
-        <v>-9.3332532714893475</v>
+        <v>40.555329172566999</v>
       </c>
       <c r="G23">
         <f t="shared" ca="1" si="1"/>
-        <v>-15.944186164724691</v>
+        <v>-9.5493853741481445</v>
       </c>
       <c r="H23">
         <f t="shared" ca="1" si="1"/>
-        <v>-16.017605625756168</v>
+        <v>-39.317564761379643</v>
       </c>
       <c r="I23">
         <f t="shared" ca="1" si="1"/>
-        <v>46.2775327375426</v>
+        <v>-20.269549593572933</v>
       </c>
       <c r="J23">
         <f t="shared" ca="1" si="1"/>
-        <v>-7.6653420095539744</v>
+        <v>-14.449939291077804</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24">
         <f t="shared" ca="1" si="1"/>
-        <v>39.717304797758558</v>
+        <v>-14.232252361640555</v>
       </c>
       <c r="B24">
         <f t="shared" ca="1" si="1"/>
-        <v>30.270095307213921</v>
+        <v>2.3992160504191702</v>
       </c>
       <c r="C24">
         <f t="shared" ca="1" si="1"/>
-        <v>5.8504390879062242</v>
+        <v>-39.430897023774335</v>
       </c>
       <c r="D24">
         <f t="shared" ca="1" si="1"/>
-        <v>36.518688278218548</v>
+        <v>-41.788642451061662</v>
       </c>
       <c r="E24">
         <f t="shared" ca="1" si="1"/>
-        <v>-48.897597021471043</v>
+        <v>27.182714689420052</v>
       </c>
       <c r="F24">
         <f t="shared" ca="1" si="1"/>
-        <v>-9.9283311027312493</v>
+        <v>-24.302702794496945</v>
       </c>
       <c r="G24">
         <f t="shared" ca="1" si="1"/>
-        <v>-17.767828449637847</v>
+        <v>30.425962902472918</v>
       </c>
       <c r="H24">
         <f t="shared" ca="1" si="1"/>
-        <v>47.070971929543077</v>
+        <v>-42.207718679097795</v>
       </c>
       <c r="I24">
         <f t="shared" ca="1" si="1"/>
-        <v>18.476005847196433</v>
+        <v>-11.995237653994252</v>
       </c>
       <c r="J24">
         <f t="shared" ca="1" si="1"/>
-        <v>-18.900950501687465</v>
+        <v>9.5260322259139585</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25">
         <f t="shared" ca="1" si="1"/>
-        <v>-4.5287772602356284</v>
+        <v>-27.008779263561276</v>
       </c>
       <c r="B25">
         <f t="shared" ca="1" si="1"/>
-        <v>0.67185957302741883</v>
+        <v>-40.218268359046739</v>
       </c>
       <c r="C25">
         <f t="shared" ca="1" si="1"/>
-        <v>28.417023515641077</v>
+        <v>-20.026290957910565</v>
       </c>
       <c r="D25">
         <f t="shared" ca="1" si="1"/>
-        <v>-29.108472035803644</v>
+        <v>39.394779044321055</v>
       </c>
       <c r="E25">
         <f t="shared" ca="1" si="1"/>
-        <v>24.564879375431374</v>
+        <v>-48.862103107051091</v>
       </c>
       <c r="F25">
         <f t="shared" ca="1" si="1"/>
-        <v>9.702161480741502</v>
+        <v>-28.43696210449157</v>
       </c>
       <c r="G25">
         <f t="shared" ca="1" si="1"/>
-        <v>-23.340439741810727</v>
+        <v>-13.902825381212104</v>
       </c>
       <c r="H25">
         <f t="shared" ca="1" si="1"/>
-        <v>49.477590547522112</v>
+        <v>27.690225042495925</v>
       </c>
       <c r="I25">
         <f t="shared" ca="1" si="1"/>
-        <v>22.276064497113396</v>
+        <v>-24.348875755811562</v>
       </c>
       <c r="J25">
         <f t="shared" ca="1" si="1"/>
-        <v>38.088944476775552</v>
+        <v>37.320242767731997</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26">
         <f t="shared" ca="1" si="1"/>
-        <v>26.266794568978341</v>
+        <v>36.542079365653137</v>
       </c>
       <c r="B26">
         <f t="shared" ca="1" si="1"/>
-        <v>20.427474016006158</v>
+        <v>40.167206292413439</v>
       </c>
       <c r="C26">
         <f t="shared" ca="1" si="1"/>
-        <v>38.132578714429258</v>
+        <v>28.043243423516145</v>
       </c>
       <c r="D26">
         <f t="shared" ca="1" si="1"/>
-        <v>-40.665575004790377</v>
+        <v>-34.538977481620257</v>
       </c>
       <c r="E26">
         <f t="shared" ca="1" si="1"/>
-        <v>-9.4567452060019619</v>
+        <v>17.460382171200209</v>
       </c>
       <c r="F26">
         <f t="shared" ca="1" si="1"/>
-        <v>37.763777138979421</v>
+        <v>-33.509563909670305</v>
       </c>
       <c r="G26">
         <f t="shared" ca="1" si="1"/>
-        <v>39.999495806670197</v>
+        <v>0.34533222363428706</v>
       </c>
       <c r="H26">
         <f t="shared" ca="1" si="1"/>
-        <v>28.813148492669029</v>
+        <v>25.015637892574176</v>
       </c>
       <c r="I26">
         <f t="shared" ca="1" si="1"/>
-        <v>-28.817965849331962</v>
+        <v>-47.60312472045397</v>
       </c>
       <c r="J26">
         <f t="shared" ca="1" si="1"/>
-        <v>45.599953706777058</v>
+        <v>-34.217596390333703</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27">
         <f t="shared" ca="1" si="1"/>
-        <v>-19.510415645072278</v>
+        <v>27.120158317381154</v>
       </c>
       <c r="B27">
         <f t="shared" ca="1" si="1"/>
-        <v>37.822264115720159</v>
+        <v>-20.705309561622698</v>
       </c>
       <c r="C27">
         <f t="shared" ca="1" si="1"/>
-        <v>-15.864408432727039</v>
+        <v>47.632278659947985</v>
       </c>
       <c r="D27">
         <f t="shared" ca="1" si="1"/>
-        <v>7.5472670979945775</v>
+        <v>-23.534038155365767</v>
       </c>
       <c r="E27">
         <f t="shared" ca="1" si="1"/>
-        <v>-1.405280905517138</v>
+        <v>36.372138372811875</v>
       </c>
       <c r="F27">
         <f t="shared" ca="1" si="1"/>
-        <v>27.899232272148282</v>
+        <v>20.821978905089722</v>
       </c>
       <c r="G27">
         <f t="shared" ca="1" si="1"/>
-        <v>30.312831437974623</v>
+        <v>19.977415436769405</v>
       </c>
       <c r="H27">
         <f t="shared" ca="1" si="1"/>
-        <v>24.887907394018299</v>
+        <v>6.8148507514968273</v>
       </c>
       <c r="I27">
         <f t="shared" ca="1" si="1"/>
-        <v>9.2091300176483699</v>
+        <v>-42.011018628451758</v>
       </c>
       <c r="J27">
         <f t="shared" ca="1" si="1"/>
-        <v>12.267137992233003</v>
+        <v>45.986691206208135</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28">
         <f t="shared" ca="1" si="1"/>
-        <v>-19.428536130479412</v>
+        <v>-27.132763943333813</v>
       </c>
       <c r="B28">
         <f t="shared" ca="1" si="1"/>
-        <v>-2.0588969324353812</v>
+        <v>-17.379958042156915</v>
       </c>
       <c r="C28">
         <f t="shared" ca="1" si="1"/>
-        <v>-24.403052339752506</v>
+        <v>27.558487294429597</v>
       </c>
       <c r="D28">
         <f t="shared" ca="1" si="1"/>
-        <v>40.998277610320585</v>
+        <v>-33.357782868949954</v>
       </c>
       <c r="E28">
         <f t="shared" ca="1" si="1"/>
-        <v>17.770891151020137</v>
+        <v>-37.160882069133692</v>
       </c>
       <c r="F28">
         <f t="shared" ca="1" si="1"/>
-        <v>-17.654159605722917</v>
+        <v>-14.860808655586787</v>
       </c>
       <c r="G28">
         <f t="shared" ca="1" si="1"/>
-        <v>29.82069356598231</v>
+        <v>22.407828315977426</v>
       </c>
       <c r="H28">
         <f t="shared" ca="1" si="1"/>
-        <v>-14.1106587592135</v>
+        <v>42.134024896720661</v>
       </c>
       <c r="I28">
         <f t="shared" ca="1" si="1"/>
-        <v>-41.506252853758618</v>
+        <v>46.546991194234224</v>
       </c>
       <c r="J28">
         <f t="shared" ca="1" si="1"/>
-        <v>20.502834233323199</v>
+        <v>-19.556825725873082</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29">
         <f t="shared" ca="1" si="1"/>
-        <v>-5.6741242815326416</v>
+        <v>-19.070208567979218</v>
       </c>
       <c r="B29">
         <f t="shared" ca="1" si="1"/>
-        <v>23.017604995752734</v>
+        <v>29.755291884445839</v>
       </c>
       <c r="C29">
         <f t="shared" ca="1" si="1"/>
-        <v>5.7661522608285836</v>
+        <v>35.926181247215169</v>
       </c>
       <c r="D29">
         <f t="shared" ca="1" si="1"/>
-        <v>31.534425133800028</v>
+        <v>-27.333228811242638</v>
       </c>
       <c r="E29">
         <f t="shared" ca="1" si="1"/>
-        <v>-5.9390077728372788</v>
+        <v>38.646492035732109</v>
       </c>
       <c r="F29">
         <f t="shared" ca="1" si="1"/>
-        <v>20.685673506974354</v>
+        <v>20.916932945182538</v>
       </c>
       <c r="G29">
         <f t="shared" ca="1" si="1"/>
-        <v>38.614104130756942</v>
+        <v>10.070997381184121</v>
       </c>
       <c r="H29">
         <f t="shared" ca="1" si="1"/>
-        <v>-5.7505799847302441</v>
+        <v>11.887769352917289</v>
       </c>
       <c r="I29">
         <f t="shared" ca="1" si="1"/>
-        <v>8.2891341652413075</v>
+        <v>30.855633275348879</v>
       </c>
       <c r="J29">
         <f t="shared" ca="1" si="1"/>
-        <v>-6.910261436514439</v>
+        <v>46.614132955417475</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30">
         <f t="shared" ca="1" si="1"/>
-        <v>-28.719380566143837</v>
+        <v>48.090296943653371</v>
       </c>
       <c r="B30">
         <f t="shared" ca="1" si="1"/>
-        <v>-12.413254520097972</v>
+        <v>-25.268126719076676</v>
       </c>
       <c r="C30">
         <f t="shared" ca="1" si="1"/>
-        <v>-32.732594474590755</v>
+        <v>6.7096140500827133</v>
       </c>
       <c r="D30">
         <f t="shared" ca="1" si="1"/>
-        <v>-32.218651609934639</v>
+        <v>-11.439791144505705</v>
       </c>
       <c r="E30">
         <f t="shared" ca="1" si="1"/>
-        <v>16.275320861504568</v>
+        <v>-10.081836745609721</v>
       </c>
       <c r="F30">
         <f t="shared" ca="1" si="1"/>
-        <v>-25.101941964297993</v>
+        <v>36.656033163478327</v>
       </c>
       <c r="G30">
         <f t="shared" ca="1" si="1"/>
-        <v>-42.74934747162132</v>
+        <v>27.394567454989485</v>
       </c>
       <c r="H30">
         <f t="shared" ca="1" si="1"/>
-        <v>8.4391588369601251</v>
+        <v>39.526189868079371</v>
       </c>
       <c r="I30">
         <f t="shared" ca="1" si="1"/>
-        <v>37.952988256338685</v>
+        <v>14.133128551468261</v>
       </c>
       <c r="J30">
         <f t="shared" ca="1" si="1"/>
-        <v>-1.6557442856006332</v>
+        <v>23.798775860963758</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/jacobi/test/data/RLayerTest.xlsx
+++ b/src/test/resources/jacobi/test/data/RLayerTest.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\edwin_chan\Documents\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12564" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12570" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="test 2-D sort by X" sheetId="1" r:id="rId1"/>
@@ -19,7 +14,7 @@
     <sheet name="test rand 5-D vectors" sheetId="6" r:id="rId5"/>
     <sheet name="rand" sheetId="2" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -171,7 +166,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -181,36 +176,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="2"/>
-        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -245,21 +210,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="一般" xfId="0" builtinId="0"/>
-    <cellStyle name="好" xfId="1" builtinId="26"/>
+    <cellStyle name="Good" xfId="1" builtinId="26"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -317,7 +277,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -352,7 +312,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -529,7 +489,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -539,13 +499,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -568,12 +528,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>20</v>
       </c>
@@ -581,7 +541,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>4.6790202157919065</v>
       </c>
@@ -592,7 +552,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>5.0775008365353198</v>
       </c>
@@ -603,7 +563,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>20.115227979735216</v>
       </c>
@@ -630,7 +590,7 @@
         <v>26.789565226060553</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>22.965939724989148</v>
       </c>
@@ -641,7 +601,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>23.410633141016756</v>
       </c>
@@ -652,7 +612,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>27.37474780134318</v>
       </c>
@@ -663,7 +623,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>28.004425385414542</v>
       </c>
@@ -690,7 +650,7 @@
         <v>69.076424064427371</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>37.169197892785476</v>
       </c>
@@ -701,7 +661,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>38.291711702813593</v>
       </c>
@@ -712,7 +672,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>51.701655221826883</v>
       </c>
@@ -723,7 +683,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>52.070834716111861</v>
       </c>
@@ -750,7 +710,7 @@
         <v>73.398010530943978</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>53.943251073734103</v>
       </c>
@@ -761,7 +721,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>55.835886964882128</v>
       </c>
@@ -772,7 +732,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>62.704195757282911</v>
       </c>
@@ -799,7 +759,7 @@
         <v>53.456262048806948</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>63.736183908885394</v>
       </c>
@@ -810,7 +770,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>64.243118807412486</v>
       </c>
@@ -821,7 +781,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>65.452617398793549</v>
       </c>
@@ -832,7 +792,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>66.275387525387501</v>
       </c>
@@ -859,7 +819,7 @@
         <v>99.853847547216773</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>69.697450264277222</v>
       </c>
@@ -870,7 +830,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>73.834524416486417</v>
       </c>
@@ -897,17 +857,17 @@
         <v>44.664810786209152</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>1</v>
       </c>
@@ -915,7 +875,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28">
         <f>COUNTIF(D4:D23,0)</f>
         <v>3</v>
@@ -941,12 +901,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>6</v>
       </c>
@@ -954,7 +914,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32">
         <f>E6</f>
         <v>4.6790202157919065</v>
@@ -972,7 +932,7 @@
         <v>26.789565226060553</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33">
         <f>E10</f>
         <v>22.965939724989148</v>
@@ -990,7 +950,7 @@
         <v>69.076424064427371</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34">
         <f>E14</f>
         <v>37.169197892785476</v>
@@ -1008,7 +968,7 @@
         <v>73.398010530943978</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35">
         <f>E17</f>
         <v>53.943251073734103</v>
@@ -1026,7 +986,7 @@
         <v>53.456262048806948</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36">
         <f>E21</f>
         <v>63.736183908885394</v>
@@ -1044,7 +1004,7 @@
         <v>99.853847547216773</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37">
         <f>E23</f>
         <v>69.697450264277222</v>
@@ -1074,11 +1034,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P46"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A37" sqref="A37"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1096,12 +1058,12 @@
         <v>3.1415926535897931</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>30</v>
       </c>
@@ -1142,7 +1104,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>80.292023848660179</v>
       </c>
@@ -1194,7 +1156,7 @@
         <v>84.156330606554235</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>65.840974289423386</v>
       </c>
@@ -1247,7 +1209,7 @@
         <v>84.156330606554235</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>53.203217703375437</v>
       </c>
@@ -1300,7 +1262,7 @@
         <v>84.156330606554235</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>77.74262026305631</v>
       </c>
@@ -1353,7 +1315,7 @@
         <v>84.156330606554235</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>59.409492811879282</v>
       </c>
@@ -1406,7 +1368,7 @@
         <v>76.944829999021508</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>40.76704881956578</v>
       </c>
@@ -1459,7 +1421,7 @@
         <v>76.944829999021508</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>0.45295199762609428</v>
       </c>
@@ -1512,7 +1474,7 @@
         <v>76.944829999021508</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>60.574469698194676</v>
       </c>
@@ -1565,7 +1527,7 @@
         <v>76.944829999021508</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>87.103606319827705</v>
       </c>
@@ -1618,7 +1580,7 @@
         <v>76.944829999021508</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>13.603190096129847</v>
       </c>
@@ -1671,7 +1633,7 @@
         <v>76.944829999021508</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>11.698901670381922</v>
       </c>
@@ -1724,7 +1686,7 @@
         <v>76.944829999021508</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>55.531295649841837</v>
       </c>
@@ -1777,7 +1739,7 @@
         <v>76.944829999021508</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>29.790676417246644</v>
       </c>
@@ -1830,7 +1792,7 @@
         <v>76.944829999021508</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>28.616370483320676</v>
       </c>
@@ -1883,7 +1845,7 @@
         <v>-45.070586539887849</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>76.452060202266452</v>
       </c>
@@ -1936,7 +1898,7 @@
         <v>-28.939975188353507</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>19.628123342224679</v>
       </c>
@@ -1989,7 +1951,7 @@
         <v>7.3246318269786448</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>84.685725337267641</v>
       </c>
@@ -2042,7 +2004,7 @@
         <v>7.3246318269786448</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>58.559015022964942</v>
       </c>
@@ -2095,7 +2057,7 @@
         <v>7.3246318269786448</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>37.988412702657911</v>
       </c>
@@ -2148,7 +2110,7 @@
         <v>14.75766797496445</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>61.901490934149308</v>
       </c>
@@ -2201,7 +2163,7 @@
         <v>14.75766797496445</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>30.29793486339457</v>
       </c>
@@ -2254,7 +2216,7 @@
         <v>0.1946629259079069</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>88.995400303685031</v>
       </c>
@@ -2307,7 +2269,7 @@
         <v>69.207344357205486</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>63.353245508473876</v>
       </c>
@@ -2360,7 +2322,7 @@
         <v>69.207344357205486</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>3.4492040252596334</v>
       </c>
@@ -2413,7 +2375,7 @@
         <v>94.770188649742337</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>83.468573839623332</v>
       </c>
@@ -2466,7 +2428,7 @@
         <v>94.770188649742337</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>66.741827870695985</v>
       </c>
@@ -2519,7 +2481,7 @@
         <v>94.770188649742337</v>
       </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>18.144211620425899</v>
       </c>
@@ -2572,7 +2534,7 @@
         <v>94.770188649742337</v>
       </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>98.263903445307548</v>
       </c>
@@ -2625,7 +2587,7 @@
         <v>-36.500431500923192</v>
       </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>39.73994939936599</v>
       </c>
@@ -2678,7 +2640,7 @@
         <v>71.196818341633076</v>
       </c>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>34.49753152362878</v>
       </c>
@@ -2731,12 +2693,12 @@
         <v>71.196818341633076</v>
       </c>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>1</v>
       </c>
@@ -2745,7 +2707,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A37">
         <f>COUNTIF($E4:$E33,A38)</f>
         <v>4</v>
@@ -2791,7 +2753,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>0</v>
       </c>
@@ -2836,7 +2798,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>9</v>
       </c>
@@ -2844,7 +2806,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A41">
         <f>B36</f>
         <v>5</v>
@@ -2865,7 +2827,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A42">
         <f ca="1">INDIRECT(ADDRESS(ROW(INDIRECT($G42)), COLUMN(K3)))</f>
         <v>53.203217703375437</v>
@@ -2907,7 +2869,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A43">
         <f t="shared" ref="A43:B43" ca="1" si="6">INDIRECT(ADDRESS(ROW(INDIRECT($G43)), COLUMN(K4)))</f>
         <v>0.45295199762609428</v>
@@ -2949,7 +2911,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A44">
         <f t="shared" ref="A44:B44" ca="1" si="11">INDIRECT(ADDRESS(ROW(INDIRECT($G44)), COLUMN(K5)))</f>
         <v>19.628123342224679</v>
@@ -2991,7 +2953,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A45">
         <f t="shared" ref="A45:B45" ca="1" si="12">INDIRECT(ADDRESS(ROW(INDIRECT($G45)), COLUMN(K6)))</f>
         <v>3.4492040252596334</v>
@@ -3033,7 +2995,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A46">
         <f t="shared" ref="A46:B46" ca="1" si="13">INDIRECT(ADDRESS(ROW(INDIRECT($G46)), COLUMN(K7)))</f>
         <v>34.49753152362878</v>
@@ -3091,9 +3053,9 @@
       <selection activeCell="A35" sqref="A35:XFD38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>28</v>
       </c>
@@ -3114,12 +3076,12 @@
         <v>2.2360679774997898</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>30</v>
       </c>
@@ -3166,7 +3128,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1.2237872370974179E-2</v>
       </c>
@@ -3229,7 +3191,7 @@
         <v>80.568417045539647</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4.6328195758398638E-2</v>
       </c>
@@ -3293,7 +3255,7 @@
         <v>80.568417045539647</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4.8539979933146182E-2</v>
       </c>
@@ -3357,7 +3319,7 @@
         <v>80.568417045539647</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>0.16150179915768337</v>
       </c>
@@ -3421,7 +3383,7 @@
         <v>80.568417045539647</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>0.18072043457342313</v>
       </c>
@@ -3485,7 +3447,7 @@
         <v>80.568417045539647</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>0.19288612733052779</v>
       </c>
@@ -3549,7 +3511,7 @@
         <v>50.133822256302331</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>0.19488037487177456</v>
       </c>
@@ -3613,7 +3575,7 @@
         <v>50.133822256302331</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>0.21931974097969742</v>
       </c>
@@ -3677,7 +3639,7 @@
         <v>50.133822256302331</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>0.22143529859053157</v>
       </c>
@@ -3741,7 +3703,7 @@
         <v>50.133822256302331</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>0.26494598777802358</v>
       </c>
@@ -3805,7 +3767,7 @@
         <v>96.676858379083896</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>0.32620034820661725</v>
       </c>
@@ -3869,7 +3831,7 @@
         <v>96.676858379083896</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>0.37524624193898237</v>
       </c>
@@ -3933,7 +3895,7 @@
         <v>96.165993009180966</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>0.41136163716894292</v>
       </c>
@@ -3997,7 +3959,7 @@
         <v>96.165993009180966</v>
       </c>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>0.43853232563680422</v>
       </c>
@@ -4061,7 +4023,7 @@
         <v>96.165993009180966</v>
       </c>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>0.44015890638452737</v>
       </c>
@@ -4125,7 +4087,7 @@
         <v>96.165993009180966</v>
       </c>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>0.49009058762793711</v>
       </c>
@@ -4189,7 +4151,7 @@
         <v>60.080988502443788</v>
       </c>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>0.49042022782030714</v>
       </c>
@@ -4253,7 +4215,7 @@
         <v>77.509821076604197</v>
       </c>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>0.50014490809192746</v>
       </c>
@@ -4317,7 +4279,7 @@
         <v>77.509821076604197</v>
       </c>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>0.53810607404973432</v>
       </c>
@@ -4381,7 +4343,7 @@
         <v>77.509821076604197</v>
       </c>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>0.56982316176352932</v>
       </c>
@@ -4445,7 +4407,7 @@
         <v>86.267331771780476</v>
       </c>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>0.65710933057317633</v>
       </c>
@@ -4509,7 +4471,7 @@
         <v>40.253334426149401</v>
       </c>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>0.67890099150321692</v>
       </c>
@@ -4573,7 +4535,7 @@
         <v>89.370987201937922</v>
       </c>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>0.72306138662019459</v>
       </c>
@@ -4637,7 +4599,7 @@
         <v>89.370987201937922</v>
       </c>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>0.83004071485557873</v>
       </c>
@@ -4701,7 +4663,7 @@
         <v>17.231238531037796</v>
       </c>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>0.84542485298255909</v>
       </c>
@@ -4765,7 +4727,7 @@
         <v>56.885036541605537</v>
       </c>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>0.87754391570871726</v>
       </c>
@@ -4829,7 +4791,7 @@
         <v>56.885036541605537</v>
       </c>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>0.91688207894636797</v>
       </c>
@@ -4893,7 +4855,7 @@
         <v>56.885036541605537</v>
       </c>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>0.92853138670651336</v>
       </c>
@@ -4957,7 +4919,7 @@
         <v>56.885036541605537</v>
       </c>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>0.94018355801881226</v>
       </c>
@@ -5021,7 +4983,7 @@
         <v>13.61398036585194</v>
       </c>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>0.95322938783117761</v>
       </c>
@@ -5085,12 +5047,12 @@
         <v>31.2134186988709</v>
       </c>
     </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>1</v>
       </c>
@@ -5099,7 +5061,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A37">
         <f t="shared" ref="A37:K37" si="3">COUNTIF($F4:$F33,A38)</f>
         <v>5</v>
@@ -5145,7 +5107,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>0</v>
       </c>
@@ -5190,7 +5152,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>9</v>
       </c>
@@ -5198,7 +5160,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A41">
         <f>B36</f>
         <v>7</v>
@@ -5219,7 +5181,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A42">
         <f t="shared" ref="A42:H42" ca="1" si="5">INDIRECT(ADDRESS(ROW(INDIRECT($I42)), COLUMN(L3)))</f>
         <v>1.2237872370974179E-2</v>
@@ -5269,7 +5231,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A43">
         <f t="shared" ref="A43:B43" ca="1" si="6">INDIRECT(ADDRESS(ROW(INDIRECT($I43)), COLUMN(L4)))</f>
         <v>0.19288612733052779</v>
@@ -5319,7 +5281,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A44">
         <f t="shared" ref="A44:B44" ca="1" si="8">INDIRECT(ADDRESS(ROW(INDIRECT($I44)), COLUMN(L5)))</f>
         <v>0.37524624193898237</v>
@@ -5369,7 +5331,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A45">
         <f t="shared" ref="A45:B45" ca="1" si="9">INDIRECT(ADDRESS(ROW(INDIRECT($I45)), COLUMN(L6)))</f>
         <v>0.49009058762793711</v>
@@ -5419,7 +5381,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A46">
         <f t="shared" ref="A46:B46" ca="1" si="10">INDIRECT(ADDRESS(ROW(INDIRECT($I46)), COLUMN(L7)))</f>
         <v>0.65710933057317633</v>
@@ -5469,7 +5431,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A47">
         <f t="shared" ref="A47:B47" ca="1" si="11">INDIRECT(ADDRESS(ROW(INDIRECT($I47)), COLUMN(L8)))</f>
         <v>0.83004071485557873</v>
@@ -5519,7 +5481,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A48">
         <f t="shared" ref="A48:B48" ca="1" si="14">INDIRECT(ADDRESS(ROW(INDIRECT($I48)), COLUMN(L9)))</f>
         <v>0.94018355801881226</v>
@@ -5581,16 +5543,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R59"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L3" sqref="L3:L33"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="B47" sqref="B47:J47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="12" max="12" width="14.296875" customWidth="1"/>
+    <col min="12" max="12" width="14.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>15</v>
       </c>
@@ -5617,12 +5579,12 @@
         <v>2.7182818284590451</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>30</v>
       </c>
@@ -5648,7 +5610,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4">
         <f>MIN(M4:N4)</f>
         <v>-36.352131322942007</v>
@@ -5709,7 +5671,7 @@
         <v>-37.189572086459357</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5">
         <f t="shared" ref="A5:A33" si="0">MIN(M5:N5)</f>
         <v>42.760522338656372</v>
@@ -5771,7 +5733,7 @@
         <v>-46.593527270568643</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6">
         <f t="shared" si="0"/>
         <v>-31.159658337511186</v>
@@ -5833,7 +5795,7 @@
         <v>-32.890819899523905</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7">
         <f t="shared" si="0"/>
         <v>-33.380973120260293</v>
@@ -5895,7 +5857,7 @@
         <v>46.539550000332241</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8">
         <f t="shared" si="0"/>
         <v>-40.851014183539093</v>
@@ -5957,7 +5919,7 @@
         <v>-49.464175223887686</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9">
         <f t="shared" si="0"/>
         <v>-15.833820592024182</v>
@@ -6019,7 +5981,7 @@
         <v>7.2105434604109817</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10">
         <f t="shared" si="0"/>
         <v>-48.679152253826729</v>
@@ -6081,7 +6043,7 @@
         <v>-14.267275566449875</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11">
         <f t="shared" si="0"/>
         <v>3.7716765742066869</v>
@@ -6143,7 +6105,7 @@
         <v>17.613251498788259</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12">
         <f t="shared" si="0"/>
         <v>-23.032332189284055</v>
@@ -6205,7 +6167,7 @@
         <v>-41.178463104129207</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13">
         <f t="shared" si="0"/>
         <v>-40.961845723302474</v>
@@ -6267,7 +6229,7 @@
         <v>8.6552536832346334</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14">
         <f t="shared" si="0"/>
         <v>-33.661687796699951</v>
@@ -6329,7 +6291,7 @@
         <v>-20.993434009215761</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15">
         <f t="shared" si="0"/>
         <v>-44.569076945545724</v>
@@ -6391,7 +6353,7 @@
         <v>47.666746008161454</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16">
         <f t="shared" si="0"/>
         <v>-9.7676109747950264</v>
@@ -6453,7 +6415,7 @@
         <v>16.287054497540382</v>
       </c>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17">
         <f t="shared" si="0"/>
         <v>-1.3729918243943899</v>
@@ -6515,7 +6477,7 @@
         <v>27.879675356659874</v>
       </c>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18">
         <f t="shared" si="0"/>
         <v>-24.553298100021749</v>
@@ -6577,7 +6539,7 @@
         <v>-8.6471396904640656</v>
       </c>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19">
         <f t="shared" si="0"/>
         <v>-35.909004031959853</v>
@@ -6639,7 +6601,7 @@
         <v>6.6706447851295181</v>
       </c>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20">
         <f t="shared" si="0"/>
         <v>-43.619481265808581</v>
@@ -6701,7 +6663,7 @@
         <v>43.767887742723516</v>
       </c>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A21">
         <f t="shared" si="0"/>
         <v>-45.688610942825093</v>
@@ -6763,7 +6725,7 @@
         <v>-36.373064095709616</v>
       </c>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A22">
         <f t="shared" si="0"/>
         <v>-14.545014205259513</v>
@@ -6825,7 +6787,7 @@
         <v>-4.4142161006224683</v>
       </c>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A23">
         <f t="shared" si="0"/>
         <v>9.1835825813612573</v>
@@ -6887,7 +6849,7 @@
         <v>39.806681746525044</v>
       </c>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A24">
         <f t="shared" si="0"/>
         <v>-45.127771772221813</v>
@@ -6949,7 +6911,7 @@
         <v>-23.472296809756344</v>
       </c>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A25">
         <f t="shared" si="0"/>
         <v>-45.395061596282247</v>
@@ -7011,7 +6973,7 @@
         <v>17.495269450772369</v>
       </c>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A26">
         <f t="shared" si="0"/>
         <v>11.029463136546426</v>
@@ -7073,7 +7035,7 @@
         <v>19.187759791123241</v>
       </c>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A27">
         <f t="shared" si="0"/>
         <v>-15.01216886734872</v>
@@ -7135,7 +7097,7 @@
         <v>-43.773695115912545</v>
       </c>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A28">
         <f t="shared" si="0"/>
         <v>-36.804475656869407</v>
@@ -7197,7 +7159,7 @@
         <v>-43.006961583576484</v>
       </c>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A29">
         <f t="shared" si="0"/>
         <v>-0.62297179295589444</v>
@@ -7259,7 +7221,7 @@
         <v>25.550251496523231</v>
       </c>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A30">
         <f t="shared" si="0"/>
         <v>-29.718130124183229</v>
@@ -7321,7 +7283,7 @@
         <v>-12.534874499133643</v>
       </c>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A31">
         <f t="shared" si="0"/>
         <v>-49.672416340010358</v>
@@ -7383,7 +7345,7 @@
         <v>-3.2816038872347377</v>
       </c>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A32">
         <f t="shared" si="0"/>
         <v>-30.955685842666036</v>
@@ -7445,7 +7407,7 @@
         <v>15.073469614331117</v>
       </c>
     </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A33">
         <f t="shared" si="0"/>
         <v>-38.581666673232426</v>
@@ -7507,12 +7469,12 @@
         <v>-12.391432912402209</v>
       </c>
     </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A36">
         <f t="shared" ref="A36:K36" si="9">COUNTIF($H4:$H33,A37)</f>
         <v>5</v>
@@ -7558,7 +7520,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>0</v>
       </c>
@@ -7603,12 +7565,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>1</v>
       </c>
@@ -7617,7 +7579,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A41">
         <f>A36</f>
         <v>5</v>
@@ -7643,7 +7605,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>32</v>
       </c>
@@ -7651,7 +7613,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>3</v>
       </c>
@@ -7659,108 +7621,137 @@
         <v>10</v>
       </c>
     </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A45" s="5">
+    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>1</v>
+      </c>
+      <c r="B45">
+        <f>A45+1</f>
+        <v>2</v>
+      </c>
+      <c r="C45">
+        <f>B45+1</f>
+        <v>3</v>
+      </c>
+      <c r="D45">
+        <f t="shared" ref="D45:J45" si="12">C45+1</f>
+        <v>4</v>
+      </c>
+      <c r="E45">
+        <f t="shared" si="12"/>
+        <v>5</v>
+      </c>
+      <c r="F45">
+        <f t="shared" si="12"/>
+        <v>6</v>
+      </c>
+      <c r="G45">
+        <f t="shared" si="12"/>
+        <v>7</v>
+      </c>
+      <c r="H45">
+        <f t="shared" si="12"/>
+        <v>8</v>
+      </c>
+      <c r="I45">
+        <f t="shared" si="12"/>
         <v>9</v>
       </c>
-      <c r="B45" s="5">
-        <v>7</v>
-      </c>
-      <c r="C45" s="5">
+      <c r="J45">
+        <f t="shared" si="12"/>
         <v>10</v>
       </c>
-      <c r="D45" s="5">
-        <v>7</v>
-      </c>
-      <c r="E45" s="5">
-        <v>4</v>
-      </c>
-      <c r="F45" s="6">
-        <v>9</v>
-      </c>
-      <c r="G45" s="6">
-        <v>6</v>
-      </c>
-      <c r="H45" s="6">
-        <v>6</v>
-      </c>
-      <c r="I45" s="6">
-        <v>3</v>
-      </c>
-      <c r="J45" s="6">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A46" s="6">
-        <v>6</v>
-      </c>
-      <c r="B46" s="6">
-        <v>9</v>
-      </c>
-      <c r="C46" s="7">
-        <v>8</v>
-      </c>
-      <c r="D46" s="7">
-        <v>5</v>
-      </c>
-      <c r="E46" s="7">
-        <v>4</v>
-      </c>
-      <c r="F46" s="7">
-        <v>7</v>
-      </c>
-      <c r="G46" s="8">
-        <v>9</v>
-      </c>
-      <c r="H46" s="8">
-        <v>7</v>
-      </c>
-      <c r="I46" s="8">
-        <v>6</v>
-      </c>
-      <c r="J46" s="8">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A47" s="8">
-        <v>3</v>
-      </c>
-      <c r="B47" s="8">
-        <v>8</v>
-      </c>
-      <c r="C47" s="8">
-        <v>7</v>
-      </c>
-      <c r="D47" s="8">
-        <v>4</v>
-      </c>
-      <c r="E47" s="9">
-        <v>1</v>
-      </c>
-      <c r="F47" s="9">
-        <v>1</v>
-      </c>
-      <c r="G47" s="9">
-        <v>4</v>
-      </c>
-      <c r="H47" s="9">
-        <v>4</v>
-      </c>
-      <c r="I47" s="9">
-        <v>1</v>
-      </c>
-      <c r="J47" s="9">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <f>J45+1</f>
+        <v>11</v>
+      </c>
+      <c r="B46">
+        <f>A46+1</f>
+        <v>12</v>
+      </c>
+      <c r="C46">
+        <f t="shared" ref="C46:J46" si="13">B46+1</f>
+        <v>13</v>
+      </c>
+      <c r="D46">
+        <f t="shared" si="13"/>
+        <v>14</v>
+      </c>
+      <c r="E46">
+        <f t="shared" si="13"/>
+        <v>15</v>
+      </c>
+      <c r="F46">
+        <f t="shared" si="13"/>
+        <v>16</v>
+      </c>
+      <c r="G46">
+        <f t="shared" si="13"/>
+        <v>17</v>
+      </c>
+      <c r="H46">
+        <f t="shared" si="13"/>
+        <v>18</v>
+      </c>
+      <c r="I46">
+        <f t="shared" si="13"/>
+        <v>19</v>
+      </c>
+      <c r="J46">
+        <f t="shared" si="13"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <f>J46+1</f>
+        <v>21</v>
+      </c>
+      <c r="B47">
+        <f>A47+1</f>
+        <v>22</v>
+      </c>
+      <c r="C47">
+        <f t="shared" ref="C47:J47" si="14">B47+1</f>
+        <v>23</v>
+      </c>
+      <c r="D47">
+        <f t="shared" si="14"/>
+        <v>24</v>
+      </c>
+      <c r="E47">
+        <f t="shared" si="14"/>
+        <v>25</v>
+      </c>
+      <c r="F47">
+        <f t="shared" si="14"/>
+        <v>26</v>
+      </c>
+      <c r="G47">
+        <f t="shared" si="14"/>
+        <v>27</v>
+      </c>
+      <c r="H47">
+        <f t="shared" si="14"/>
+        <v>28</v>
+      </c>
+      <c r="I47">
+        <f t="shared" si="14"/>
+        <v>29</v>
+      </c>
+      <c r="J47">
+        <f t="shared" si="14"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50">
         <f>B40</f>
         <v>5</v>
@@ -7775,7 +7766,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51">
         <f ca="1">MIN(INDIRECT(ADDRESS(ROW(A$4)+$H51, COLUMN(A$4))):INDIRECT(ADDRESS(ROW(A$4)+$H51+$I51-1, COLUMN(A$4))))</f>
         <v>-40.851014183539093</v>
@@ -7808,7 +7799,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52">
         <f ca="1">MIN(INDIRECT(ADDRESS(ROW(A$4)+$H52, COLUMN(A$4))):INDIRECT(ADDRESS(ROW(A$4)+$H52+$I52-1, COLUMN(A$4))))</f>
         <v>-48.679152253826729</v>
@@ -7842,7 +7833,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53">
         <f ca="1">MIN(INDIRECT(ADDRESS(ROW(A$4)+$H53, COLUMN(A$4))):INDIRECT(ADDRESS(ROW(A$4)+$H53+$I53-1, COLUMN(A$4))))</f>
         <v>-35.909004031959853</v>
@@ -7876,7 +7867,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54">
         <f ca="1">MIN(INDIRECT(ADDRESS(ROW(A$4)+$H54, COLUMN(A$4))):INDIRECT(ADDRESS(ROW(A$4)+$H54+$I54-1, COLUMN(A$4))))</f>
         <v>-45.688610942825093</v>
@@ -7910,7 +7901,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55">
         <f ca="1">MIN(INDIRECT(ADDRESS(ROW(A$4)+$H55, COLUMN(A$4))):INDIRECT(ADDRESS(ROW(A$4)+$H55+$I55-1, COLUMN(A$4))))</f>
         <v>-49.672416340010358</v>
@@ -7944,58 +7935,39 @@
         <v>6</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>1</v>
       </c>
       <c r="B58">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A59" s="5">
-        <v>0</v>
-      </c>
-      <c r="B59" s="5">
-        <f>A41</f>
         <v>5</v>
       </c>
-      <c r="C59" s="6">
-        <f>A59+B59</f>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <f>A36</f>
         <v>5</v>
       </c>
-      <c r="D59" s="6">
-        <f>B41</f>
-        <v>7</v>
-      </c>
-      <c r="E59" s="7">
-        <f>C59+D59</f>
+      <c r="B59">
+        <f>A59+B36</f>
         <v>12</v>
       </c>
-      <c r="F59" s="7">
-        <f>C41</f>
-        <v>4</v>
-      </c>
-      <c r="G59" s="8">
-        <f>E59+F59</f>
+      <c r="C59">
+        <f>B59+C36</f>
         <v>16</v>
       </c>
-      <c r="H59" s="8">
-        <f>D41</f>
-        <v>8</v>
-      </c>
-      <c r="I59" s="9">
-        <f>G59+H59</f>
+      <c r="D59">
+        <f>C59+D36</f>
         <v>24</v>
       </c>
-      <c r="J59" s="9">
-        <f>E41</f>
-        <v>6</v>
+      <c r="E59">
+        <f>D59+E36</f>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -8008,16 +7980,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C10" workbookViewId="0">
-      <selection activeCell="K33" sqref="K33:O38"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="F51" sqref="F51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="10" max="11" width="11.8984375" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="11.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="H1" t="s">
         <v>14</v>
       </c>
@@ -8026,12 +7998,12 @@
         <v>1.4142135623730951</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>20</v>
       </c>
@@ -8051,7 +8023,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>-42.109116923693435</v>
       </c>
@@ -8081,7 +8053,7 @@
         <v>0.78868641142104967</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>-45.599005774638542</v>
       </c>
@@ -8098,7 +8070,7 @@
         <v>24.592212607675634</v>
       </c>
       <c r="H5">
-        <f>IF(K5&lt;$I$1, H4, H4+1)</f>
+        <f t="shared" ref="H5:H23" si="0">IF(K5&lt;$I$1, H4, H4+1)</f>
         <v>0</v>
       </c>
       <c r="I5">
@@ -8112,7 +8084,7 @@
         <v>1.24434637017608</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>-19.485197163929602</v>
       </c>
@@ -8129,7 +8101,7 @@
         <v>47.639401555478329</v>
       </c>
       <c r="H6">
-        <f>IF(K6&lt;$I$1, H5, H5+1)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="I6">
@@ -8139,11 +8111,11 @@
         <v>0.86622898691654271</v>
       </c>
       <c r="K6">
-        <f t="shared" ref="K6:K23" si="0">IF(K5&gt;$I$1,0,K5)+J6</f>
+        <f t="shared" ref="K6:K23" si="1">IF(K5&gt;$I$1,0,K5)+J6</f>
         <v>2.1105753570926229</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>-23.429305739286143</v>
       </c>
@@ -8160,7 +8132,7 @@
         <v>-13.657003426494931</v>
       </c>
       <c r="H7">
-        <f>IF(K7&lt;$I$1, H6, H6+1)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="I7">
@@ -8170,11 +8142,11 @@
         <v>0.8643156612451679</v>
       </c>
       <c r="K7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.8643156612451679</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>-21.548219409009196</v>
       </c>
@@ -8191,7 +8163,7 @@
         <v>11.911828951843049</v>
       </c>
       <c r="H8">
-        <f>IF(K8&lt;$I$1, H7, H7+1)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="I8">
@@ -8201,11 +8173,11 @@
         <v>2.0858768548820183E-2</v>
       </c>
       <c r="K8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.88517442979398808</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>31.243661252324188</v>
       </c>
@@ -8222,7 +8194,7 @@
         <v>7.9145193404836931</v>
       </c>
       <c r="H9">
-        <f>IF(K9&lt;$I$1, H8, H8+1)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="I9">
@@ -8232,11 +8204,11 @@
         <v>0.82377812678609574</v>
       </c>
       <c r="K9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.7089525565800838</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>-29.129023168718117</v>
       </c>
@@ -8253,7 +8225,7 @@
         <v>-20.281533239828388</v>
       </c>
       <c r="H10">
-        <f>IF(K10&lt;$I$1, H9, H9+1)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="I10">
@@ -8263,11 +8235,11 @@
         <v>0.11927340007654863</v>
       </c>
       <c r="K10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.11927340007654863</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>-49.748202733267824</v>
       </c>
@@ -8284,7 +8256,7 @@
         <v>-24.920588715088922</v>
       </c>
       <c r="H11">
-        <f>IF(K11&lt;$I$1, H10, H10+1)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="I11">
@@ -8294,11 +8266,11 @@
         <v>7.1492059289615328E-2</v>
       </c>
       <c r="K11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.19076545936616396</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>28.777661123723902</v>
       </c>
@@ -8315,7 +8287,7 @@
         <v>-3.2802313145997815</v>
       </c>
       <c r="H12">
-        <f>IF(K12&lt;$I$1, H11, H11+1)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="I12">
@@ -8325,11 +8297,11 @@
         <v>0.17635222003482609</v>
       </c>
       <c r="K12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.36711767940099005</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>-13.859434963385809</v>
       </c>
@@ -8346,7 +8318,7 @@
         <v>12.864474859567899</v>
       </c>
       <c r="H13">
-        <f>IF(K13&lt;$I$1, H12, H12+1)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="I13">
@@ -8356,11 +8328,11 @@
         <v>0.2547952891914893</v>
       </c>
       <c r="K13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.62191296859247935</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>-8.8404742109470718</v>
       </c>
@@ -8377,7 +8349,7 @@
         <v>-23.847336380625105</v>
       </c>
       <c r="H14">
-        <f>IF(K14&lt;$I$1, H13, H13+1)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="I14">
@@ -8387,11 +8359,11 @@
         <v>0.64358512074834751</v>
       </c>
       <c r="K14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.2654980893408267</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>-14.994910709849343</v>
       </c>
@@ -8408,7 +8380,7 @@
         <v>19.01095766958305</v>
       </c>
       <c r="H15">
-        <f>IF(K15&lt;$I$1, H14, H14+1)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="I15">
@@ -8418,11 +8390,11 @@
         <v>0.2644513415947759</v>
       </c>
       <c r="K15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.5299494309356025</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>-11.031069361397471</v>
       </c>
@@ -8439,7 +8411,7 @@
         <v>3.6432465799866165</v>
       </c>
       <c r="H16">
-        <f>IF(K16&lt;$I$1, H15, H15+1)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="I16">
@@ -8449,11 +8421,11 @@
         <v>0.23965541335257867</v>
       </c>
       <c r="K16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.23965541335257867</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>-41.83229371221163</v>
       </c>
@@ -8470,7 +8442,7 @@
         <v>-30.52159341545304</v>
       </c>
       <c r="H17">
-        <f>IF(K17&lt;$I$1, H16, H16+1)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="I17">
@@ -8480,11 +8452,11 @@
         <v>0.19331226210160724</v>
       </c>
       <c r="K17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.43296767545418591</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>-43.911806661016897</v>
       </c>
@@ -8501,7 +8473,7 @@
         <v>29.868503912410745</v>
       </c>
       <c r="H18">
-        <f>IF(K18&lt;$I$1, H17, H17+1)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="I18">
@@ -8511,11 +8483,11 @@
         <v>0.90644124342010024</v>
       </c>
       <c r="K18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.3394089188742861</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>32.090046657648017</v>
       </c>
@@ -8532,7 +8504,7 @@
         <v>-38.408999807179697</v>
       </c>
       <c r="H19">
-        <f>IF(K19&lt;$I$1, H18, H18+1)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="I19">
@@ -8542,11 +8514,11 @@
         <v>3.8365041069269856E-2</v>
       </c>
       <c r="K19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.3777739599435561</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>37.592204732227557</v>
       </c>
@@ -8563,7 +8535,7 @@
         <v>49.697432263214381</v>
       </c>
       <c r="H20">
-        <f>IF(K20&lt;$I$1, H19, H19+1)</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="I20">
@@ -8573,11 +8545,11 @@
         <v>0.83803583658351632</v>
       </c>
       <c r="K20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.2158097965270724</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>-44.157231430581099</v>
       </c>
@@ -8594,7 +8566,7 @@
         <v>0.81172260461277546</v>
       </c>
       <c r="H21">
-        <f>IF(K21&lt;$I$1, H20, H20+1)</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="I21">
@@ -8604,11 +8576,11 @@
         <v>0.16434153641504079</v>
       </c>
       <c r="K21">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.16434153641504079</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>-48.457526463785825</v>
       </c>
@@ -8625,7 +8597,7 @@
         <v>-47.596405163043265</v>
       </c>
       <c r="H22">
-        <f>IF(K22&lt;$I$1, H21, H21+1)</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="I22">
@@ -8635,11 +8607,11 @@
         <v>0.34723195043095501</v>
       </c>
       <c r="K22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.5115734868459958</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>34.587698459276737</v>
       </c>
@@ -8656,7 +8628,7 @@
         <v>-34.304338561127864</v>
       </c>
       <c r="H23">
-        <f>IF(K23&lt;$I$1, H22, H22+1)</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="I23">
@@ -8666,16 +8638,16 @@
         <v>0.9204286411388658</v>
       </c>
       <c r="K23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.4320021279848616</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>1</v>
       </c>
@@ -8684,33 +8656,33 @@
         <v>6</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27">
         <f>COUNTIF($H4:$H23,A28)</f>
         <v>2</v>
       </c>
       <c r="B27">
-        <f t="shared" ref="B27:F27" si="1">COUNTIF($H4:$H23,B28)</f>
+        <f t="shared" ref="B27:F27" si="2">COUNTIF($H4:$H23,B28)</f>
         <v>3</v>
       </c>
       <c r="C27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="D27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="E27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="F27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>0</v>
       </c>
@@ -8733,7 +8705,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>26</v>
       </c>
@@ -8750,7 +8722,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33">
         <f>A27</f>
         <v>2</v>
@@ -8804,7 +8776,7 @@
         <v>24.592212607675634</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34">
         <f>B27</f>
         <v>3</v>
@@ -8858,13 +8830,13 @@
         <v>47.639401555478329</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35">
         <f>C27</f>
         <v>6</v>
       </c>
       <c r="B35">
-        <f t="shared" ref="B35:B38" si="2">C34+1</f>
+        <f t="shared" ref="B35:B38" si="3">C34+1</f>
         <v>9</v>
       </c>
       <c r="C35">
@@ -8912,7 +8884,7 @@
         <v>12.864474859567899</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36">
         <f>D27</f>
         <v>5</v>
@@ -8922,7 +8894,7 @@
         <v>15</v>
       </c>
       <c r="C36">
-        <f t="shared" ref="C35:C38" si="3">B36+A36-1</f>
+        <f t="shared" ref="C36:C38" si="4">B36+A36-1</f>
         <v>19</v>
       </c>
       <c r="E36">
@@ -8966,17 +8938,17 @@
         <v>29.868503912410745</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37">
         <f>E27</f>
         <v>3</v>
       </c>
       <c r="B37">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>20</v>
       </c>
       <c r="C37">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>22</v>
       </c>
       <c r="E37">
@@ -9020,17 +8992,17 @@
         <v>49.697432263214381</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38">
         <f>F27</f>
         <v>1</v>
       </c>
       <c r="B38">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>23</v>
       </c>
       <c r="C38">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>23</v>
       </c>
       <c r="E38">
@@ -9074,12 +9046,12 @@
         <v>-34.304338561127864</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41">
         <f>B26</f>
         <v>6</v>
@@ -9089,7 +9061,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42">
         <f ca="1">E33</f>
         <v>-45.599005774638542</v>
@@ -9131,276 +9103,253 @@
         <v>24.592212607675634</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A43">
-        <f t="shared" ref="A43:A47" ca="1" si="4">E34</f>
+        <f t="shared" ref="A43:A47" ca="1" si="5">E34</f>
         <v>-23.429305739286143</v>
       </c>
       <c r="B43">
-        <f t="shared" ref="B43:B47" ca="1" si="5">K34</f>
+        <f t="shared" ref="B43:B47" ca="1" si="6">K34</f>
         <v>-19.485197163929602</v>
       </c>
       <c r="C43">
-        <f t="shared" ref="C43:C47" ca="1" si="6">F34</f>
+        <f t="shared" ref="C43:C47" ca="1" si="7">F34</f>
         <v>-25.916573334671067</v>
       </c>
       <c r="D43">
-        <f t="shared" ref="D43:D47" ca="1" si="7">L34</f>
+        <f t="shared" ref="D43:D47" ca="1" si="8">L34</f>
         <v>43.397978181580072</v>
       </c>
       <c r="E43">
-        <f t="shared" ref="E43:E47" ca="1" si="8">G34</f>
+        <f t="shared" ref="E43:E47" ca="1" si="9">G34</f>
         <v>-20.774838729578359</v>
       </c>
       <c r="F43">
-        <f t="shared" ref="F43:F47" ca="1" si="9">M34</f>
+        <f t="shared" ref="F43:F47" ca="1" si="10">M34</f>
         <v>43.311955542449212</v>
       </c>
       <c r="G43">
-        <f t="shared" ref="G43:G47" ca="1" si="10">H34</f>
+        <f t="shared" ref="G43:G47" ca="1" si="11">H34</f>
         <v>-27.369585467129752</v>
       </c>
       <c r="H43">
-        <f t="shared" ref="H43:H47" ca="1" si="11">N34</f>
+        <f t="shared" ref="H43:H47" ca="1" si="12">N34</f>
         <v>-4.4495587668836976</v>
       </c>
       <c r="I43">
-        <f t="shared" ref="I43:I47" ca="1" si="12">I34</f>
+        <f t="shared" ref="I43:I47" ca="1" si="13">I34</f>
         <v>-13.657003426494931</v>
       </c>
       <c r="J43">
-        <f t="shared" ref="J43:J47" ca="1" si="13">O34</f>
+        <f t="shared" ref="J43:J47" ca="1" si="14">O34</f>
         <v>47.639401555478329</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A44">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>-49.748202733267824</v>
       </c>
       <c r="B44">
+        <f t="shared" ca="1" si="6"/>
+        <v>31.243661252324188</v>
+      </c>
+      <c r="C44">
+        <f t="shared" ca="1" si="7"/>
+        <v>-32.373025791904411</v>
+      </c>
+      <c r="D44">
+        <f t="shared" ca="1" si="8"/>
+        <v>44.397141024031001</v>
+      </c>
+      <c r="E44">
+        <f t="shared" ca="1" si="9"/>
+        <v>-26.746204502936965</v>
+      </c>
+      <c r="F44">
+        <f t="shared" ca="1" si="10"/>
+        <v>15.230999959624981</v>
+      </c>
+      <c r="G44">
+        <f t="shared" ca="1" si="11"/>
+        <v>-36.229122613448453</v>
+      </c>
+      <c r="H44">
+        <f t="shared" ca="1" si="12"/>
+        <v>35.619333477838666</v>
+      </c>
+      <c r="I44">
+        <f t="shared" ca="1" si="13"/>
+        <v>-24.920588715088922</v>
+      </c>
+      <c r="J44">
+        <f t="shared" ca="1" si="14"/>
+        <v>12.864474859567899</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A45">
         <f t="shared" ca="1" si="5"/>
-        <v>31.243661252324188</v>
-      </c>
-      <c r="C44">
+        <v>-43.911806661016897</v>
+      </c>
+      <c r="B45">
         <f t="shared" ca="1" si="6"/>
-        <v>-32.373025791904411</v>
-      </c>
-      <c r="D44">
+        <v>32.090046657648017</v>
+      </c>
+      <c r="C45">
         <f t="shared" ca="1" si="7"/>
-        <v>44.397141024031001</v>
-      </c>
-      <c r="E44">
+        <v>-39.676002950293878</v>
+      </c>
+      <c r="D45">
         <f t="shared" ca="1" si="8"/>
-        <v>-26.746204502936965</v>
-      </c>
-      <c r="F44">
+        <v>47.654998542651342</v>
+      </c>
+      <c r="E45">
         <f t="shared" ca="1" si="9"/>
-        <v>15.230999959624981</v>
-      </c>
-      <c r="G44">
+        <v>-38.366001491320723</v>
+      </c>
+      <c r="F45">
         <f t="shared" ca="1" si="10"/>
-        <v>-36.229122613448453</v>
-      </c>
-      <c r="H44">
+        <v>24.418911382299896</v>
+      </c>
+      <c r="G45">
         <f t="shared" ca="1" si="11"/>
-        <v>35.619333477838666</v>
-      </c>
-      <c r="I44">
+        <v>-37.602091536422499</v>
+      </c>
+      <c r="H45">
         <f t="shared" ca="1" si="12"/>
-        <v>-24.920588715088922</v>
-      </c>
-      <c r="J44">
+        <v>9.2615895110385011</v>
+      </c>
+      <c r="I45">
         <f t="shared" ca="1" si="13"/>
-        <v>12.864474859567899</v>
-      </c>
-    </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A45">
-        <f t="shared" ca="1" si="4"/>
-        <v>-43.911806661016897</v>
-      </c>
-      <c r="B45">
+        <v>-38.408999807179697</v>
+      </c>
+      <c r="J45">
+        <f t="shared" ca="1" si="14"/>
+        <v>29.868503912410745</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A46">
         <f t="shared" ca="1" si="5"/>
-        <v>32.090046657648017</v>
-      </c>
-      <c r="C45">
+        <v>-48.457526463785825</v>
+      </c>
+      <c r="B46">
         <f t="shared" ca="1" si="6"/>
-        <v>-39.676002950293878</v>
-      </c>
-      <c r="D45">
+        <v>37.592204732227557</v>
+      </c>
+      <c r="C46">
         <f t="shared" ca="1" si="7"/>
-        <v>47.654998542651342</v>
-      </c>
-      <c r="E45">
+        <v>-32.475159455904233</v>
+      </c>
+      <c r="D46">
         <f t="shared" ca="1" si="8"/>
-        <v>-38.366001491320723</v>
-      </c>
-      <c r="F45">
+        <v>47.044963258179692</v>
+      </c>
+      <c r="E46">
         <f t="shared" ca="1" si="9"/>
-        <v>24.418911382299896</v>
-      </c>
-      <c r="G45">
+        <v>-8.6500432271144021</v>
+      </c>
+      <c r="F46">
         <f t="shared" ca="1" si="10"/>
-        <v>-37.602091536422499</v>
-      </c>
-      <c r="H45">
+        <v>43.898661849587569</v>
+      </c>
+      <c r="G46">
         <f t="shared" ca="1" si="11"/>
-        <v>9.2615895110385011</v>
-      </c>
-      <c r="I45">
+        <v>-0.74044567898822322</v>
+      </c>
+      <c r="H46">
         <f t="shared" ca="1" si="12"/>
-        <v>-38.408999807179697</v>
-      </c>
-      <c r="J45">
+        <v>42.391292193264036</v>
+      </c>
+      <c r="I46">
         <f t="shared" ca="1" si="13"/>
-        <v>29.868503912410745</v>
-      </c>
-    </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A46">
-        <f t="shared" ca="1" si="4"/>
-        <v>-48.457526463785825</v>
-      </c>
-      <c r="B46">
-        <f t="shared" ca="1" si="5"/>
-        <v>37.592204732227557</v>
-      </c>
-      <c r="C46">
-        <f t="shared" ca="1" si="6"/>
-        <v>-32.475159455904233</v>
-      </c>
-      <c r="D46">
-        <f t="shared" ca="1" si="7"/>
-        <v>47.044963258179692</v>
-      </c>
-      <c r="E46">
-        <f t="shared" ca="1" si="8"/>
-        <v>-8.6500432271144021</v>
-      </c>
-      <c r="F46">
-        <f t="shared" ca="1" si="9"/>
-        <v>43.898661849587569</v>
-      </c>
-      <c r="G46">
-        <f t="shared" ca="1" si="10"/>
-        <v>-0.74044567898822322</v>
-      </c>
-      <c r="H46">
-        <f t="shared" ca="1" si="11"/>
-        <v>42.391292193264036</v>
-      </c>
-      <c r="I46">
-        <f t="shared" ca="1" si="12"/>
         <v>-47.596405163043265</v>
       </c>
       <c r="J46">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="14"/>
         <v>49.697432263214381</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47">
-        <f t="shared" ca="1" si="4"/>
-        <v>34.587698459276737</v>
-      </c>
-      <c r="B47">
         <f t="shared" ca="1" si="5"/>
         <v>34.587698459276737</v>
       </c>
+      <c r="B47">
+        <f t="shared" ca="1" si="6"/>
+        <v>34.587698459276737</v>
+      </c>
       <c r="C47">
-        <f t="shared" ca="1" si="6"/>
-        <v>-39.661003019963488</v>
-      </c>
-      <c r="D47">
         <f t="shared" ca="1" si="7"/>
         <v>-39.661003019963488</v>
       </c>
+      <c r="D47">
+        <f t="shared" ca="1" si="8"/>
+        <v>-39.661003019963488</v>
+      </c>
       <c r="E47">
-        <f t="shared" ca="1" si="8"/>
-        <v>26.603995313755178</v>
-      </c>
-      <c r="F47">
         <f t="shared" ca="1" si="9"/>
         <v>26.603995313755178</v>
       </c>
+      <c r="F47">
+        <f t="shared" ca="1" si="10"/>
+        <v>26.603995313755178</v>
+      </c>
       <c r="G47">
-        <f t="shared" ca="1" si="10"/>
-        <v>47.391801294922303</v>
-      </c>
-      <c r="H47">
         <f t="shared" ca="1" si="11"/>
         <v>47.391801294922303</v>
       </c>
+      <c r="H47">
+        <f t="shared" ca="1" si="12"/>
+        <v>47.391801294922303</v>
+      </c>
       <c r="I47">
-        <f t="shared" ca="1" si="12"/>
-        <v>-34.304338561127864</v>
-      </c>
-      <c r="J47">
         <f t="shared" ca="1" si="13"/>
         <v>-34.304338561127864</v>
       </c>
-    </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="J47">
+        <f t="shared" ca="1" si="14"/>
+        <v>-34.304338561127864</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>1</v>
       </c>
       <c r="B50">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51">
-        <v>0</v>
+        <f>A27</f>
+        <v>2</v>
       </c>
       <c r="B51">
-        <f>A33</f>
-        <v>2</v>
+        <f>A51+B27</f>
+        <v>5</v>
       </c>
       <c r="C51">
-        <f>A51+B51</f>
-        <v>2</v>
+        <f t="shared" ref="C51:F51" si="15">B51+C27</f>
+        <v>11</v>
       </c>
       <c r="D51">
-        <f>A34</f>
-        <v>3</v>
+        <f t="shared" si="15"/>
+        <v>16</v>
       </c>
       <c r="E51">
-        <f>C51+D51</f>
-        <v>5</v>
+        <f t="shared" si="15"/>
+        <v>19</v>
       </c>
       <c r="F51">
-        <f>A35</f>
-        <v>6</v>
-      </c>
-      <c r="G51">
-        <f>E51+F51</f>
-        <v>11</v>
-      </c>
-      <c r="H51">
-        <f>A36</f>
-        <v>5</v>
-      </c>
-      <c r="I51">
-        <f>G51+H51</f>
-        <v>16</v>
-      </c>
-      <c r="J51">
-        <f>A37</f>
-        <v>3</v>
-      </c>
-      <c r="K51">
-        <f>I51+J51</f>
-        <v>19</v>
-      </c>
-      <c r="L51">
-        <f>A38</f>
-        <v>1</v>
+        <f t="shared" si="15"/>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -9416,1266 +9365,1266 @@
       <selection activeCell="B2" sqref="B2:F21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1">
         <f ca="1">RAND()*100-50</f>
-        <v>-24.264942750010043</v>
+        <v>-18.851715809226711</v>
       </c>
       <c r="B1">
         <f t="shared" ref="B1:J16" ca="1" si="0">RAND()*100-50</f>
-        <v>16.91884716061503</v>
+        <v>13.226876750908701</v>
       </c>
       <c r="C1">
         <f t="shared" ca="1" si="0"/>
-        <v>38.273279994824293</v>
+        <v>3.0887977219825373</v>
       </c>
       <c r="D1">
         <f t="shared" ca="1" si="0"/>
-        <v>23.936674504464747</v>
+        <v>14.44189206372468</v>
       </c>
       <c r="E1">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.2805195225206063</v>
+        <v>-15.364829294365698</v>
       </c>
       <c r="F1">
         <f t="shared" ca="1" si="0"/>
-        <v>41.920156274526505</v>
+        <v>-4.2179512788672398</v>
       </c>
       <c r="G1">
         <f t="shared" ca="1" si="0"/>
-        <v>-25.629671567555668</v>
+        <v>18.514983735847963</v>
       </c>
       <c r="H1">
         <f t="shared" ca="1" si="0"/>
-        <v>7.1834123486637083</v>
+        <v>23.605730945926226</v>
       </c>
       <c r="I1">
         <f t="shared" ca="1" si="0"/>
-        <v>22.794112276298549</v>
+        <v>49.103034395233337</v>
       </c>
       <c r="J1">
         <f t="shared" ca="1" si="0"/>
-        <v>38.044570040847134</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+        <v>-26.368586294480579</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2">
         <f t="shared" ref="A2:J30" ca="1" si="1">RAND()*100-50</f>
-        <v>-11.498180043521778</v>
+        <v>2.0288393459260803</v>
       </c>
       <c r="B2">
         <f t="shared" ca="1" si="0"/>
-        <v>-16.847593755579659</v>
+        <v>3.3806890774738889</v>
       </c>
       <c r="C2">
         <f t="shared" ca="1" si="0"/>
-        <v>-31.400217240730953</v>
+        <v>28.505100324701502</v>
       </c>
       <c r="D2">
         <f t="shared" ca="1" si="0"/>
-        <v>-13.542468746188007</v>
+        <v>-17.08152690157997</v>
       </c>
       <c r="E2">
         <f t="shared" ca="1" si="0"/>
-        <v>23.4773048858886</v>
+        <v>-41.546421618504247</v>
       </c>
       <c r="F2">
         <f t="shared" ca="1" si="0"/>
-        <v>45.074181528994401</v>
+        <v>-17.197358374032554</v>
       </c>
       <c r="G2">
         <f t="shared" ca="1" si="0"/>
-        <v>-30.556380866468626</v>
+        <v>-44.3683288792231</v>
       </c>
       <c r="H2">
         <f t="shared" ca="1" si="0"/>
-        <v>42.650068950431617</v>
+        <v>40.159519609124018</v>
       </c>
       <c r="I2">
         <f t="shared" ca="1" si="0"/>
-        <v>47.491435152844033</v>
+        <v>35.796966868180945</v>
       </c>
       <c r="J2">
         <f t="shared" ca="1" si="0"/>
-        <v>39.71895932267941</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+        <v>26.631168994076816</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3">
         <f t="shared" ca="1" si="1"/>
-        <v>-4.9383493325045009</v>
+        <v>-48.204904010464354</v>
       </c>
       <c r="B3">
         <f t="shared" ca="1" si="0"/>
-        <v>19.784627667631867</v>
+        <v>-41.401220818355768</v>
       </c>
       <c r="C3">
         <f t="shared" ca="1" si="0"/>
-        <v>-37.240186657207239</v>
+        <v>48.044478003915131</v>
       </c>
       <c r="D3">
         <f t="shared" ca="1" si="0"/>
-        <v>-23.144403152128767</v>
+        <v>-29.365226857023728</v>
       </c>
       <c r="E3">
         <f t="shared" ca="1" si="0"/>
-        <v>2.7555608512061198</v>
+        <v>-18.861165309195361</v>
       </c>
       <c r="F3">
         <f t="shared" ca="1" si="0"/>
-        <v>4.1618579414109718</v>
+        <v>-42.663209768126229</v>
       </c>
       <c r="G3">
         <f t="shared" ca="1" si="0"/>
-        <v>-43.55430442337871</v>
+        <v>16.139198948606492</v>
       </c>
       <c r="H3">
         <f t="shared" ca="1" si="0"/>
-        <v>9.58124787620185</v>
+        <v>-7.8435718722400196</v>
       </c>
       <c r="I3">
         <f t="shared" ca="1" si="0"/>
-        <v>-28.708886353788841</v>
+        <v>14.88939924218981</v>
       </c>
       <c r="J3">
         <f t="shared" ca="1" si="0"/>
-        <v>-14.250389323861235</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+        <v>-8.7443557378442875</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4">
         <f t="shared" ca="1" si="1"/>
-        <v>46.721278544404825</v>
+        <v>21.130704167338465</v>
       </c>
       <c r="B4">
         <f t="shared" ca="1" si="0"/>
-        <v>-38.043073582688805</v>
+        <v>-49.254459213088786</v>
       </c>
       <c r="C4">
         <f t="shared" ca="1" si="0"/>
-        <v>-48.829776733333318</v>
+        <v>18.270333980350131</v>
       </c>
       <c r="D4">
         <f t="shared" ca="1" si="0"/>
-        <v>-44.895911251755024</v>
+        <v>1.4544666885702568</v>
       </c>
       <c r="E4">
         <f t="shared" ca="1" si="0"/>
-        <v>18.386566665533294</v>
+        <v>1.0150631814175384</v>
       </c>
       <c r="F4">
         <f t="shared" ca="1" si="0"/>
-        <v>42.1241078920403</v>
+        <v>28.546251448003929</v>
       </c>
       <c r="G4">
         <f t="shared" ca="1" si="0"/>
-        <v>25.721955020126273</v>
+        <v>19.85770391753509</v>
       </c>
       <c r="H4">
         <f t="shared" ca="1" si="0"/>
-        <v>-24.703199650061837</v>
+        <v>-0.76286197187156546</v>
       </c>
       <c r="I4">
         <f t="shared" ca="1" si="0"/>
-        <v>-4.7987205622655154</v>
+        <v>-1.1923428920010082</v>
       </c>
       <c r="J4">
         <f t="shared" ca="1" si="0"/>
-        <v>17.219976410114754</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+        <v>-33.941437341796359</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5">
         <f t="shared" ca="1" si="1"/>
-        <v>-24.732977700790435</v>
+        <v>20.99534891707934</v>
       </c>
       <c r="B5">
         <f t="shared" ca="1" si="0"/>
-        <v>26.663744347776358</v>
+        <v>-15.84766119338844</v>
       </c>
       <c r="C5">
         <f t="shared" ca="1" si="0"/>
-        <v>19.143820827586055</v>
+        <v>-49.115155010501987</v>
       </c>
       <c r="D5">
         <f t="shared" ca="1" si="0"/>
-        <v>-15.498739322480517</v>
+        <v>-46.362766974533329</v>
       </c>
       <c r="E5">
         <f t="shared" ca="1" si="0"/>
-        <v>-37.664242789088519</v>
+        <v>11.939796785405534</v>
       </c>
       <c r="F5">
         <f t="shared" ca="1" si="0"/>
-        <v>-42.423042150578496</v>
+        <v>-8.635926117921457</v>
       </c>
       <c r="G5">
         <f t="shared" ca="1" si="0"/>
-        <v>39.30593934966285</v>
+        <v>-10.191780784608575</v>
       </c>
       <c r="H5">
         <f t="shared" ca="1" si="0"/>
-        <v>-3.8834258381426423</v>
+        <v>26.313995378739179</v>
       </c>
       <c r="I5">
         <f t="shared" ca="1" si="0"/>
-        <v>-7.1245845010969973</v>
+        <v>15.811875077559506</v>
       </c>
       <c r="J5">
         <f t="shared" ca="1" si="0"/>
-        <v>41.13199552467546</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+        <v>-16.114012335311692</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6">
         <f t="shared" ca="1" si="1"/>
-        <v>38.015997996094882</v>
+        <v>31.311165244697719</v>
       </c>
       <c r="B6">
         <f t="shared" ca="1" si="0"/>
-        <v>42.301493032235911</v>
+        <v>-4.622585942287472</v>
       </c>
       <c r="C6">
         <f t="shared" ca="1" si="0"/>
-        <v>36.519627733857902</v>
+        <v>2.1981529962674529</v>
       </c>
       <c r="D6">
         <f t="shared" ca="1" si="0"/>
-        <v>16.881232019052121</v>
+        <v>-46.538848833491187</v>
       </c>
       <c r="E6">
         <f t="shared" ca="1" si="0"/>
-        <v>6.0129550851039184</v>
+        <v>24.771385997110457</v>
       </c>
       <c r="F6">
         <f t="shared" ca="1" si="0"/>
-        <v>42.10853906934517</v>
+        <v>8.5316786007717624</v>
       </c>
       <c r="G6">
         <f t="shared" ca="1" si="0"/>
-        <v>-31.674055318683582</v>
+        <v>35.154135480396803</v>
       </c>
       <c r="H6">
         <f t="shared" ca="1" si="0"/>
-        <v>-34.952567552440861</v>
+        <v>-34.47421925518384</v>
       </c>
       <c r="I6">
         <f t="shared" ca="1" si="0"/>
-        <v>-1.6367864794925708</v>
+        <v>-45.472312249296607</v>
       </c>
       <c r="J6">
         <f t="shared" ca="1" si="0"/>
-        <v>3.608625916084172</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+        <v>25.737216631479086</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.86132886433605194</v>
+        <v>-4.0639752956043935</v>
       </c>
       <c r="B7">
         <f t="shared" ca="1" si="0"/>
-        <v>48.535389103545938</v>
+        <v>-29.800287454946083</v>
       </c>
       <c r="C7">
         <f t="shared" ca="1" si="0"/>
-        <v>26.842015212405741</v>
+        <v>-16.975163958619319</v>
       </c>
       <c r="D7">
         <f t="shared" ca="1" si="0"/>
-        <v>2.6124275248433548</v>
+        <v>37.266168966916808</v>
       </c>
       <c r="E7">
         <f t="shared" ca="1" si="0"/>
-        <v>-33.985780983967118</v>
+        <v>5.9143893148689628</v>
       </c>
       <c r="F7">
         <f t="shared" ca="1" si="0"/>
-        <v>33.696350089575816</v>
+        <v>26.142237582737877</v>
       </c>
       <c r="G7">
         <f t="shared" ca="1" si="0"/>
-        <v>-40.177864668934049</v>
+        <v>-49.169250108185295</v>
       </c>
       <c r="H7">
         <f t="shared" ca="1" si="0"/>
-        <v>29.319085660598077</v>
+        <v>-34.586203629675119</v>
       </c>
       <c r="I7">
         <f t="shared" ca="1" si="0"/>
-        <v>-48.03614893718666</v>
+        <v>28.896804805100373</v>
       </c>
       <c r="J7">
         <f t="shared" ca="1" si="0"/>
-        <v>-48.982258823907252</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+        <v>-4.37019356669839</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8">
         <f t="shared" ca="1" si="1"/>
-        <v>-12.221847122431527</v>
+        <v>13.505355309520148</v>
       </c>
       <c r="B8">
         <f t="shared" ca="1" si="0"/>
-        <v>-37.246645850573287</v>
+        <v>35.250133370831605</v>
       </c>
       <c r="C8">
         <f t="shared" ca="1" si="0"/>
-        <v>-48.851204815604</v>
+        <v>38.158301505682957</v>
       </c>
       <c r="D8">
         <f t="shared" ca="1" si="0"/>
-        <v>2.1437201362101135</v>
+        <v>23.010857368883265</v>
       </c>
       <c r="E8">
         <f t="shared" ca="1" si="0"/>
-        <v>12.344994975222271</v>
+        <v>-19.985291210774815</v>
       </c>
       <c r="F8">
         <f t="shared" ca="1" si="0"/>
-        <v>6.0943262400437987</v>
+        <v>-24.90617984700355</v>
       </c>
       <c r="G8">
         <f t="shared" ca="1" si="0"/>
-        <v>37.630634610389464</v>
+        <v>-18.191910104777175</v>
       </c>
       <c r="H8">
         <f t="shared" ca="1" si="0"/>
-        <v>39.542589507381194</v>
+        <v>46.621908552211295</v>
       </c>
       <c r="I8">
         <f t="shared" ca="1" si="0"/>
-        <v>40.408913104590198</v>
+        <v>-40.695832619800257</v>
       </c>
       <c r="J8">
         <f t="shared" ca="1" si="0"/>
-        <v>34.220192070303995</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+        <v>11.15864206333562</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9">
         <f t="shared" ca="1" si="1"/>
-        <v>30.958614856535917</v>
+        <v>-0.70802910951166353</v>
       </c>
       <c r="B9">
         <f t="shared" ca="1" si="0"/>
-        <v>-7.1198579209167505</v>
+        <v>-45.387806862947535</v>
       </c>
       <c r="C9">
         <f t="shared" ca="1" si="0"/>
-        <v>40.908824458795863</v>
+        <v>-27.931372064994964</v>
       </c>
       <c r="D9">
         <f t="shared" ca="1" si="0"/>
-        <v>-11.388980328749497</v>
+        <v>49.901961791546128</v>
       </c>
       <c r="E9">
         <f t="shared" ca="1" si="0"/>
-        <v>28.601119537529726</v>
+        <v>-7.1368668036675444</v>
       </c>
       <c r="F9">
         <f t="shared" ca="1" si="0"/>
-        <v>24.68608214606482</v>
+        <v>-18.240720091558671</v>
       </c>
       <c r="G9">
         <f t="shared" ca="1" si="0"/>
-        <v>-49.824698306578817</v>
+        <v>-1.6378571409088067</v>
       </c>
       <c r="H9">
         <f t="shared" ca="1" si="0"/>
-        <v>48.698805212240018</v>
+        <v>-40.171233325608554</v>
       </c>
       <c r="I9">
         <f t="shared" ca="1" si="0"/>
-        <v>37.365147716774018</v>
+        <v>16.863757578173661</v>
       </c>
       <c r="J9">
         <f t="shared" ca="1" si="0"/>
-        <v>-32.954397448948079</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+        <v>32.552366418727445</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10">
         <f t="shared" ca="1" si="1"/>
-        <v>18.408510006247695</v>
+        <v>12.198092716131271</v>
       </c>
       <c r="B10">
         <f t="shared" ca="1" si="0"/>
-        <v>32.438500499313946</v>
+        <v>26.995149977013128</v>
       </c>
       <c r="C10">
         <f t="shared" ca="1" si="0"/>
-        <v>-20.078323006718858</v>
+        <v>-8.9171526577464491</v>
       </c>
       <c r="D10">
         <f t="shared" ca="1" si="0"/>
-        <v>-22.357106844482665</v>
+        <v>15.067351996942776</v>
       </c>
       <c r="E10">
         <f t="shared" ca="1" si="0"/>
-        <v>-39.51668636761584</v>
+        <v>17.659509779351822</v>
       </c>
       <c r="F10">
         <f t="shared" ca="1" si="0"/>
-        <v>23.005562882072681</v>
+        <v>-33.373211082161774</v>
       </c>
       <c r="G10">
         <f t="shared" ca="1" si="0"/>
-        <v>-15.395687674342042</v>
+        <v>26.077585332501002</v>
       </c>
       <c r="H10">
         <f t="shared" ca="1" si="0"/>
-        <v>-31.780690188199422</v>
+        <v>-46.154554675572449</v>
       </c>
       <c r="I10">
         <f t="shared" ca="1" si="0"/>
-        <v>36.851912373870221</v>
+        <v>-5.3532690789689283</v>
       </c>
       <c r="J10">
         <f t="shared" ca="1" si="0"/>
-        <v>32.95391459574742</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+        <v>11.515724350715772</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11">
         <f t="shared" ca="1" si="1"/>
-        <v>36.856352410757637</v>
+        <v>46.926225063746855</v>
       </c>
       <c r="B11">
         <f t="shared" ca="1" si="0"/>
-        <v>-49.73411089168043</v>
+        <v>-47.863893724146159</v>
       </c>
       <c r="C11">
         <f t="shared" ca="1" si="0"/>
-        <v>42.965649806669717</v>
+        <v>49.492920590827467</v>
       </c>
       <c r="D11">
         <f t="shared" ca="1" si="0"/>
-        <v>16.531022720502264</v>
+        <v>49.20219888007891</v>
       </c>
       <c r="E11">
         <f t="shared" ca="1" si="0"/>
-        <v>-5.8831789931535283</v>
+        <v>10.084321895538437</v>
       </c>
       <c r="F11">
         <f t="shared" ca="1" si="0"/>
-        <v>44.372022973945505</v>
+        <v>-42.298063802109894</v>
       </c>
       <c r="G11">
         <f t="shared" ca="1" si="0"/>
-        <v>4.3602252823833538</v>
+        <v>-5.6127357858857394</v>
       </c>
       <c r="H11">
         <f t="shared" ca="1" si="0"/>
-        <v>7.232255997224037</v>
+        <v>22.034641061828751</v>
       </c>
       <c r="I11">
         <f t="shared" ca="1" si="0"/>
-        <v>24.00425301421653</v>
+        <v>47.563668862239282</v>
       </c>
       <c r="J11">
         <f t="shared" ca="1" si="0"/>
-        <v>42.624820216549637</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+        <v>17.863861481855025</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12">
         <f t="shared" ca="1" si="1"/>
-        <v>25.200821614914744</v>
+        <v>31.253119805933977</v>
       </c>
       <c r="B12">
         <f t="shared" ca="1" si="0"/>
-        <v>-20.085541372117831</v>
+        <v>-20.541071083619588</v>
       </c>
       <c r="C12">
         <f t="shared" ca="1" si="0"/>
-        <v>-4.9822933023503708</v>
+        <v>-8.9203127393047481</v>
       </c>
       <c r="D12">
         <f t="shared" ca="1" si="0"/>
-        <v>-28.777622945007732</v>
+        <v>4.1184314318267781</v>
       </c>
       <c r="E12">
         <f t="shared" ca="1" si="0"/>
-        <v>-13.975716676760896</v>
+        <v>-37.850848173472762</v>
       </c>
       <c r="F12">
         <f t="shared" ca="1" si="0"/>
-        <v>-27.346563808611858</v>
+        <v>-4.8414264077183091</v>
       </c>
       <c r="G12">
         <f t="shared" ca="1" si="0"/>
-        <v>35.32506890736569</v>
+        <v>-47.338080352796716</v>
       </c>
       <c r="H12">
         <f t="shared" ca="1" si="0"/>
-        <v>-33.852292471025194</v>
+        <v>-22.037047868091452</v>
       </c>
       <c r="I12">
         <f t="shared" ca="1" si="0"/>
-        <v>26.310768758159199</v>
+        <v>-22.71294577565881</v>
       </c>
       <c r="J12">
         <f t="shared" ca="1" si="0"/>
-        <v>1.0577859896441666</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+        <v>12.663600537601546</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13">
         <f t="shared" ca="1" si="1"/>
-        <v>46.901033244625268</v>
+        <v>-40.407203146720548</v>
       </c>
       <c r="B13">
         <f t="shared" ca="1" si="0"/>
-        <v>-10.86228695566227</v>
+        <v>3.5738283426958191</v>
       </c>
       <c r="C13">
         <f t="shared" ca="1" si="0"/>
-        <v>-47.920598241171398</v>
+        <v>8.2911878020822485</v>
       </c>
       <c r="D13">
         <f t="shared" ca="1" si="0"/>
-        <v>19.355659464389788</v>
+        <v>-18.712086252147198</v>
       </c>
       <c r="E13">
         <f t="shared" ca="1" si="0"/>
-        <v>46.065278159194776</v>
+        <v>-4.9691408778728601</v>
       </c>
       <c r="F13">
         <f t="shared" ca="1" si="0"/>
-        <v>43.149424380371329</v>
+        <v>31.598613460052249</v>
       </c>
       <c r="G13">
         <f t="shared" ca="1" si="0"/>
-        <v>-16.547013029860359</v>
+        <v>-28.580526196521671</v>
       </c>
       <c r="H13">
         <f t="shared" ca="1" si="0"/>
-        <v>34.503565821819222</v>
+        <v>-41.38173742780895</v>
       </c>
       <c r="I13">
         <f t="shared" ca="1" si="0"/>
-        <v>8.3521074252188896</v>
+        <v>8.6397368780620312</v>
       </c>
       <c r="J13">
         <f t="shared" ca="1" si="0"/>
-        <v>-48.965371340156572</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+        <v>-9.7519070088267128</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14">
         <f t="shared" ca="1" si="1"/>
-        <v>-25.934224233851065</v>
+        <v>-41.472197465822759</v>
       </c>
       <c r="B14">
         <f t="shared" ca="1" si="0"/>
-        <v>16.232089816285509</v>
+        <v>-42.407632812945593</v>
       </c>
       <c r="C14">
         <f t="shared" ca="1" si="0"/>
-        <v>17.361377403462924</v>
+        <v>4.3619339887980146</v>
       </c>
       <c r="D14">
         <f t="shared" ca="1" si="0"/>
-        <v>-31.634399460445948</v>
+        <v>-33.782121802387294</v>
       </c>
       <c r="E14">
         <f t="shared" ca="1" si="0"/>
-        <v>-31.489437757162552</v>
+        <v>-45.767330818395067</v>
       </c>
       <c r="F14">
         <f t="shared" ca="1" si="0"/>
-        <v>-49.751200403572739</v>
+        <v>46.905629038068156</v>
       </c>
       <c r="G14">
         <f t="shared" ca="1" si="0"/>
-        <v>-44.828609515781551</v>
+        <v>-16.790336647816439</v>
       </c>
       <c r="H14">
         <f t="shared" ca="1" si="0"/>
-        <v>-32.618444524387925</v>
+        <v>20.564926663414795</v>
       </c>
       <c r="I14">
         <f t="shared" ca="1" si="0"/>
-        <v>-46.889113381741367</v>
+        <v>-25.874528406689468</v>
       </c>
       <c r="J14">
         <f t="shared" ca="1" si="0"/>
-        <v>-31.998574898709865</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+        <v>-1.5659324980015867</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15">
         <f t="shared" ca="1" si="1"/>
-        <v>8.763680204325766</v>
+        <v>-33.579628042557246</v>
       </c>
       <c r="B15">
         <f t="shared" ca="1" si="0"/>
-        <v>-37.558277374206064</v>
+        <v>15.501924627994143</v>
       </c>
       <c r="C15">
         <f t="shared" ca="1" si="0"/>
-        <v>-15.119828471158179</v>
+        <v>48.576765981180642</v>
       </c>
       <c r="D15">
         <f t="shared" ca="1" si="0"/>
-        <v>-41.996578718924894</v>
+        <v>-0.49235750160091385</v>
       </c>
       <c r="E15">
         <f t="shared" ca="1" si="0"/>
-        <v>13.434182635855905</v>
+        <v>-3.2701272276998381</v>
       </c>
       <c r="F15">
         <f t="shared" ca="1" si="0"/>
-        <v>-15.441086519718617</v>
+        <v>37.755331686072381</v>
       </c>
       <c r="G15">
         <f t="shared" ca="1" si="0"/>
-        <v>9.5647317511602381</v>
+        <v>40.298214467103648</v>
       </c>
       <c r="H15">
         <f t="shared" ca="1" si="0"/>
-        <v>-27.085910665317325</v>
+        <v>47.245302780772064</v>
       </c>
       <c r="I15">
         <f t="shared" ca="1" si="0"/>
-        <v>7.075939417770293</v>
+        <v>16.903423211384222</v>
       </c>
       <c r="J15">
         <f t="shared" ca="1" si="0"/>
-        <v>35.413678756192141</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+        <v>-36.920340768211233</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16">
         <f t="shared" ca="1" si="1"/>
-        <v>-21.620636296512018</v>
+        <v>-23.51603503972386</v>
       </c>
       <c r="B16">
         <f t="shared" ca="1" si="0"/>
-        <v>-3.6146135584818495</v>
+        <v>-25.854507415045823</v>
       </c>
       <c r="C16">
         <f t="shared" ca="1" si="0"/>
-        <v>-19.831514707472799</v>
+        <v>-2.1312593773389565</v>
       </c>
       <c r="D16">
         <f t="shared" ca="1" si="0"/>
-        <v>25.419869351348595</v>
+        <v>39.084474828000978</v>
       </c>
       <c r="E16">
         <f t="shared" ca="1" si="0"/>
-        <v>-42.064703860661602</v>
+        <v>-34.387267178555447</v>
       </c>
       <c r="F16">
         <f t="shared" ca="1" si="0"/>
-        <v>48.599547878702964</v>
+        <v>11.964170361658212</v>
       </c>
       <c r="G16">
         <f t="shared" ca="1" si="0"/>
-        <v>-23.524923199967496</v>
+        <v>-35.835375428510034</v>
       </c>
       <c r="H16">
         <f t="shared" ca="1" si="0"/>
-        <v>-24.976684996344055</v>
+        <v>8.5966411586325435</v>
       </c>
       <c r="I16">
         <f t="shared" ca="1" si="0"/>
-        <v>-12.415331408328235</v>
+        <v>2.1136711682283504</v>
       </c>
       <c r="J16">
         <f t="shared" ca="1" si="0"/>
-        <v>27.465543380343391</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+        <v>12.610779550911502</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17">
         <f t="shared" ca="1" si="1"/>
-        <v>-38.384361526630443</v>
+        <v>-44.647204641676851</v>
       </c>
       <c r="B17">
         <f t="shared" ca="1" si="1"/>
-        <v>41.772899832825942</v>
+        <v>4.6785442554077932</v>
       </c>
       <c r="C17">
         <f t="shared" ca="1" si="1"/>
-        <v>36.622643828047941</v>
+        <v>-26.903666741996812</v>
       </c>
       <c r="D17">
         <f t="shared" ca="1" si="1"/>
-        <v>-23.328146195542999</v>
+        <v>16.698809351245075</v>
       </c>
       <c r="E17">
         <f t="shared" ca="1" si="1"/>
-        <v>26.265828806426114</v>
+        <v>-42.303661659962664</v>
       </c>
       <c r="F17">
         <f t="shared" ca="1" si="1"/>
-        <v>2.6621358215968129</v>
+        <v>-47.721425872619264</v>
       </c>
       <c r="G17">
         <f t="shared" ca="1" si="1"/>
-        <v>8.5172097148254338</v>
+        <v>40.355075013645063</v>
       </c>
       <c r="H17">
         <f t="shared" ca="1" si="1"/>
-        <v>12.352620997912901</v>
+        <v>-4.9777639614312932</v>
       </c>
       <c r="I17">
         <f t="shared" ca="1" si="1"/>
-        <v>-34.013864272185828</v>
+        <v>-19.489885982610044</v>
       </c>
       <c r="J17">
         <f t="shared" ca="1" si="1"/>
-        <v>-13.30104028525021</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+        <v>-27.724258941045221</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18">
         <f t="shared" ca="1" si="1"/>
-        <v>6.5521998467227931</v>
+        <v>-4.0272024798904553</v>
       </c>
       <c r="B18">
         <f t="shared" ca="1" si="1"/>
-        <v>-1.4847540430601995</v>
+        <v>-37.059660003086904</v>
       </c>
       <c r="C18">
         <f t="shared" ca="1" si="1"/>
-        <v>-5.9749241269430939</v>
+        <v>34.684414081934761</v>
       </c>
       <c r="D18">
         <f t="shared" ca="1" si="1"/>
-        <v>9.4187421206862965</v>
+        <v>25.97633650629048</v>
       </c>
       <c r="E18">
         <f t="shared" ca="1" si="1"/>
-        <v>-44.645405796130099</v>
+        <v>8.9361059730173054</v>
       </c>
       <c r="F18">
         <f t="shared" ca="1" si="1"/>
-        <v>-11.866259257164124</v>
+        <v>-18.459223669161851</v>
       </c>
       <c r="G18">
         <f t="shared" ca="1" si="1"/>
-        <v>49.939288800380112</v>
+        <v>8.6497704622785605</v>
       </c>
       <c r="H18">
         <f t="shared" ca="1" si="1"/>
-        <v>-49.030957914015275</v>
+        <v>39.893170610178757</v>
       </c>
       <c r="I18">
         <f t="shared" ca="1" si="1"/>
-        <v>16.352368618724896</v>
+        <v>36.379018016315101</v>
       </c>
       <c r="J18">
         <f t="shared" ca="1" si="1"/>
-        <v>-34.348612357617746</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+        <v>1.4457367667490928</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19">
         <f t="shared" ca="1" si="1"/>
-        <v>-49.153837544128777</v>
+        <v>-38.923216467279886</v>
       </c>
       <c r="B19">
         <f t="shared" ca="1" si="1"/>
-        <v>-38.659984064716824</v>
+        <v>-28.093955161086992</v>
       </c>
       <c r="C19">
         <f t="shared" ca="1" si="1"/>
-        <v>-35.630618027948699</v>
+        <v>41.272180462741673</v>
       </c>
       <c r="D19">
         <f t="shared" ca="1" si="1"/>
-        <v>-2.3286348297677648</v>
+        <v>3.0904831624652616</v>
       </c>
       <c r="E19">
         <f t="shared" ca="1" si="1"/>
-        <v>10.925437119533619</v>
+        <v>-14.44136108844144</v>
       </c>
       <c r="F19">
         <f t="shared" ca="1" si="1"/>
-        <v>-40.695133822745298</v>
+        <v>-25.825297380654899</v>
       </c>
       <c r="G19">
         <f t="shared" ca="1" si="1"/>
-        <v>19.636460130658818</v>
+        <v>48.473005613144466</v>
       </c>
       <c r="H19">
         <f t="shared" ca="1" si="1"/>
-        <v>-28.999209618717959</v>
+        <v>24.620835972136916</v>
       </c>
       <c r="I19">
         <f t="shared" ca="1" si="1"/>
-        <v>-12.510591530110048</v>
+        <v>6.9820331385512802</v>
       </c>
       <c r="J19">
         <f t="shared" ca="1" si="1"/>
-        <v>-18.394897154687484</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+        <v>-26.924907824490706</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20">
         <f t="shared" ca="1" si="1"/>
-        <v>1.4978639414586752</v>
+        <v>15.77722063588844</v>
       </c>
       <c r="B20">
         <f t="shared" ca="1" si="1"/>
-        <v>41.260721316121632</v>
+        <v>40.611400272650329</v>
       </c>
       <c r="C20">
         <f t="shared" ca="1" si="1"/>
-        <v>-29.31281476572336</v>
+        <v>17.009908832007014</v>
       </c>
       <c r="D20">
         <f t="shared" ca="1" si="1"/>
-        <v>-31.256975020509415</v>
+        <v>-35.806534277703349</v>
       </c>
       <c r="E20">
         <f t="shared" ca="1" si="1"/>
-        <v>-25.064231291297055</v>
+        <v>-17.100305600330998</v>
       </c>
       <c r="F20">
         <f t="shared" ca="1" si="1"/>
-        <v>-41.59045029964107</v>
+        <v>-28.267625930018003</v>
       </c>
       <c r="G20">
         <f t="shared" ca="1" si="1"/>
-        <v>-31.485159879415825</v>
+        <v>9.0332525143547855</v>
       </c>
       <c r="H20">
         <f t="shared" ca="1" si="1"/>
-        <v>10.278519829256005</v>
+        <v>29.912036184620192</v>
       </c>
       <c r="I20">
         <f t="shared" ca="1" si="1"/>
-        <v>-18.406907075796752</v>
+        <v>39.482193634364336</v>
       </c>
       <c r="J20">
         <f t="shared" ca="1" si="1"/>
-        <v>-6.0765422965135869</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+        <v>-25.259491170358817</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21">
         <f t="shared" ca="1" si="1"/>
-        <v>26.159821494058349</v>
+        <v>12.115170416020526</v>
       </c>
       <c r="B21">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.63840153565539737</v>
+        <v>15.58718091813995</v>
       </c>
       <c r="C21">
         <f t="shared" ca="1" si="1"/>
-        <v>13.78753998050297</v>
+        <v>39.193040106628672</v>
       </c>
       <c r="D21">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.79517153500236049</v>
+        <v>24.637534945608124</v>
       </c>
       <c r="E21">
         <f t="shared" ca="1" si="1"/>
-        <v>28.31177585619065</v>
+        <v>-25.78273905900852</v>
       </c>
       <c r="F21">
         <f t="shared" ca="1" si="1"/>
-        <v>-23.001278886220845</v>
+        <v>-29.826444358980865</v>
       </c>
       <c r="G21">
         <f t="shared" ca="1" si="1"/>
-        <v>0.26240481773452018</v>
+        <v>-44.198876146645105</v>
       </c>
       <c r="H21">
         <f t="shared" ca="1" si="1"/>
-        <v>12.232069426811663</v>
+        <v>-15.439407467430158</v>
       </c>
       <c r="I21">
         <f t="shared" ca="1" si="1"/>
-        <v>-20.581534859045327</v>
+        <v>14.710928282087451</v>
       </c>
       <c r="J21">
         <f t="shared" ca="1" si="1"/>
-        <v>22.98677777326607</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+        <v>31.972621091078608</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22">
         <f t="shared" ca="1" si="1"/>
-        <v>18.140945042568262</v>
+        <v>-36.283684189691421</v>
       </c>
       <c r="B22">
         <f t="shared" ca="1" si="1"/>
-        <v>-42.938659927045634</v>
+        <v>10.308793224480276</v>
       </c>
       <c r="C22">
         <f t="shared" ca="1" si="1"/>
-        <v>0.66138197904096785</v>
+        <v>30.410819261665438</v>
       </c>
       <c r="D22">
         <f t="shared" ca="1" si="1"/>
-        <v>1.0422013495952385</v>
+        <v>26.089210388800936</v>
       </c>
       <c r="E22">
         <f t="shared" ca="1" si="1"/>
-        <v>-13.172948708742396</v>
+        <v>-33.164490595818236</v>
       </c>
       <c r="F22">
         <f t="shared" ca="1" si="1"/>
-        <v>-19.695100521384646</v>
+        <v>-3.3881265599528874</v>
       </c>
       <c r="G22">
         <f t="shared" ca="1" si="1"/>
-        <v>-24.264947714508533</v>
+        <v>19.188516861323663</v>
       </c>
       <c r="H22">
         <f t="shared" ca="1" si="1"/>
-        <v>6.2517310569955882</v>
+        <v>-12.727755502734759</v>
       </c>
       <c r="I22">
         <f t="shared" ca="1" si="1"/>
-        <v>18.670464338862431</v>
+        <v>7.6504925901853866</v>
       </c>
       <c r="J22">
         <f t="shared" ca="1" si="1"/>
-        <v>13.384915789228934</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+        <v>32.145059529394871</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23">
         <f t="shared" ca="1" si="1"/>
-        <v>-27.449294501135533</v>
+        <v>34.457783881524591</v>
       </c>
       <c r="B23">
         <f t="shared" ca="1" si="1"/>
-        <v>9.1590702553034689</v>
+        <v>-33.119359569254456</v>
       </c>
       <c r="C23">
         <f t="shared" ca="1" si="1"/>
-        <v>-37.744885306899477</v>
+        <v>-34.44669558213063</v>
       </c>
       <c r="D23">
         <f t="shared" ca="1" si="1"/>
-        <v>-10.982357715368373</v>
+        <v>17.614582281979168</v>
       </c>
       <c r="E23">
         <f t="shared" ca="1" si="1"/>
-        <v>17.522451812286562</v>
+        <v>-25.867536895882324</v>
       </c>
       <c r="F23">
         <f t="shared" ca="1" si="1"/>
-        <v>40.555329172566999</v>
+        <v>18.139583870254697</v>
       </c>
       <c r="G23">
         <f t="shared" ca="1" si="1"/>
-        <v>-9.5493853741481445</v>
+        <v>48.436852951317306</v>
       </c>
       <c r="H23">
         <f t="shared" ca="1" si="1"/>
-        <v>-39.317564761379643</v>
+        <v>38.444773287797574</v>
       </c>
       <c r="I23">
         <f t="shared" ca="1" si="1"/>
-        <v>-20.269549593572933</v>
+        <v>20.646806691979592</v>
       </c>
       <c r="J23">
         <f t="shared" ca="1" si="1"/>
-        <v>-14.449939291077804</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+        <v>-10.011122893064915</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24">
         <f t="shared" ca="1" si="1"/>
-        <v>-14.232252361640555</v>
+        <v>11.462014912758235</v>
       </c>
       <c r="B24">
         <f t="shared" ca="1" si="1"/>
-        <v>2.3992160504191702</v>
+        <v>34.869617190360444</v>
       </c>
       <c r="C24">
         <f t="shared" ca="1" si="1"/>
-        <v>-39.430897023774335</v>
+        <v>-13.322607547142731</v>
       </c>
       <c r="D24">
         <f t="shared" ca="1" si="1"/>
-        <v>-41.788642451061662</v>
+        <v>18.895079261251439</v>
       </c>
       <c r="E24">
         <f t="shared" ca="1" si="1"/>
-        <v>27.182714689420052</v>
+        <v>-36.603124730984163</v>
       </c>
       <c r="F24">
         <f t="shared" ca="1" si="1"/>
-        <v>-24.302702794496945</v>
+        <v>-13.029082566666197</v>
       </c>
       <c r="G24">
         <f t="shared" ca="1" si="1"/>
-        <v>30.425962902472918</v>
+        <v>26.802885672972977</v>
       </c>
       <c r="H24">
         <f t="shared" ca="1" si="1"/>
-        <v>-42.207718679097795</v>
+        <v>20.598116638884349</v>
       </c>
       <c r="I24">
         <f t="shared" ca="1" si="1"/>
-        <v>-11.995237653994252</v>
+        <v>-1.0030283857817679</v>
       </c>
       <c r="J24">
         <f t="shared" ca="1" si="1"/>
-        <v>9.5260322259139585</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+        <v>32.248964315479853</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25">
         <f t="shared" ca="1" si="1"/>
-        <v>-27.008779263561276</v>
+        <v>10.794713911382978</v>
       </c>
       <c r="B25">
         <f t="shared" ca="1" si="1"/>
-        <v>-40.218268359046739</v>
+        <v>-6.8253763877930993</v>
       </c>
       <c r="C25">
         <f t="shared" ca="1" si="1"/>
-        <v>-20.026290957910565</v>
+        <v>35.445723251610843</v>
       </c>
       <c r="D25">
         <f t="shared" ca="1" si="1"/>
-        <v>39.394779044321055</v>
+        <v>43.24971821588079</v>
       </c>
       <c r="E25">
         <f t="shared" ca="1" si="1"/>
-        <v>-48.862103107051091</v>
+        <v>-28.183340362793551</v>
       </c>
       <c r="F25">
         <f t="shared" ca="1" si="1"/>
-        <v>-28.43696210449157</v>
+        <v>-42.434475123226619</v>
       </c>
       <c r="G25">
         <f t="shared" ca="1" si="1"/>
-        <v>-13.902825381212104</v>
+        <v>21.884538169428609</v>
       </c>
       <c r="H25">
         <f t="shared" ca="1" si="1"/>
-        <v>27.690225042495925</v>
+        <v>25.382777866724823</v>
       </c>
       <c r="I25">
         <f t="shared" ca="1" si="1"/>
-        <v>-24.348875755811562</v>
+        <v>-16.900356466526191</v>
       </c>
       <c r="J25">
         <f t="shared" ca="1" si="1"/>
-        <v>37.320242767731997</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+        <v>47.86670364678038</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26">
         <f t="shared" ca="1" si="1"/>
-        <v>36.542079365653137</v>
+        <v>33.469324104570902</v>
       </c>
       <c r="B26">
         <f t="shared" ca="1" si="1"/>
-        <v>40.167206292413439</v>
+        <v>-7.730913889844345</v>
       </c>
       <c r="C26">
         <f t="shared" ca="1" si="1"/>
-        <v>28.043243423516145</v>
+        <v>44.972201844585015</v>
       </c>
       <c r="D26">
         <f t="shared" ca="1" si="1"/>
-        <v>-34.538977481620257</v>
+        <v>-29.950066946878962</v>
       </c>
       <c r="E26">
         <f t="shared" ca="1" si="1"/>
-        <v>17.460382171200209</v>
+        <v>-21.176207829237846</v>
       </c>
       <c r="F26">
         <f t="shared" ca="1" si="1"/>
-        <v>-33.509563909670305</v>
+        <v>23.53396283599966</v>
       </c>
       <c r="G26">
         <f t="shared" ca="1" si="1"/>
-        <v>0.34533222363428706</v>
+        <v>-23.693250196016415</v>
       </c>
       <c r="H26">
         <f t="shared" ca="1" si="1"/>
-        <v>25.015637892574176</v>
+        <v>27.216560572472844</v>
       </c>
       <c r="I26">
         <f t="shared" ca="1" si="1"/>
-        <v>-47.60312472045397</v>
+        <v>36.858422371084899</v>
       </c>
       <c r="J26">
         <f t="shared" ca="1" si="1"/>
-        <v>-34.217596390333703</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+        <v>41.491397399201517</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27">
         <f t="shared" ca="1" si="1"/>
-        <v>27.120158317381154</v>
+        <v>-48.587072175908794</v>
       </c>
       <c r="B27">
         <f t="shared" ca="1" si="1"/>
-        <v>-20.705309561622698</v>
+        <v>-35.95828185272768</v>
       </c>
       <c r="C27">
         <f t="shared" ca="1" si="1"/>
-        <v>47.632278659947985</v>
+        <v>-36.081257612812699</v>
       </c>
       <c r="D27">
         <f t="shared" ca="1" si="1"/>
-        <v>-23.534038155365767</v>
+        <v>46.595473413730332</v>
       </c>
       <c r="E27">
         <f t="shared" ca="1" si="1"/>
-        <v>36.372138372811875</v>
+        <v>48.094496068114822</v>
       </c>
       <c r="F27">
         <f t="shared" ca="1" si="1"/>
-        <v>20.821978905089722</v>
+        <v>15.776392410965215</v>
       </c>
       <c r="G27">
         <f t="shared" ca="1" si="1"/>
-        <v>19.977415436769405</v>
+        <v>7.3467319304763237</v>
       </c>
       <c r="H27">
         <f t="shared" ca="1" si="1"/>
-        <v>6.8148507514968273</v>
+        <v>-16.532431107943665</v>
       </c>
       <c r="I27">
         <f t="shared" ca="1" si="1"/>
-        <v>-42.011018628451758</v>
+        <v>-37.663269397766101</v>
       </c>
       <c r="J27">
         <f t="shared" ca="1" si="1"/>
-        <v>45.986691206208135</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+        <v>-36.990002436328382</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28">
         <f t="shared" ca="1" si="1"/>
-        <v>-27.132763943333813</v>
+        <v>-24.646987770164163</v>
       </c>
       <c r="B28">
         <f t="shared" ca="1" si="1"/>
-        <v>-17.379958042156915</v>
+        <v>-33.084456148858791</v>
       </c>
       <c r="C28">
         <f t="shared" ca="1" si="1"/>
-        <v>27.558487294429597</v>
+        <v>-44.974935919534786</v>
       </c>
       <c r="D28">
         <f t="shared" ca="1" si="1"/>
-        <v>-33.357782868949954</v>
+        <v>0.48099420011762106</v>
       </c>
       <c r="E28">
         <f t="shared" ca="1" si="1"/>
-        <v>-37.160882069133692</v>
+        <v>13.769504793935695</v>
       </c>
       <c r="F28">
         <f t="shared" ca="1" si="1"/>
-        <v>-14.860808655586787</v>
+        <v>21.002552725723021</v>
       </c>
       <c r="G28">
         <f t="shared" ca="1" si="1"/>
-        <v>22.407828315977426</v>
+        <v>22.29342623916132</v>
       </c>
       <c r="H28">
         <f t="shared" ca="1" si="1"/>
-        <v>42.134024896720661</v>
+        <v>-4.7594839120229437</v>
       </c>
       <c r="I28">
         <f t="shared" ca="1" si="1"/>
-        <v>46.546991194234224</v>
+        <v>33.736332362103013</v>
       </c>
       <c r="J28">
         <f t="shared" ca="1" si="1"/>
-        <v>-19.556825725873082</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+        <v>-6.2596259694641532</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29">
         <f t="shared" ca="1" si="1"/>
-        <v>-19.070208567979218</v>
+        <v>36.618081629570582</v>
       </c>
       <c r="B29">
         <f t="shared" ca="1" si="1"/>
-        <v>29.755291884445839</v>
+        <v>26.583588931142643</v>
       </c>
       <c r="C29">
         <f t="shared" ca="1" si="1"/>
-        <v>35.926181247215169</v>
+        <v>-9.3297470455122635</v>
       </c>
       <c r="D29">
         <f t="shared" ca="1" si="1"/>
-        <v>-27.333228811242638</v>
+        <v>-12.566611462436228</v>
       </c>
       <c r="E29">
         <f t="shared" ca="1" si="1"/>
-        <v>38.646492035732109</v>
+        <v>-1.2183357249023743</v>
       </c>
       <c r="F29">
         <f t="shared" ca="1" si="1"/>
-        <v>20.916932945182538</v>
+        <v>8.3506824287035712</v>
       </c>
       <c r="G29">
         <f t="shared" ca="1" si="1"/>
-        <v>10.070997381184121</v>
+        <v>-19.678862213520009</v>
       </c>
       <c r="H29">
         <f t="shared" ca="1" si="1"/>
-        <v>11.887769352917289</v>
+        <v>49.969309986045161</v>
       </c>
       <c r="I29">
         <f t="shared" ca="1" si="1"/>
-        <v>30.855633275348879</v>
+        <v>32.145323703421397</v>
       </c>
       <c r="J29">
         <f t="shared" ca="1" si="1"/>
-        <v>46.614132955417475</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+        <v>-36.097136077255854</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30">
         <f t="shared" ca="1" si="1"/>
-        <v>48.090296943653371</v>
+        <v>41.256340820660128</v>
       </c>
       <c r="B30">
         <f t="shared" ca="1" si="1"/>
-        <v>-25.268126719076676</v>
+        <v>-41.185504523580022</v>
       </c>
       <c r="C30">
         <f t="shared" ca="1" si="1"/>
-        <v>6.7096140500827133</v>
+        <v>-22.84066714237375</v>
       </c>
       <c r="D30">
         <f t="shared" ca="1" si="1"/>
-        <v>-11.439791144505705</v>
+        <v>12.694433503007772</v>
       </c>
       <c r="E30">
         <f t="shared" ca="1" si="1"/>
-        <v>-10.081836745609721</v>
+        <v>-48.106839752489591</v>
       </c>
       <c r="F30">
         <f t="shared" ca="1" si="1"/>
-        <v>36.656033163478327</v>
+        <v>0.88494384567492546</v>
       </c>
       <c r="G30">
         <f t="shared" ca="1" si="1"/>
-        <v>27.394567454989485</v>
+        <v>-28.619152658771675</v>
       </c>
       <c r="H30">
         <f t="shared" ca="1" si="1"/>
-        <v>39.526189868079371</v>
+        <v>-24.25080869180438</v>
       </c>
       <c r="I30">
         <f t="shared" ca="1" si="1"/>
-        <v>14.133128551468261</v>
+        <v>14.201113169583664</v>
       </c>
       <c r="J30">
         <f t="shared" ca="1" si="1"/>
-        <v>23.798775860963758</v>
+        <v>-10.485271546915477</v>
       </c>
     </row>
   </sheetData>
